--- a/Projects/SANOFITN/Data/Template.xlsx
+++ b/Projects/SANOFITN/Data/Template.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Egnyte\Shared\Implementation\EMEA\SANOFI\Sanofi_TN\From Customer\Templates\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{1057653E-F286-494A-89B6-9E40B7C6DFED}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8895" windowHeight="1170" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8460" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="7" r:id="rId1"/>
@@ -19,12 +25,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Pavel Chernykh</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -60,7 +66,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B2" authorId="0">
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -74,7 +80,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C2" authorId="0">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -88,7 +94,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0">
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
       <text>
         <r>
           <rPr>
@@ -102,7 +108,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
       <text>
         <r>
           <rPr>
@@ -116,7 +122,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
       <text>
         <r>
           <rPr>
@@ -136,12 +142,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Pavel Chernykh</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -177,7 +183,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B2" authorId="0">
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -191,7 +197,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C2" authorId="0">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -205,7 +211,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
         <r>
           <rPr>
@@ -224,12 +230,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Pavel Chernykh</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -265,7 +271,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B2" authorId="0">
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -279,7 +285,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C2" authorId="0">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
       <text>
         <r>
           <rPr>
@@ -314,7 +320,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
       <text>
         <r>
           <rPr>
@@ -328,7 +334,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000005000000}">
       <text>
         <r>
           <rPr>
@@ -347,12 +353,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Pavel Chernykh</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -388,7 +394,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B2" authorId="0">
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
       <text>
         <r>
           <rPr>
@@ -402,7 +408,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C2" authorId="0">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000003000000}">
       <text>
         <r>
           <rPr>
@@ -416,7 +422,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0">
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000004000000}">
       <text>
         <r>
           <rPr>
@@ -442,7 +448,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000005000000}">
       <text>
         <r>
           <rPr>
@@ -468,7 +474,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000006000000}">
       <text>
         <r>
           <rPr>
@@ -487,12 +493,12 @@
 </file>
 
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Pavel Chernykh</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
       <text>
         <r>
           <rPr>
@@ -528,7 +534,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B2" authorId="0">
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
       <text>
         <r>
           <rPr>
@@ -542,7 +548,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C2" authorId="0">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000003000000}">
       <text>
         <r>
           <rPr>
@@ -556,7 +562,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0">
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000004000000}">
       <text>
         <r>
           <rPr>
@@ -570,7 +576,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000005000000}">
       <text>
         <r>
           <rPr>
@@ -584,7 +590,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000006000000}">
       <text>
         <r>
           <rPr>
@@ -603,7 +609,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="99">
   <si>
     <t>KPI Name</t>
   </si>
@@ -840,9 +846,6 @@
     <t>Enterogermina 2BCFU/5ml susp BT10 S3 XE</t>
   </si>
   <si>
-    <t xml:space="preserve">Cough &amp; Cold </t>
-  </si>
-  <si>
     <t>Digestive Health</t>
   </si>
   <si>
@@ -853,39 +856,18 @@
 Grippe &amp; Rhume</t>
   </si>
   <si>
-    <t>9103482,6192408100810,9103489,6192408100469,</t>
-  </si>
-  <si>
-    <t>6192408100353,6192408100032,6192408101886,6192408101893,</t>
-  </si>
-  <si>
     <t>Doliprane 500 mg cpr (16),Doliprane 500 mg sachets (12),Doliprane 500 mg vit C eff (16),Doliprane 1gr cpr (8)</t>
   </si>
   <si>
-    <t>Aspegic 1000 mg sachets (20),Aspegic 100 mg powd SC30 M24 TN,Aspegic 500 mg powd SC16 M24 TN,Aspegic 250 mg powd SC16 M24 TN</t>
-  </si>
-  <si>
     <t>Maxilase sol buv 125 ml,Maxilase 3000 UI cpr (24)</t>
   </si>
   <si>
-    <t>6192408101510,6192408101527</t>
-  </si>
-  <si>
-    <t>Ibuprane 200 mg cpr pel (20),Ibuprane 400 mg cpr pel (20)</t>
-  </si>
-  <si>
-    <t>6192408100308</t>
-  </si>
-  <si>
     <t>9103471</t>
   </si>
   <si>
     <t>6192408100179,6192408100162</t>
   </si>
   <si>
-    <t>6192408101909,6192408100155</t>
-  </si>
-  <si>
     <t>Rhinathiol enfant sol buv 125 ml,Rhinathiol adulte sol buv 300 ml</t>
   </si>
   <si>
@@ -895,7 +877,19 @@
     <t>Enterogermina 2BCFU/5ml susp BT10 S3 XE,Enterogermina 2 milliards, oral solution, pack 20</t>
   </si>
   <si>
-    <t>6192408101510</t>
+    <t>6192408100308,6192408100155</t>
+  </si>
+  <si>
+    <t>9103482,9103489,6192408100469,6192408100810</t>
+  </si>
+  <si>
+    <t>6192408101527</t>
+  </si>
+  <si>
+    <t>Aspegic 1000 mg sachets (20),Aspegic 100 mg powd SC30 M24 TN,Aspegic 500 mg powd SC16 M24 TN</t>
+  </si>
+  <si>
+    <t>6192408100032,6192408101886,6192408101909</t>
   </si>
   <si>
     <t>SATN.DOL.17.12.0299</t>
@@ -914,13 +908,19 @@
   </si>
   <si>
     <t>SATN.DOL.17.12.0304</t>
+  </si>
+  <si>
+    <t>Doliprex</t>
+  </si>
+  <si>
+    <t>Cough &amp; Cold</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="26">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1327,7 +1327,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="6" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1511,16 +1511,19 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="1" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1528,30 +1531,30 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1570,15 +1573,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1604,10 +1598,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="22" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1984,32 +1975,32 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" customWidth="1"/>
+    <col min="2" max="2" width="24.88671875" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+    <col min="4" max="4" width="18.88671875" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" customWidth="1"/>
-    <col min="7" max="7" width="24.28515625" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" customWidth="1"/>
+    <col min="7" max="7" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30">
+    <row r="1" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
@@ -2032,7 +2023,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30">
+    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
         <v>1</v>
       </c>
@@ -2053,7 +2044,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="30">
+    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
         <v>2</v>
       </c>
@@ -2074,7 +2065,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="30">
+    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
         <v>3</v>
       </c>
@@ -2095,7 +2086,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="45">
+    <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="25" t="s">
         <v>13</v>
       </c>
@@ -2116,7 +2107,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="30">
+    <row r="6" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
         <v>4</v>
       </c>
@@ -2137,7 +2128,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="30">
+    <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="25" t="s">
         <v>35</v>
       </c>
@@ -2158,7 +2149,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="30">
+    <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="28" t="s">
         <v>5</v>
       </c>
@@ -2177,7 +2168,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="30">
+    <row r="9" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="28" t="s">
         <v>5</v>
       </c>
@@ -2198,7 +2189,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="30">
+    <row r="10" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="28" t="s">
         <v>31</v>
       </c>
@@ -2213,7 +2204,7 @@
       <c r="F10" s="27"/>
       <c r="G10" s="29"/>
     </row>
-    <row r="11" spans="1:7" ht="30">
+    <row r="11" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="28" t="s">
         <v>32</v>
       </c>
@@ -2228,7 +2219,7 @@
       <c r="F11" s="27"/>
       <c r="G11" s="29"/>
     </row>
-    <row r="12" spans="1:7" ht="30">
+    <row r="12" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="40" t="s">
         <v>33</v>
       </c>
@@ -2251,37 +2242,37 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7:G9"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="42.28515625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" style="62" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" style="5" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="5" customWidth="1"/>
-    <col min="8" max="16384" width="8.85546875" style="2"/>
+    <col min="1" max="1" width="24.6640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="42.33203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" style="62" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" style="5" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="60"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="73" t="s">
+      <c r="F1" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="74"/>
-    </row>
-    <row r="2" spans="1:7" ht="15.75">
+      <c r="G1" s="75"/>
+    </row>
+    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -2304,7 +2295,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -2327,7 +2318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -2350,7 +2341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -2373,7 +2364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -2396,7 +2387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
@@ -2419,7 +2410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -2442,7 +2433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
@@ -2465,21 +2456,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="63">
+      <c r="C10" s="44">
         <v>6192408100353</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" s="65" t="s">
-        <v>76</v>
+        <v>97</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>98</v>
       </c>
       <c r="F10" s="45">
         <v>1</v>
@@ -2488,7 +2479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>5</v>
       </c>
@@ -2511,7 +2502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>5</v>
       </c>
@@ -2531,10 +2522,10 @@
         <v>1</v>
       </c>
       <c r="G12" s="46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>5</v>
       </c>
@@ -2554,10 +2545,10 @@
         <v>1</v>
       </c>
       <c r="G13" s="46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>5</v>
       </c>
@@ -2580,7 +2571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>5</v>
       </c>
@@ -2593,8 +2584,8 @@
       <c r="D15" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E15" s="65" t="s">
-        <v>76</v>
+      <c r="E15" s="4" t="s">
+        <v>98</v>
       </c>
       <c r="F15" s="45">
         <v>1</v>
@@ -2603,7 +2594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>5</v>
       </c>
@@ -2616,8 +2607,8 @@
       <c r="D16" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E16" s="65" t="s">
-        <v>76</v>
+      <c r="E16" s="4" t="s">
+        <v>98</v>
       </c>
       <c r="F16" s="45">
         <v>1</v>
@@ -2626,7 +2617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>5</v>
       </c>
@@ -2637,10 +2628,10 @@
         <v>6192408100179</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="E17" s="65" t="s">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>98</v>
       </c>
       <c r="F17" s="45">
         <v>1</v>
@@ -2649,7 +2640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>5</v>
       </c>
@@ -2660,10 +2651,10 @@
         <v>6192408100162</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="E18" s="65" t="s">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>98</v>
       </c>
       <c r="F18" s="45">
         <v>1</v>
@@ -2672,7 +2663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>5</v>
       </c>
@@ -2685,8 +2676,8 @@
       <c r="D19" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E19" s="65" t="s">
-        <v>76</v>
+      <c r="E19" s="4" t="s">
+        <v>98</v>
       </c>
       <c r="F19" s="45">
         <v>1</v>
@@ -2695,7 +2686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>5</v>
       </c>
@@ -2709,7 +2700,7 @@
         <v>54</v>
       </c>
       <c r="E20" s="64" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F20" s="45">
         <v>0</v>
@@ -2718,7 +2709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>5</v>
       </c>
@@ -2732,7 +2723,7 @@
         <v>54</v>
       </c>
       <c r="E21" s="64" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F21" s="47">
         <v>0</v>
@@ -2741,7 +2732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>5</v>
       </c>
@@ -2764,7 +2755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>5</v>
       </c>
@@ -2787,7 +2778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D24" s="4"/>
     </row>
   </sheetData>
@@ -2801,36 +2792,36 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" style="10" customWidth="1"/>
+    <col min="1" max="1" width="24.6640625" style="10" customWidth="1"/>
     <col min="2" max="3" width="21" style="10" customWidth="1"/>
     <col min="4" max="4" width="28" style="10" customWidth="1"/>
     <col min="5" max="5" width="21" style="10" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" style="10" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" style="10" customWidth="1"/>
-    <col min="8" max="16384" width="8.85546875" style="8"/>
+    <col min="6" max="6" width="10.6640625" style="10" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" style="10" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9"/>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
-      <c r="F1" s="73" t="s">
+      <c r="F1" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="74"/>
-    </row>
-    <row r="2" spans="1:7" ht="15.75">
+      <c r="G1" s="75"/>
+    </row>
+    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -2853,7 +2844,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
         <v>13</v>
       </c>
@@ -2864,7 +2855,7 @@
       <c r="F3" s="51"/>
       <c r="G3" s="51"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
         <v>13</v>
       </c>
@@ -2875,7 +2866,7 @@
       <c r="F4" s="51"/>
       <c r="G4" s="51"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
         <v>13</v>
       </c>
@@ -2886,7 +2877,7 @@
       <c r="F5" s="51"/>
       <c r="G5" s="51"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
         <v>13</v>
       </c>
@@ -2897,7 +2888,7 @@
       <c r="F6" s="51"/>
       <c r="G6" s="51"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
         <v>13</v>
       </c>
@@ -2908,7 +2899,7 @@
       <c r="F7" s="51"/>
       <c r="G7" s="51"/>
     </row>
-    <row r="8" spans="1:7" s="50" customFormat="1">
+    <row r="8" spans="1:7" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A8" s="48" t="s">
         <v>13</v>
       </c>
@@ -2919,7 +2910,7 @@
       <c r="F8" s="51"/>
       <c r="G8" s="51"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
         <v>13</v>
       </c>
@@ -2930,7 +2921,7 @@
       <c r="F9" s="51"/>
       <c r="G9" s="51"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
         <v>13</v>
       </c>
@@ -2941,7 +2932,7 @@
       <c r="F10" s="51"/>
       <c r="G10" s="51"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="s">
         <v>13</v>
       </c>
@@ -2952,7 +2943,7 @@
       <c r="F11" s="51"/>
       <c r="G11" s="52"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A12" s="11" t="s">
         <v>13</v>
       </c>
@@ -2963,7 +2954,7 @@
       <c r="F12" s="53"/>
       <c r="G12" s="54"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A13" s="11" t="s">
         <v>13</v>
       </c>
@@ -2974,7 +2965,7 @@
       <c r="F13" s="51"/>
       <c r="G13" s="51"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A14" s="11" t="s">
         <v>13</v>
       </c>
@@ -2985,7 +2976,7 @@
       <c r="F14" s="51"/>
       <c r="G14" s="51"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A15" s="11" t="s">
         <v>13</v>
       </c>
@@ -2996,7 +2987,7 @@
       <c r="F15" s="51"/>
       <c r="G15" s="51"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A16" s="11" t="s">
         <v>13</v>
       </c>
@@ -3007,7 +2998,7 @@
       <c r="F16" s="51"/>
       <c r="G16" s="51"/>
     </row>
-    <row r="17" spans="1:7" s="50" customFormat="1">
+    <row r="17" spans="1:7" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A17" s="48" t="s">
         <v>13</v>
       </c>
@@ -3018,7 +3009,7 @@
       <c r="F17" s="51"/>
       <c r="G17" s="51"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A18" s="11" t="s">
         <v>13</v>
       </c>
@@ -3029,7 +3020,7 @@
       <c r="F18" s="51"/>
       <c r="G18" s="51"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A19" s="11" t="s">
         <v>13</v>
       </c>
@@ -3040,7 +3031,7 @@
       <c r="F19" s="51"/>
       <c r="G19" s="51"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A20" s="11" t="s">
         <v>13</v>
       </c>
@@ -3061,34 +3052,35 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="20.5703125" style="35" customWidth="1"/>
-    <col min="4" max="4" width="42.42578125" style="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.42578125" style="35" customWidth="1"/>
-    <col min="6" max="7" width="10.28515625" style="35" customWidth="1"/>
-    <col min="8" max="16384" width="8.85546875" style="33"/>
+    <col min="1" max="2" width="20.5546875" style="35" customWidth="1"/>
+    <col min="3" max="3" width="20.5546875" style="70" customWidth="1"/>
+    <col min="4" max="4" width="42.44140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="63.33203125" style="35" customWidth="1"/>
+    <col min="6" max="7" width="10.33203125" style="35" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="32"/>
       <c r="B1" s="32"/>
       <c r="C1" s="32"/>
       <c r="D1" s="32"/>
       <c r="E1" s="32"/>
-      <c r="F1" s="73" t="s">
+      <c r="F1" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="74"/>
-    </row>
-    <row r="2" spans="1:7" ht="15.75">
+      <c r="G1" s="75"/>
+    </row>
+    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -3111,185 +3103,185 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A3" s="79" t="s">
+    <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="84" t="s">
+      <c r="B3" s="85" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="81" t="s">
+      <c r="C3" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="79" t="s">
+      <c r="D3" s="78" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" s="87" t="s">
+        <v>87</v>
+      </c>
+      <c r="F3" s="82">
+        <v>1</v>
+      </c>
+      <c r="G3" s="91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="84"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="92"/>
+    </row>
+    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="84"/>
+      <c r="B5" s="97"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="88"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="92"/>
+    </row>
+    <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="79"/>
+      <c r="B6" s="86"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="89"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="93"/>
+    </row>
+    <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="78" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="85" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="76" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="78" t="s">
+        <v>89</v>
+      </c>
+      <c r="E7" s="87" t="s">
+        <v>90</v>
+      </c>
+      <c r="F7" s="82">
+        <v>1</v>
+      </c>
+      <c r="G7" s="82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="84"/>
+      <c r="B8" s="97"/>
+      <c r="C8" s="96"/>
+      <c r="D8" s="84"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="90"/>
+      <c r="G8" s="90"/>
+    </row>
+    <row r="9" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="84"/>
+      <c r="B9" s="97"/>
+      <c r="C9" s="96"/>
+      <c r="D9" s="84"/>
+      <c r="E9" s="88"/>
+      <c r="F9" s="90"/>
+      <c r="G9" s="90"/>
+    </row>
+    <row r="10" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="79"/>
+      <c r="B10" s="86"/>
+      <c r="C10" s="77"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="89"/>
+      <c r="F10" s="83"/>
+      <c r="G10" s="83"/>
+    </row>
+    <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="78" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="85" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="94" t="s">
+        <v>98</v>
+      </c>
+      <c r="D11" s="78" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" s="80" t="s">
+        <v>86</v>
+      </c>
+      <c r="F11" s="82">
+        <v>1</v>
+      </c>
+      <c r="G11" s="82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="79"/>
+      <c r="B12" s="86"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="83"/>
+      <c r="G12" s="83"/>
+    </row>
+    <row r="13" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="78" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="85" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="94" t="s">
+        <v>98</v>
+      </c>
+      <c r="D13" s="78" t="s">
+        <v>83</v>
+      </c>
+      <c r="E13" s="98" t="s">
         <v>82</v>
       </c>
-      <c r="E3" s="86" t="s">
-        <v>80</v>
-      </c>
-      <c r="F3" s="75">
-        <v>1</v>
-      </c>
-      <c r="G3" s="93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A4" s="83"/>
-      <c r="B4" s="99"/>
-      <c r="C4" s="98"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="94"/>
-    </row>
-    <row r="5" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A5" s="83"/>
-      <c r="B5" s="99"/>
-      <c r="C5" s="98"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="92"/>
-      <c r="G5" s="94"/>
-    </row>
-    <row r="6" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A6" s="80"/>
-      <c r="B6" s="85"/>
-      <c r="C6" s="82"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="88"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="95"/>
-    </row>
-    <row r="7" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A7" s="79" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="84" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" s="81" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="79" t="s">
-        <v>83</v>
-      </c>
-      <c r="E7" s="89" t="s">
-        <v>81</v>
-      </c>
-      <c r="F7" s="75">
-        <v>1</v>
-      </c>
-      <c r="G7" s="75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A8" s="83"/>
-      <c r="B8" s="99"/>
-      <c r="C8" s="98"/>
-      <c r="D8" s="83"/>
-      <c r="E8" s="90"/>
-      <c r="F8" s="92"/>
-      <c r="G8" s="92"/>
-    </row>
-    <row r="9" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A9" s="83"/>
-      <c r="B9" s="99"/>
-      <c r="C9" s="98"/>
-      <c r="D9" s="83"/>
-      <c r="E9" s="90"/>
-      <c r="F9" s="92"/>
-      <c r="G9" s="92"/>
-    </row>
-    <row r="10" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A10" s="80"/>
-      <c r="B10" s="85"/>
-      <c r="C10" s="82"/>
-      <c r="D10" s="80"/>
-      <c r="E10" s="91"/>
-      <c r="F10" s="76"/>
-      <c r="G10" s="76"/>
-    </row>
-    <row r="11" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A11" s="79" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="84" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="96" t="s">
-        <v>76</v>
-      </c>
-      <c r="D11" s="79" t="s">
-        <v>84</v>
-      </c>
-      <c r="E11" s="77" t="s">
-        <v>90</v>
-      </c>
-      <c r="F11" s="75">
-        <v>1</v>
-      </c>
-      <c r="G11" s="75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A12" s="80"/>
-      <c r="B12" s="85"/>
-      <c r="C12" s="97"/>
-      <c r="D12" s="80"/>
-      <c r="E12" s="78"/>
-      <c r="F12" s="76"/>
-      <c r="G12" s="76"/>
-    </row>
-    <row r="13" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A13" s="79" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="84" t="s">
-        <v>78</v>
-      </c>
-      <c r="C13" s="96" t="s">
-        <v>76</v>
-      </c>
-      <c r="D13" s="79" t="s">
-        <v>91</v>
-      </c>
-      <c r="E13" s="77" t="s">
-        <v>89</v>
-      </c>
-      <c r="F13" s="75">
-        <v>1</v>
-      </c>
-      <c r="G13" s="75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A14" s="80"/>
-      <c r="B14" s="85"/>
-      <c r="C14" s="97"/>
-      <c r="D14" s="80"/>
-      <c r="E14" s="78"/>
-      <c r="F14" s="76"/>
-      <c r="G14" s="76"/>
-    </row>
-    <row r="15" spans="1:7" ht="14.25">
+      <c r="F13" s="82">
+        <v>1</v>
+      </c>
+      <c r="G13" s="82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="79"/>
+      <c r="B14" s="86"/>
+      <c r="C14" s="95"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="83"/>
+      <c r="G14" s="83"/>
+    </row>
+    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A15" s="34" t="s">
         <v>3</v>
       </c>
       <c r="B15" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="71" t="s">
-        <v>76</v>
-      </c>
-      <c r="D15" s="72" t="s">
+      <c r="C15" s="69" t="s">
+        <v>98</v>
+      </c>
+      <c r="D15" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="E15" s="70" t="s">
-        <v>88</v>
+      <c r="E15" s="71" t="s">
+        <v>81</v>
       </c>
       <c r="F15" s="51">
         <v>1</v>
@@ -3298,134 +3290,136 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="14.25">
+    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A16" s="34" t="s">
         <v>3</v>
       </c>
       <c r="B16" s="59" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" s="71" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16" s="69" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" s="72">
+        <v>6192408100353</v>
+      </c>
+      <c r="F16" s="51">
+        <v>1</v>
+      </c>
+      <c r="G16" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="78" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="85" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="76" t="s">
         <v>76</v>
       </c>
-      <c r="D16" s="72" t="s">
-        <v>59</v>
-      </c>
-      <c r="E16" s="70" t="s">
-        <v>87</v>
-      </c>
-      <c r="F16" s="51">
-        <v>1</v>
-      </c>
-      <c r="G16" s="51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A17" s="79" t="s">
+      <c r="D17" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="E17" s="80" t="s">
+        <v>84</v>
+      </c>
+      <c r="F17" s="82">
+        <v>0</v>
+      </c>
+      <c r="G17" s="82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="79"/>
+      <c r="B18" s="86"/>
+      <c r="C18" s="77"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="81"/>
+      <c r="F18" s="83"/>
+      <c r="G18" s="83"/>
+    </row>
+    <row r="19" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="84" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="81" t="s">
-        <v>77</v>
-      </c>
-      <c r="D17" s="79" t="s">
-        <v>93</v>
-      </c>
-      <c r="E17" s="100" t="s">
-        <v>92</v>
-      </c>
-      <c r="F17" s="75">
-        <v>0</v>
-      </c>
-      <c r="G17" s="75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A18" s="80"/>
-      <c r="B18" s="85"/>
-      <c r="C18" s="82"/>
-      <c r="D18" s="80"/>
-      <c r="E18" s="101"/>
-      <c r="F18" s="76"/>
-      <c r="G18" s="76"/>
-    </row>
-    <row r="19" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A19" s="79" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="84" t="s">
+      <c r="B19" s="85" t="s">
         <v>52</v>
       </c>
-      <c r="C19" s="81" t="s">
+      <c r="C19" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="79" t="s">
-        <v>86</v>
-      </c>
-      <c r="E19" s="77" t="s">
-        <v>85</v>
-      </c>
-      <c r="F19" s="75">
-        <v>0</v>
-      </c>
-      <c r="G19" s="75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A20" s="80"/>
-      <c r="B20" s="85"/>
-      <c r="C20" s="82"/>
-      <c r="D20" s="80"/>
-      <c r="E20" s="78"/>
-      <c r="F20" s="76"/>
-      <c r="G20" s="76"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="79" t="s">
-        <v>3</v>
-      </c>
-      <c r="B21" s="84" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" s="81" t="s">
-        <v>38</v>
-      </c>
-      <c r="D21" s="79" t="s">
+      <c r="D19" s="78" t="s">
         <v>70</v>
       </c>
-      <c r="E21" s="77" t="s">
-        <v>94</v>
-      </c>
-      <c r="F21" s="75">
-        <v>0</v>
-      </c>
-      <c r="G21" s="75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="80"/>
-      <c r="B22" s="85"/>
-      <c r="C22" s="82"/>
-      <c r="D22" s="80"/>
-      <c r="E22" s="78"/>
-      <c r="F22" s="76"/>
-      <c r="G22" s="76"/>
+      <c r="E19" s="80" t="s">
+        <v>88</v>
+      </c>
+      <c r="F19" s="82">
+        <v>1</v>
+      </c>
+      <c r="G19" s="82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="79"/>
+      <c r="B20" s="86"/>
+      <c r="C20" s="77"/>
+      <c r="D20" s="79"/>
+      <c r="E20" s="81"/>
+      <c r="F20" s="83"/>
+      <c r="G20" s="83"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="78"/>
+      <c r="B21" s="85"/>
+      <c r="C21" s="76"/>
+      <c r="D21" s="78"/>
+      <c r="E21" s="80"/>
+      <c r="F21" s="82"/>
+      <c r="G21" s="82"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="79"/>
+      <c r="B22" s="86"/>
+      <c r="C22" s="77"/>
+      <c r="D22" s="79"/>
+      <c r="E22" s="81"/>
+      <c r="F22" s="83"/>
+      <c r="G22" s="83"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E26" s="63"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E27" s="63"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E28" s="63"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E29" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="C17:C18"/>
     <mergeCell ref="E13:E14"/>
     <mergeCell ref="E11:E12"/>
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="E17:E18"/>
     <mergeCell ref="D17:D18"/>
     <mergeCell ref="D11:D12"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="D19:D20"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="B13:B14"/>
@@ -3458,17 +3452,13 @@
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B20"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="D21:D22"/>
     <mergeCell ref="E21:E22"/>
     <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G19:G20"/>
     <mergeCell ref="G21:G22"/>
-    <mergeCell ref="G19:G20"/>
     <mergeCell ref="F19:F20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="C19:C20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3477,37 +3467,37 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14:D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="16" customWidth="1"/>
-    <col min="2" max="2" width="39.85546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" style="16" customWidth="1"/>
+    <col min="1" max="1" width="28.109375" style="16" customWidth="1"/>
+    <col min="2" max="2" width="39.88671875" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" style="16" customWidth="1"/>
     <col min="4" max="4" width="26" style="18" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" style="18" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="16" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" style="16" customWidth="1"/>
-    <col min="8" max="16384" width="8.85546875" style="13"/>
+    <col min="5" max="5" width="18.6640625" style="18" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="16" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" style="16" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="73" t="s">
+      <c r="F1" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="74"/>
-    </row>
-    <row r="2" spans="1:7" ht="15.75">
+      <c r="G1" s="75"/>
+    </row>
+    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
@@ -3530,7 +3520,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="25.5">
+    <row r="3" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
         <v>1</v>
       </c>
@@ -3543,7 +3533,7 @@
       <c r="D3" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="E3" s="59" t="s">
+      <c r="E3" s="73" t="s">
         <v>38</v>
       </c>
       <c r="F3" s="55">
@@ -3553,7 +3543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="25.5">
+    <row r="4" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
         <v>1</v>
       </c>
@@ -3561,12 +3551,12 @@
         <v>41</v>
       </c>
       <c r="C4" s="59" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D4" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="E4" s="59" t="s">
+      <c r="E4" s="73" t="s">
         <v>38</v>
       </c>
       <c r="F4" s="55">
@@ -3576,21 +3566,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="25.5">
+    <row r="5" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="66" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C5" s="59" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D5" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="E5" s="59" t="s">
-        <v>76</v>
+      <c r="E5" s="69" t="s">
+        <v>98</v>
       </c>
       <c r="F5" s="55">
         <v>1</v>
@@ -3599,7 +3589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="25.5">
+    <row r="6" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
         <v>1</v>
       </c>
@@ -3607,7 +3597,7 @@
         <v>42</v>
       </c>
       <c r="C6" s="59" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D6" s="59" t="s">
         <v>52</v>
@@ -3616,13 +3606,13 @@
         <v>38</v>
       </c>
       <c r="F6" s="55">
+        <v>1</v>
+      </c>
+      <c r="G6" s="55">
         <v>0</v>
       </c>
-      <c r="G6" s="55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="25.5">
+    </row>
+    <row r="7" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
         <v>1</v>
       </c>
@@ -3630,13 +3620,13 @@
         <v>43</v>
       </c>
       <c r="C7" s="59" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D7" s="59" t="s">
         <v>54</v>
       </c>
       <c r="E7" s="59" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F7" s="55">
         <v>0</v>
@@ -3645,7 +3635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="25.5">
+    <row r="8" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
         <v>1</v>
       </c>
@@ -3653,13 +3643,13 @@
         <v>44</v>
       </c>
       <c r="C8" s="59" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D8" s="59" t="s">
-        <v>78</v>
-      </c>
-      <c r="E8" s="59" t="s">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="E8" s="69" t="s">
+        <v>98</v>
       </c>
       <c r="F8" s="55">
         <v>0</v>
@@ -3668,7 +3658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="25.5">
+    <row r="9" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>1</v>
       </c>
@@ -3676,13 +3666,13 @@
         <v>45</v>
       </c>
       <c r="C9" s="59" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D9" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="E9" s="59" t="s">
-        <v>76</v>
+      <c r="E9" s="69" t="s">
+        <v>98</v>
       </c>
       <c r="F9" s="55">
         <v>1</v>
@@ -3691,7 +3681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="36" t="s">
         <v>4</v>
       </c>
@@ -3714,7 +3704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C11" s="17"/>
     </row>
   </sheetData>
@@ -3728,37 +3718,37 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" style="23" customWidth="1"/>
-    <col min="2" max="2" width="42.28515625" style="23" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="23" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" style="23" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" style="23" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" style="23" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" style="23" customWidth="1"/>
-    <col min="8" max="16384" width="8.85546875" style="19"/>
+    <col min="1" max="1" width="30.6640625" style="23" customWidth="1"/>
+    <col min="2" max="2" width="42.33203125" style="23" customWidth="1"/>
+    <col min="3" max="3" width="18.5546875" style="23" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" style="23" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" style="23" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" style="23" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="23" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="20"/>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
       <c r="D1" s="20"/>
       <c r="E1" s="20"/>
-      <c r="F1" s="73" t="s">
+      <c r="F1" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="74"/>
-    </row>
-    <row r="2" spans="1:7" ht="31.5">
+      <c r="G1" s="75"/>
+    </row>
+    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
@@ -3781,14 +3771,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="22" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="68" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="43">
+      <c r="C3" s="62">
         <v>9103482</v>
       </c>
       <c r="D3" s="59" t="s">
@@ -3804,14 +3794,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="22" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="43">
+      <c r="C4" s="62">
         <v>9103489</v>
       </c>
       <c r="D4" s="59" t="s">
@@ -3827,14 +3817,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="68" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="44">
+      <c r="C5" s="63">
         <v>6192408100469</v>
       </c>
       <c r="D5" s="59" t="s">
@@ -3850,14 +3840,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="22" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="68" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="44">
+      <c r="C6" s="63">
         <v>6192408100810</v>
       </c>
       <c r="D6" s="59" t="s">
@@ -3873,14 +3863,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="22" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="68" t="s">
         <v>70</v>
       </c>
-      <c r="C7" s="44">
+      <c r="C7" s="63">
         <v>6192408101510</v>
       </c>
       <c r="D7" s="59" t="s">
@@ -3896,14 +3886,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="22" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="C8" s="44">
+      <c r="C8" s="63">
         <v>6192408101527</v>
       </c>
       <c r="D8" s="59" t="s">
@@ -3919,15 +3909,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="22" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="68" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="44">
-        <v>6192408100353</v>
+      <c r="C9" s="63">
+        <v>6192408100032</v>
       </c>
       <c r="D9" s="59" t="s">
         <v>49</v>
@@ -3942,15 +3932,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="22" t="s">
         <v>2</v>
       </c>
       <c r="B10" s="68" t="s">
         <v>61</v>
       </c>
-      <c r="C10" s="44">
-        <v>6192408100032</v>
+      <c r="C10" s="63">
+        <v>6192408101886</v>
       </c>
       <c r="D10" s="59" t="s">
         <v>49</v>
@@ -3962,18 +3952,18 @@
         <v>2</v>
       </c>
       <c r="G10" s="56">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="22" t="s">
         <v>2</v>
       </c>
       <c r="B11" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="C11" s="44">
-        <v>6192408101886</v>
+      <c r="C11" s="63">
+        <v>6192408101909</v>
       </c>
       <c r="D11" s="59" t="s">
         <v>49</v>
@@ -3988,7 +3978,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.35">
       <c r="A12" s="22" t="s">
         <v>2</v>
       </c>
@@ -3996,13 +3986,13 @@
         <v>59</v>
       </c>
       <c r="C12" s="44">
-        <v>6192408100308</v>
+        <v>6192408100353</v>
       </c>
       <c r="D12" s="59" t="s">
-        <v>48</v>
+        <v>97</v>
       </c>
       <c r="E12" s="69" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="F12" s="56">
         <v>2</v>
@@ -4011,21 +4001,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="22" t="s">
         <v>2</v>
       </c>
       <c r="B13" s="68" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="44">
-        <v>6192408101909</v>
+      <c r="C13" s="63">
+        <v>6192408100155</v>
       </c>
       <c r="D13" s="59" t="s">
         <v>50</v>
       </c>
       <c r="E13" s="69" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="F13" s="56">
         <v>2</v>
@@ -4034,21 +4024,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="22" t="s">
         <v>2</v>
       </c>
       <c r="B14" s="68" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="44">
-        <v>6192408100155</v>
+      <c r="C14" s="63">
+        <v>6192408100308</v>
       </c>
       <c r="D14" s="59" t="s">
         <v>50</v>
       </c>
       <c r="E14" s="69" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="F14" s="56">
         <v>3</v>
@@ -4057,67 +4047,67 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="22" t="s">
         <v>2</v>
       </c>
       <c r="B15" s="68" t="s">
         <v>66</v>
       </c>
-      <c r="C15" s="44">
+      <c r="C15" s="63">
         <v>6192408100179</v>
       </c>
       <c r="D15" s="59" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E15" s="69" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="F15" s="56">
         <v>2</v>
       </c>
       <c r="G15" s="56">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="22" t="s">
         <v>2</v>
       </c>
       <c r="B16" s="68" t="s">
         <v>67</v>
       </c>
-      <c r="C16" s="44">
+      <c r="C16" s="63">
         <v>6192408100162</v>
       </c>
       <c r="D16" s="59" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E16" s="69" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="F16" s="56">
         <v>2</v>
       </c>
       <c r="G16" s="56">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="22" t="s">
         <v>2</v>
       </c>
       <c r="B17" s="68" t="s">
         <v>68</v>
       </c>
-      <c r="C17" s="43">
+      <c r="C17" s="62">
         <v>9103471</v>
       </c>
       <c r="D17" s="59" t="s">
         <v>51</v>
       </c>
       <c r="E17" s="69" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="F17" s="56">
         <v>2</v>
@@ -4126,21 +4116,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="22" t="s">
         <v>2</v>
       </c>
       <c r="B18" s="68" t="s">
         <v>75</v>
       </c>
-      <c r="C18" s="44">
+      <c r="C18" s="63">
         <v>3582910075455</v>
       </c>
       <c r="D18" s="59" t="s">
         <v>54</v>
       </c>
       <c r="E18" s="67" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F18" s="56">
         <v>0</v>
@@ -4149,21 +4139,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="22" t="s">
         <v>2</v>
       </c>
       <c r="B19" s="68" t="s">
         <v>69</v>
       </c>
-      <c r="C19" s="44">
+      <c r="C19" s="63">
         <v>3582910075448</v>
       </c>
       <c r="D19" s="59" t="s">
         <v>54</v>
       </c>
       <c r="E19" s="67" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F19" s="56">
         <v>0</v>
@@ -4172,14 +4162,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="58" customFormat="1">
+    <row r="20" spans="1:7" s="58" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="57" t="s">
         <v>35</v>
       </c>
       <c r="B20" s="68" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="43">
+      <c r="C20" s="62">
         <v>9103482</v>
       </c>
       <c r="D20" s="59" t="s">
@@ -4195,14 +4185,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="58" customFormat="1">
+    <row r="21" spans="1:7" s="58" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="57" t="s">
         <v>35</v>
       </c>
       <c r="B21" s="68" t="s">
         <v>58</v>
       </c>
-      <c r="C21" s="44">
+      <c r="C21" s="63">
         <v>6192408100810</v>
       </c>
       <c r="D21" s="59" t="s">
@@ -4218,14 +4208,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="58" customFormat="1">
+    <row r="22" spans="1:7" s="58" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="57" t="s">
         <v>35</v>
       </c>
       <c r="B22" s="68" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="44">
+      <c r="C22" s="63">
         <v>6192408100469</v>
       </c>
       <c r="D22" s="59" t="s">

--- a/Projects/SANOFITN/Data/Template.xlsx
+++ b/Projects/SANOFITN/Data/Template.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Egnyte\Shared\Implementation\EMEA\SANOFI\Sanofi_TN\From Customer\Templates\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{1057653E-F286-494A-89B6-9E40B7C6DFED}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8460" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="19440" windowHeight="8400" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="7" r:id="rId1"/>
@@ -25,12 +19,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Pavel Chernykh</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -66,7 +60,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="B2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -80,7 +74,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
+    <comment ref="C2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -94,7 +88,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
+    <comment ref="D2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -108,7 +102,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
+    <comment ref="E2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -122,7 +116,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
+    <comment ref="F2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -142,12 +136,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Pavel Chernykh</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -183,7 +177,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
+    <comment ref="B2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -197,7 +191,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
+    <comment ref="C2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -211,7 +205,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
+    <comment ref="F2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -230,12 +224,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Pavel Chernykh</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -271,7 +265,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
+    <comment ref="B2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -285,7 +279,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
+    <comment ref="C2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -320,7 +314,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
+    <comment ref="E2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -334,7 +328,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000005000000}">
+    <comment ref="F2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -353,12 +347,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Pavel Chernykh</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -394,7 +388,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
+    <comment ref="B2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -408,7 +402,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000003000000}">
+    <comment ref="C2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -422,7 +416,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000004000000}">
+    <comment ref="D2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -448,7 +442,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000005000000}">
+    <comment ref="E2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -474,7 +468,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000006000000}">
+    <comment ref="F2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -493,12 +487,12 @@
 </file>
 
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Pavel Chernykh</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -534,7 +528,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
+    <comment ref="B2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -548,7 +542,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000003000000}">
+    <comment ref="C2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -562,7 +556,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000004000000}">
+    <comment ref="D2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -576,7 +570,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000005000000}">
+    <comment ref="E2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -590,7 +584,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000006000000}">
+    <comment ref="F2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -609,7 +603,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="99">
   <si>
     <t>KPI Name</t>
   </si>
@@ -859,9 +853,6 @@
     <t>Doliprane 500 mg cpr (16),Doliprane 500 mg sachets (12),Doliprane 500 mg vit C eff (16),Doliprane 1gr cpr (8)</t>
   </si>
   <si>
-    <t>Maxilase sol buv 125 ml,Maxilase 3000 UI cpr (24)</t>
-  </si>
-  <si>
     <t>9103471</t>
   </si>
   <si>
@@ -877,9 +868,6 @@
     <t>Enterogermina 2BCFU/5ml susp BT10 S3 XE,Enterogermina 2 milliards, oral solution, pack 20</t>
   </si>
   <si>
-    <t>6192408100308,6192408100155</t>
-  </si>
-  <si>
     <t>9103482,9103489,6192408100469,6192408100810</t>
   </si>
   <si>
@@ -914,13 +902,19 @@
   </si>
   <si>
     <t>Cough &amp; Cold</t>
+  </si>
+  <si>
+    <t>6192408100308</t>
+  </si>
+  <si>
+    <t>6192408100155</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="26" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1327,7 +1321,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="6" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1525,28 +1519,55 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1555,15 +1576,6 @@
     <xf numFmtId="0" fontId="24" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1584,21 +1596,6 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1975,32 +1972,32 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" customWidth="1"/>
-    <col min="2" max="2" width="24.88671875" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" customWidth="1"/>
-    <col min="4" max="4" width="18.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" customWidth="1"/>
-    <col min="7" max="7" width="24.33203125" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="7" max="7" width="24.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="30">
       <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
@@ -2023,7 +2020,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="30">
       <c r="A2" s="25" t="s">
         <v>1</v>
       </c>
@@ -2044,7 +2041,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="30">
       <c r="A3" s="25" t="s">
         <v>2</v>
       </c>
@@ -2065,7 +2062,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="30">
       <c r="A4" s="25" t="s">
         <v>3</v>
       </c>
@@ -2086,7 +2083,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="45">
       <c r="A5" s="25" t="s">
         <v>13</v>
       </c>
@@ -2107,7 +2104,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="30">
       <c r="A6" s="25" t="s">
         <v>4</v>
       </c>
@@ -2128,7 +2125,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="30">
       <c r="A7" s="25" t="s">
         <v>35</v>
       </c>
@@ -2149,7 +2146,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="30">
       <c r="A8" s="28" t="s">
         <v>5</v>
       </c>
@@ -2168,7 +2165,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="30">
       <c r="A9" s="28" t="s">
         <v>5</v>
       </c>
@@ -2189,7 +2186,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="30">
       <c r="A10" s="28" t="s">
         <v>31</v>
       </c>
@@ -2204,7 +2201,7 @@
       <c r="F10" s="27"/>
       <c r="G10" s="29"/>
     </row>
-    <row r="11" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="30">
       <c r="A11" s="28" t="s">
         <v>32</v>
       </c>
@@ -2219,7 +2216,7 @@
       <c r="F11" s="27"/>
       <c r="G11" s="29"/>
     </row>
-    <row r="12" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="30">
       <c r="A12" s="40" t="s">
         <v>33</v>
       </c>
@@ -2242,37 +2239,37 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="F22" sqref="F22:G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.6640625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="42.33203125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" style="62" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="16.33203125" style="5" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="24.7109375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="42.28515625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" style="62" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" style="5" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" style="5" customWidth="1"/>
+    <col min="8" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="60"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="74" t="s">
+      <c r="F1" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="75"/>
-    </row>
-    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G1" s="76"/>
+    </row>
+    <row r="2" spans="1:7" ht="15.75">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -2295,7 +2292,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -2318,7 +2315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -2341,7 +2338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -2364,7 +2361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -2387,7 +2384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
@@ -2410,7 +2407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -2433,7 +2430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7">
       <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
@@ -2456,7 +2453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7">
       <c r="A10" s="3" t="s">
         <v>5</v>
       </c>
@@ -2467,10 +2464,10 @@
         <v>6192408100353</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F10" s="45">
         <v>1</v>
@@ -2479,7 +2476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7">
       <c r="A11" s="3" t="s">
         <v>5</v>
       </c>
@@ -2502,7 +2499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7">
       <c r="A12" s="3" t="s">
         <v>5</v>
       </c>
@@ -2522,10 +2519,10 @@
         <v>1</v>
       </c>
       <c r="G12" s="46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="3" t="s">
         <v>5</v>
       </c>
@@ -2545,10 +2542,10 @@
         <v>1</v>
       </c>
       <c r="G13" s="46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="3" t="s">
         <v>5</v>
       </c>
@@ -2571,7 +2568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7">
       <c r="A15" s="3" t="s">
         <v>5</v>
       </c>
@@ -2585,7 +2582,7 @@
         <v>50</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F15" s="45">
         <v>1</v>
@@ -2594,7 +2591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7">
       <c r="A16" s="3" t="s">
         <v>5</v>
       </c>
@@ -2608,7 +2605,7 @@
         <v>50</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F16" s="45">
         <v>1</v>
@@ -2617,7 +2614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7">
       <c r="A17" s="3" t="s">
         <v>5</v>
       </c>
@@ -2631,16 +2628,16 @@
         <v>77</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F17" s="45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" s="46">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7">
       <c r="A18" s="3" t="s">
         <v>5</v>
       </c>
@@ -2654,16 +2651,16 @@
         <v>77</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F18" s="45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" s="46">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7">
       <c r="A19" s="3" t="s">
         <v>5</v>
       </c>
@@ -2677,7 +2674,7 @@
         <v>51</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F19" s="45">
         <v>1</v>
@@ -2686,7 +2683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7">
       <c r="A20" s="3" t="s">
         <v>5</v>
       </c>
@@ -2703,13 +2700,13 @@
         <v>76</v>
       </c>
       <c r="F20" s="45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" s="46">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7">
       <c r="A21" s="3" t="s">
         <v>5</v>
       </c>
@@ -2726,13 +2723,13 @@
         <v>76</v>
       </c>
       <c r="F21" s="47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" s="46">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7">
       <c r="A22" s="3" t="s">
         <v>5</v>
       </c>
@@ -2755,7 +2752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7">
       <c r="A23" s="3" t="s">
         <v>5</v>
       </c>
@@ -2778,7 +2775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7">
       <c r="D24" s="4"/>
     </row>
   </sheetData>
@@ -2792,36 +2789,36 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.6640625" style="10" customWidth="1"/>
+    <col min="1" max="1" width="24.7109375" style="10" customWidth="1"/>
     <col min="2" max="3" width="21" style="10" customWidth="1"/>
     <col min="4" max="4" width="28" style="10" customWidth="1"/>
     <col min="5" max="5" width="21" style="10" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" style="10" customWidth="1"/>
-    <col min="7" max="7" width="9.33203125" style="10" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="8"/>
+    <col min="6" max="6" width="10.7109375" style="10" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" style="10" customWidth="1"/>
+    <col min="8" max="16384" width="8.85546875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="2" customFormat="1">
       <c r="A1" s="9"/>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
-      <c r="F1" s="74" t="s">
+      <c r="F1" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="75"/>
-    </row>
-    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G1" s="76"/>
+    </row>
+    <row r="2" spans="1:7" ht="15.75">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -2844,7 +2841,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7">
       <c r="A3" s="11" t="s">
         <v>13</v>
       </c>
@@ -2855,7 +2852,7 @@
       <c r="F3" s="51"/>
       <c r="G3" s="51"/>
     </row>
-    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7">
       <c r="A4" s="11" t="s">
         <v>13</v>
       </c>
@@ -2866,7 +2863,7 @@
       <c r="F4" s="51"/>
       <c r="G4" s="51"/>
     </row>
-    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7">
       <c r="A5" s="11" t="s">
         <v>13</v>
       </c>
@@ -2877,7 +2874,7 @@
       <c r="F5" s="51"/>
       <c r="G5" s="51"/>
     </row>
-    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7">
       <c r="A6" s="11" t="s">
         <v>13</v>
       </c>
@@ -2888,7 +2885,7 @@
       <c r="F6" s="51"/>
       <c r="G6" s="51"/>
     </row>
-    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7">
       <c r="A7" s="11" t="s">
         <v>13</v>
       </c>
@@ -2899,7 +2896,7 @@
       <c r="F7" s="51"/>
       <c r="G7" s="51"/>
     </row>
-    <row r="8" spans="1:7" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" s="50" customFormat="1">
       <c r="A8" s="48" t="s">
         <v>13</v>
       </c>
@@ -2910,7 +2907,7 @@
       <c r="F8" s="51"/>
       <c r="G8" s="51"/>
     </row>
-    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7">
       <c r="A9" s="11" t="s">
         <v>13</v>
       </c>
@@ -2921,7 +2918,7 @@
       <c r="F9" s="51"/>
       <c r="G9" s="51"/>
     </row>
-    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7">
       <c r="A10" s="11" t="s">
         <v>13</v>
       </c>
@@ -2932,7 +2929,7 @@
       <c r="F10" s="51"/>
       <c r="G10" s="51"/>
     </row>
-    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7">
       <c r="A11" s="11" t="s">
         <v>13</v>
       </c>
@@ -2943,7 +2940,7 @@
       <c r="F11" s="51"/>
       <c r="G11" s="52"/>
     </row>
-    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7">
       <c r="A12" s="11" t="s">
         <v>13</v>
       </c>
@@ -2954,7 +2951,7 @@
       <c r="F12" s="53"/>
       <c r="G12" s="54"/>
     </row>
-    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7">
       <c r="A13" s="11" t="s">
         <v>13</v>
       </c>
@@ -2965,7 +2962,7 @@
       <c r="F13" s="51"/>
       <c r="G13" s="51"/>
     </row>
-    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7">
       <c r="A14" s="11" t="s">
         <v>13</v>
       </c>
@@ -2976,7 +2973,7 @@
       <c r="F14" s="51"/>
       <c r="G14" s="51"/>
     </row>
-    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7">
       <c r="A15" s="11" t="s">
         <v>13</v>
       </c>
@@ -2987,7 +2984,7 @@
       <c r="F15" s="51"/>
       <c r="G15" s="51"/>
     </row>
-    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7">
       <c r="A16" s="11" t="s">
         <v>13</v>
       </c>
@@ -2998,7 +2995,7 @@
       <c r="F16" s="51"/>
       <c r="G16" s="51"/>
     </row>
-    <row r="17" spans="1:7" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" s="50" customFormat="1">
       <c r="A17" s="48" t="s">
         <v>13</v>
       </c>
@@ -3009,7 +3006,7 @@
       <c r="F17" s="51"/>
       <c r="G17" s="51"/>
     </row>
-    <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7">
       <c r="A18" s="11" t="s">
         <v>13</v>
       </c>
@@ -3020,7 +3017,7 @@
       <c r="F18" s="51"/>
       <c r="G18" s="51"/>
     </row>
-    <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7">
       <c r="A19" s="11" t="s">
         <v>13</v>
       </c>
@@ -3031,7 +3028,7 @@
       <c r="F19" s="51"/>
       <c r="G19" s="51"/>
     </row>
-    <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7">
       <c r="A20" s="11" t="s">
         <v>13</v>
       </c>
@@ -3052,35 +3049,35 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:G29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21:G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="2" width="20.5546875" style="35" customWidth="1"/>
-    <col min="3" max="3" width="20.5546875" style="70" customWidth="1"/>
-    <col min="4" max="4" width="42.44140625" style="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="63.33203125" style="35" customWidth="1"/>
-    <col min="6" max="7" width="10.33203125" style="35" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="33"/>
+    <col min="1" max="2" width="20.5703125" style="35" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" style="70" customWidth="1"/>
+    <col min="4" max="4" width="42.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="63.28515625" style="35" customWidth="1"/>
+    <col min="6" max="7" width="10.28515625" style="35" customWidth="1"/>
+    <col min="8" max="16384" width="8.85546875" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="32"/>
       <c r="B1" s="32"/>
       <c r="C1" s="32"/>
       <c r="D1" s="32"/>
       <c r="E1" s="32"/>
-      <c r="F1" s="74" t="s">
+      <c r="F1" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="75"/>
-    </row>
-    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G1" s="76"/>
+    </row>
+    <row r="2" spans="1:7" ht="15.75">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -3103,339 +3100,359 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="78" t="s">
+    <row r="3" spans="1:7" ht="14.25" customHeight="1">
+      <c r="A3" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="85" t="s">
+      <c r="B3" s="84" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="76" t="s">
+      <c r="C3" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="78" t="s">
+      <c r="D3" s="80" t="s">
         <v>79</v>
       </c>
-      <c r="E3" s="87" t="s">
+      <c r="E3" s="93" t="s">
+        <v>85</v>
+      </c>
+      <c r="F3" s="91">
+        <v>1</v>
+      </c>
+      <c r="G3" s="97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="14.25" customHeight="1">
+      <c r="A4" s="88"/>
+      <c r="B4" s="90"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="98"/>
+    </row>
+    <row r="5" spans="1:7" ht="14.25" customHeight="1">
+      <c r="A5" s="88"/>
+      <c r="B5" s="90"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="88"/>
+      <c r="E5" s="94"/>
+      <c r="F5" s="96"/>
+      <c r="G5" s="98"/>
+    </row>
+    <row r="6" spans="1:7" ht="14.25" customHeight="1">
+      <c r="A6" s="81"/>
+      <c r="B6" s="85"/>
+      <c r="C6" s="83"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="92"/>
+      <c r="G6" s="99"/>
+    </row>
+    <row r="7" spans="1:7" ht="14.25" customHeight="1">
+      <c r="A7" s="80" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="84" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="82" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="80" t="s">
         <v>87</v>
       </c>
-      <c r="F3" s="82">
-        <v>1</v>
-      </c>
-      <c r="G3" s="91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="84"/>
-      <c r="B4" s="97"/>
-      <c r="C4" s="96"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="92"/>
-    </row>
-    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="84"/>
-      <c r="B5" s="97"/>
-      <c r="C5" s="96"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="88"/>
-      <c r="F5" s="90"/>
-      <c r="G5" s="92"/>
-    </row>
-    <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="79"/>
-      <c r="B6" s="86"/>
-      <c r="C6" s="77"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="89"/>
-      <c r="F6" s="83"/>
-      <c r="G6" s="93"/>
-    </row>
-    <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="78" t="s">
+      <c r="E7" s="93" t="s">
+        <v>88</v>
+      </c>
+      <c r="F7" s="91">
+        <v>1</v>
+      </c>
+      <c r="G7" s="91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="14.25" customHeight="1">
+      <c r="A8" s="88"/>
+      <c r="B8" s="90"/>
+      <c r="C8" s="89"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="94"/>
+      <c r="F8" s="96"/>
+      <c r="G8" s="96"/>
+    </row>
+    <row r="9" spans="1:7" ht="14.25" customHeight="1">
+      <c r="A9" s="88"/>
+      <c r="B9" s="90"/>
+      <c r="C9" s="89"/>
+      <c r="D9" s="88"/>
+      <c r="E9" s="94"/>
+      <c r="F9" s="96"/>
+      <c r="G9" s="96"/>
+    </row>
+    <row r="10" spans="1:7" ht="14.25" customHeight="1">
+      <c r="A10" s="81"/>
+      <c r="B10" s="85"/>
+      <c r="C10" s="83"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="95"/>
+      <c r="F10" s="92"/>
+      <c r="G10" s="92"/>
+    </row>
+    <row r="11" spans="1:7" ht="14.25" customHeight="1">
+      <c r="A11" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="85" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" s="76" t="s">
+      <c r="B11" s="84" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="86" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" s="80" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="79" t="s">
+        <v>97</v>
+      </c>
+      <c r="F11" s="91">
+        <v>1</v>
+      </c>
+      <c r="G11" s="91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="14.25" customHeight="1">
+      <c r="A12" s="81"/>
+      <c r="B12" s="85"/>
+      <c r="C12" s="87"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="78"/>
+      <c r="F12" s="92"/>
+      <c r="G12" s="92"/>
+    </row>
+    <row r="13" spans="1:7" ht="14.25" customHeight="1">
+      <c r="A13" s="74"/>
+      <c r="B13" s="84" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="86" t="s">
+        <v>96</v>
+      </c>
+      <c r="D13" s="80" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="79" t="s">
+        <v>98</v>
+      </c>
+      <c r="F13" s="91">
+        <v>1</v>
+      </c>
+      <c r="G13" s="91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="14.25" customHeight="1">
+      <c r="A14" s="74"/>
+      <c r="B14" s="85"/>
+      <c r="C14" s="87"/>
+      <c r="D14" s="81"/>
+      <c r="E14" s="78"/>
+      <c r="F14" s="92"/>
+      <c r="G14" s="92"/>
+    </row>
+    <row r="15" spans="1:7" ht="14.25" customHeight="1">
+      <c r="A15" s="80" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="84" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="86" t="s">
+        <v>96</v>
+      </c>
+      <c r="D15" s="80" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15" s="77" t="s">
+        <v>81</v>
+      </c>
+      <c r="F15" s="91">
+        <v>0</v>
+      </c>
+      <c r="G15" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="14.25" customHeight="1">
+      <c r="A16" s="81"/>
+      <c r="B16" s="85"/>
+      <c r="C16" s="87"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="78"/>
+      <c r="F16" s="92"/>
+      <c r="G16" s="92"/>
+    </row>
+    <row r="17" spans="1:7" ht="14.25">
+      <c r="A17" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="59" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="69" t="s">
+        <v>96</v>
+      </c>
+      <c r="D17" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" s="71" t="s">
+        <v>80</v>
+      </c>
+      <c r="F17" s="51">
+        <v>1</v>
+      </c>
+      <c r="G17" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="14.25">
+      <c r="A18" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="59" t="s">
+        <v>95</v>
+      </c>
+      <c r="C18" s="69" t="s">
+        <v>96</v>
+      </c>
+      <c r="D18" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="72">
+        <v>6192408100353</v>
+      </c>
+      <c r="F18" s="51">
+        <v>1</v>
+      </c>
+      <c r="G18" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="14.25" customHeight="1">
+      <c r="A19" s="80" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="84" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="82" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" s="80" t="s">
+        <v>84</v>
+      </c>
+      <c r="E19" s="79" t="s">
+        <v>83</v>
+      </c>
+      <c r="F19" s="91">
+        <v>1</v>
+      </c>
+      <c r="G19" s="91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="14.25" customHeight="1">
+      <c r="A20" s="81"/>
+      <c r="B20" s="85"/>
+      <c r="C20" s="83"/>
+      <c r="D20" s="81"/>
+      <c r="E20" s="78"/>
+      <c r="F20" s="92"/>
+      <c r="G20" s="92"/>
+    </row>
+    <row r="21" spans="1:7" ht="14.25" customHeight="1">
+      <c r="A21" s="80" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="84" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="78" t="s">
-        <v>89</v>
-      </c>
-      <c r="E7" s="87" t="s">
-        <v>90</v>
-      </c>
-      <c r="F7" s="82">
-        <v>1</v>
-      </c>
-      <c r="G7" s="82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="84"/>
-      <c r="B8" s="97"/>
-      <c r="C8" s="96"/>
-      <c r="D8" s="84"/>
-      <c r="E8" s="88"/>
-      <c r="F8" s="90"/>
-      <c r="G8" s="90"/>
-    </row>
-    <row r="9" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="84"/>
-      <c r="B9" s="97"/>
-      <c r="C9" s="96"/>
-      <c r="D9" s="84"/>
-      <c r="E9" s="88"/>
-      <c r="F9" s="90"/>
-      <c r="G9" s="90"/>
-    </row>
-    <row r="10" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="79"/>
-      <c r="B10" s="86"/>
-      <c r="C10" s="77"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="89"/>
-      <c r="F10" s="83"/>
-      <c r="G10" s="83"/>
-    </row>
-    <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="78" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="85" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="94" t="s">
-        <v>98</v>
-      </c>
-      <c r="D11" s="78" t="s">
-        <v>80</v>
-      </c>
-      <c r="E11" s="80" t="s">
+      <c r="D21" s="80" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" s="79" t="s">
         <v>86</v>
       </c>
-      <c r="F11" s="82">
-        <v>1</v>
-      </c>
-      <c r="G11" s="82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="79"/>
-      <c r="B12" s="86"/>
-      <c r="C12" s="95"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="81"/>
-      <c r="F12" s="83"/>
-      <c r="G12" s="83"/>
-    </row>
-    <row r="13" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="78" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="85" t="s">
-        <v>77</v>
-      </c>
-      <c r="C13" s="94" t="s">
-        <v>98</v>
-      </c>
-      <c r="D13" s="78" t="s">
-        <v>83</v>
-      </c>
-      <c r="E13" s="98" t="s">
-        <v>82</v>
-      </c>
-      <c r="F13" s="82">
-        <v>1</v>
-      </c>
-      <c r="G13" s="82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="79"/>
-      <c r="B14" s="86"/>
-      <c r="C14" s="95"/>
-      <c r="D14" s="79"/>
-      <c r="E14" s="81"/>
-      <c r="F14" s="83"/>
-      <c r="G14" s="83"/>
-    </row>
-    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A15" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" s="59" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="69" t="s">
-        <v>98</v>
-      </c>
-      <c r="D15" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="E15" s="71" t="s">
-        <v>81</v>
-      </c>
-      <c r="F15" s="51">
-        <v>1</v>
-      </c>
-      <c r="G15" s="51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.3">
-      <c r="A16" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="59" t="s">
-        <v>97</v>
-      </c>
-      <c r="C16" s="69" t="s">
-        <v>98</v>
-      </c>
-      <c r="D16" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="E16" s="72">
-        <v>6192408100353</v>
-      </c>
-      <c r="F16" s="51">
-        <v>1</v>
-      </c>
-      <c r="G16" s="51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="78" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" s="85" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="76" t="s">
-        <v>76</v>
-      </c>
-      <c r="D17" s="78" t="s">
-        <v>85</v>
-      </c>
-      <c r="E17" s="80" t="s">
-        <v>84</v>
-      </c>
-      <c r="F17" s="82">
-        <v>0</v>
-      </c>
-      <c r="G17" s="82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="79"/>
-      <c r="B18" s="86"/>
-      <c r="C18" s="77"/>
-      <c r="D18" s="79"/>
-      <c r="E18" s="81"/>
-      <c r="F18" s="83"/>
-      <c r="G18" s="83"/>
-    </row>
-    <row r="19" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="78" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="85" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" s="76" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="78" t="s">
-        <v>70</v>
-      </c>
-      <c r="E19" s="80" t="s">
-        <v>88</v>
-      </c>
-      <c r="F19" s="82">
-        <v>1</v>
-      </c>
-      <c r="G19" s="82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="79"/>
-      <c r="B20" s="86"/>
-      <c r="C20" s="77"/>
-      <c r="D20" s="79"/>
-      <c r="E20" s="81"/>
-      <c r="F20" s="83"/>
-      <c r="G20" s="83"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="78"/>
-      <c r="B21" s="85"/>
-      <c r="C21" s="76"/>
-      <c r="D21" s="78"/>
-      <c r="E21" s="80"/>
-      <c r="F21" s="82"/>
-      <c r="G21" s="82"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="79"/>
-      <c r="B22" s="86"/>
-      <c r="C22" s="77"/>
-      <c r="D22" s="79"/>
-      <c r="E22" s="81"/>
-      <c r="F22" s="83"/>
-      <c r="G22" s="83"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E26" s="63"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E27" s="63"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F21" s="91">
+        <v>1</v>
+      </c>
+      <c r="G21" s="91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="14.25" customHeight="1">
+      <c r="A22" s="81"/>
+      <c r="B22" s="85"/>
+      <c r="C22" s="83"/>
+      <c r="D22" s="81"/>
+      <c r="E22" s="78"/>
+      <c r="F22" s="92"/>
+      <c r="G22" s="92"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="80"/>
+      <c r="B23" s="84"/>
+      <c r="C23" s="82"/>
+      <c r="D23" s="80"/>
+      <c r="E23" s="79"/>
+      <c r="F23" s="91"/>
+      <c r="G23" s="91"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="81"/>
+      <c r="B24" s="85"/>
+      <c r="C24" s="83"/>
+      <c r="D24" s="81"/>
+      <c r="E24" s="78"/>
+      <c r="F24" s="92"/>
+      <c r="G24" s="92"/>
+    </row>
+    <row r="28" spans="1:7">
       <c r="E28" s="63"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7">
       <c r="E29" s="63"/>
     </row>
+    <row r="30" spans="1:7">
+      <c r="E30" s="63"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="E31" s="63"/>
+    </row>
   </sheetData>
-  <mergeCells count="50">
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="C17:C18"/>
+  <mergeCells count="56">
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A19:A20"/>
     <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="B11:B12"/>
     <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="E3:E6"/>
     <mergeCell ref="E7:E10"/>
@@ -3443,22 +3460,38 @@
     <mergeCell ref="G3:G6"/>
     <mergeCell ref="F7:F10"/>
     <mergeCell ref="G7:G10"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="C19:C20"/>
     <mergeCell ref="B21:B22"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
     <mergeCell ref="C21:C22"/>
+    <mergeCell ref="E21:E22"/>
     <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E13:E14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3467,37 +3500,37 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14:D15"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="28.109375" style="16" customWidth="1"/>
-    <col min="2" max="2" width="39.88671875" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" style="16" customWidth="1"/>
+    <col min="1" max="1" width="28.140625" style="16" customWidth="1"/>
+    <col min="2" max="2" width="39.85546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" style="16" customWidth="1"/>
     <col min="4" max="4" width="26" style="18" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" style="18" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="16" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" style="16" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="13"/>
+    <col min="5" max="5" width="18.7109375" style="18" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="16" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" style="16" customWidth="1"/>
+    <col min="8" max="16384" width="8.85546875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="74" t="s">
+      <c r="F1" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="75"/>
-    </row>
-    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G1" s="76"/>
+    </row>
+    <row r="2" spans="1:7" ht="15.75">
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
@@ -3520,7 +3553,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="25.5">
       <c r="A3" s="15" t="s">
         <v>1</v>
       </c>
@@ -3543,7 +3576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="25.5">
       <c r="A4" s="15" t="s">
         <v>1</v>
       </c>
@@ -3551,7 +3584,7 @@
         <v>41</v>
       </c>
       <c r="C4" s="59" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D4" s="59" t="s">
         <v>49</v>
@@ -3566,7 +3599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="25.5">
       <c r="A5" s="15" t="s">
         <v>1</v>
       </c>
@@ -3574,13 +3607,13 @@
         <v>78</v>
       </c>
       <c r="C5" s="59" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D5" s="59" t="s">
         <v>53</v>
       </c>
       <c r="E5" s="69" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F5" s="55">
         <v>1</v>
@@ -3589,7 +3622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="25.5">
       <c r="A6" s="15" t="s">
         <v>1</v>
       </c>
@@ -3597,7 +3630,7 @@
         <v>42</v>
       </c>
       <c r="C6" s="59" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D6" s="59" t="s">
         <v>52</v>
@@ -3606,13 +3639,13 @@
         <v>38</v>
       </c>
       <c r="F6" s="55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" s="55">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="25.5">
       <c r="A7" s="15" t="s">
         <v>1</v>
       </c>
@@ -3620,7 +3653,7 @@
         <v>43</v>
       </c>
       <c r="C7" s="59" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D7" s="59" t="s">
         <v>54</v>
@@ -3635,7 +3668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="25.5">
       <c r="A8" s="15" t="s">
         <v>1</v>
       </c>
@@ -3643,13 +3676,13 @@
         <v>44</v>
       </c>
       <c r="C8" s="59" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D8" s="59" t="s">
         <v>77</v>
       </c>
       <c r="E8" s="69" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F8" s="55">
         <v>0</v>
@@ -3658,7 +3691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="25.5">
       <c r="A9" s="15" t="s">
         <v>1</v>
       </c>
@@ -3666,13 +3699,13 @@
         <v>45</v>
       </c>
       <c r="C9" s="59" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D9" s="59" t="s">
         <v>50</v>
       </c>
       <c r="E9" s="69" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F9" s="55">
         <v>1</v>
@@ -3681,7 +3714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7">
       <c r="A10" s="36" t="s">
         <v>4</v>
       </c>
@@ -3704,7 +3737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7">
       <c r="C11" s="17"/>
     </row>
   </sheetData>
@@ -3718,37 +3751,37 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="B20" sqref="B20:G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.6640625" style="23" customWidth="1"/>
-    <col min="2" max="2" width="42.33203125" style="23" customWidth="1"/>
-    <col min="3" max="3" width="18.5546875" style="23" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" style="23" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" style="23" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" style="23" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="23" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="19"/>
+    <col min="1" max="1" width="30.7109375" style="23" customWidth="1"/>
+    <col min="2" max="2" width="42.28515625" style="23" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" style="23" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" style="23" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" style="23" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" style="23" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" style="23" customWidth="1"/>
+    <col min="8" max="16384" width="8.85546875" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="20"/>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
       <c r="D1" s="20"/>
       <c r="E1" s="20"/>
-      <c r="F1" s="74" t="s">
+      <c r="F1" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="75"/>
-    </row>
-    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G1" s="76"/>
+    </row>
+    <row r="2" spans="1:7" ht="31.5">
       <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
@@ -3771,7 +3804,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="22" t="s">
         <v>2</v>
       </c>
@@ -3794,7 +3827,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4" s="22" t="s">
         <v>2</v>
       </c>
@@ -3817,7 +3850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5" s="22" t="s">
         <v>2</v>
       </c>
@@ -3840,7 +3873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6" s="22" t="s">
         <v>2</v>
       </c>
@@ -3863,7 +3896,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="A7" s="22" t="s">
         <v>2</v>
       </c>
@@ -3886,7 +3919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7">
       <c r="A8" s="22" t="s">
         <v>2</v>
       </c>
@@ -3909,7 +3942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7">
       <c r="A9" s="22" t="s">
         <v>2</v>
       </c>
@@ -3932,7 +3965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7">
       <c r="A10" s="22" t="s">
         <v>2</v>
       </c>
@@ -3952,10 +3985,10 @@
         <v>2</v>
       </c>
       <c r="G10" s="56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="22" t="s">
         <v>2</v>
       </c>
@@ -3972,13 +4005,13 @@
         <v>38</v>
       </c>
       <c r="F11" s="56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G11" s="56">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="22" t="s">
         <v>2</v>
       </c>
@@ -3989,10 +4022,10 @@
         <v>6192408100353</v>
       </c>
       <c r="D12" s="59" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E12" s="69" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F12" s="56">
         <v>2</v>
@@ -4001,7 +4034,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7">
       <c r="A13" s="22" t="s">
         <v>2</v>
       </c>
@@ -4015,16 +4048,16 @@
         <v>50</v>
       </c>
       <c r="E13" s="69" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F13" s="56">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G13" s="56">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="22" t="s">
         <v>2</v>
       </c>
@@ -4038,16 +4071,16 @@
         <v>50</v>
       </c>
       <c r="E14" s="69" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F14" s="56">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G14" s="56">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="22" t="s">
         <v>2</v>
       </c>
@@ -4061,16 +4094,16 @@
         <v>77</v>
       </c>
       <c r="E15" s="69" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F15" s="56">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G15" s="56">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7">
       <c r="A16" s="22" t="s">
         <v>2</v>
       </c>
@@ -4084,16 +4117,16 @@
         <v>77</v>
       </c>
       <c r="E16" s="69" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F16" s="56">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G16" s="56">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7">
       <c r="A17" s="22" t="s">
         <v>2</v>
       </c>
@@ -4107,7 +4140,7 @@
         <v>51</v>
       </c>
       <c r="E17" s="69" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F17" s="56">
         <v>2</v>
@@ -4116,7 +4149,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7">
       <c r="A18" s="22" t="s">
         <v>2</v>
       </c>
@@ -4133,13 +4166,13 @@
         <v>76</v>
       </c>
       <c r="F18" s="56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" s="56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="22" t="s">
         <v>2</v>
       </c>
@@ -4156,13 +4189,13 @@
         <v>76</v>
       </c>
       <c r="F19" s="56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" s="56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="58" customFormat="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="58" customFormat="1">
       <c r="A20" s="57" t="s">
         <v>35</v>
       </c>
@@ -4185,7 +4218,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="58" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" s="58" customFormat="1">
       <c r="A21" s="57" t="s">
         <v>35</v>
       </c>
@@ -4208,7 +4241,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="58" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" s="58" customFormat="1">
       <c r="A22" s="57" t="s">
         <v>35</v>
       </c>

--- a/Projects/SANOFITN/Data/Template.xlsx
+++ b/Projects/SANOFITN/Data/Template.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Private\svetar\Sanofi templates\SANOFI\Tunisia_TN\Data update\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5BA12AD4-4E67-469F-979D-53312EE84F51}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="19440" windowHeight="8400" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15510" windowHeight="6930" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="7" r:id="rId1"/>
@@ -19,12 +25,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Pavel Chernykh</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -60,7 +66,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B2" authorId="0">
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -74,7 +80,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C2" authorId="0">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -88,7 +94,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0">
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
       <text>
         <r>
           <rPr>
@@ -102,7 +108,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
       <text>
         <r>
           <rPr>
@@ -116,7 +122,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
       <text>
         <r>
           <rPr>
@@ -136,12 +142,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Pavel Chernykh</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -177,7 +183,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B2" authorId="0">
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -191,7 +197,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C2" authorId="0">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -205,7 +211,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
         <r>
           <rPr>
@@ -224,12 +230,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Pavel Chernykh</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -265,7 +271,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B2" authorId="0">
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -279,7 +285,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C2" authorId="0">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
       <text>
         <r>
           <rPr>
@@ -314,7 +320,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
       <text>
         <r>
           <rPr>
@@ -328,7 +334,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000005000000}">
       <text>
         <r>
           <rPr>
@@ -347,12 +353,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Pavel Chernykh</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -388,7 +394,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B2" authorId="0">
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
       <text>
         <r>
           <rPr>
@@ -402,7 +408,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C2" authorId="0">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000003000000}">
       <text>
         <r>
           <rPr>
@@ -416,7 +422,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0">
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000004000000}">
       <text>
         <r>
           <rPr>
@@ -442,7 +448,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000005000000}">
       <text>
         <r>
           <rPr>
@@ -468,7 +474,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000006000000}">
       <text>
         <r>
           <rPr>
@@ -487,12 +493,12 @@
 </file>
 
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Pavel Chernykh</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
       <text>
         <r>
           <rPr>
@@ -528,7 +534,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B2" authorId="0">
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
       <text>
         <r>
           <rPr>
@@ -542,7 +548,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C2" authorId="0">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000003000000}">
       <text>
         <r>
           <rPr>
@@ -556,7 +562,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0">
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000004000000}">
       <text>
         <r>
           <rPr>
@@ -570,7 +576,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000005000000}">
       <text>
         <r>
           <rPr>
@@ -584,7 +590,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000006000000}">
       <text>
         <r>
           <rPr>
@@ -603,7 +609,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="99">
   <si>
     <t>KPI Name</t>
   </si>
@@ -904,17 +910,17 @@
     <t>Cough &amp; Cold</t>
   </si>
   <si>
-    <t>6192408100308</t>
-  </si>
-  <si>
-    <t>6192408100155</t>
+    <t>Maxilase sol buv 125 ml,Maxilase 3000 UI cpr (24)</t>
+  </si>
+  <si>
+    <t>6192408100308,6192408100155</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="26">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1001,14 +1007,14 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
@@ -1016,7 +1022,7 @@
     <font>
       <b/>
       <sz val="10"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
@@ -1024,7 +1030,7 @@
     <font>
       <b/>
       <sz val="12"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
@@ -1056,7 +1062,7 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
@@ -1092,9 +1098,43 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="177"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="177"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1202,7 +1242,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1316,12 +1356,117 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="6" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1519,7 +1664,104 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="28" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1972,21 +2214,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.7109375" customWidth="1"/>
     <col min="2" max="2" width="24.85546875" customWidth="1"/>
@@ -1997,7 +2239,7 @@
     <col min="7" max="7" width="24.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30">
+    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
@@ -2020,7 +2262,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30">
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>1</v>
       </c>
@@ -2041,7 +2283,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="30">
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>2</v>
       </c>
@@ -2062,7 +2304,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="30">
+    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
         <v>3</v>
       </c>
@@ -2083,7 +2325,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="45">
+    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
         <v>13</v>
       </c>
@@ -2104,7 +2346,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="30">
+    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
         <v>4</v>
       </c>
@@ -2125,7 +2367,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="30">
+    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
         <v>35</v>
       </c>
@@ -2146,7 +2388,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="30">
+    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
         <v>5</v>
       </c>
@@ -2165,7 +2407,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="30">
+    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="28" t="s">
         <v>5</v>
       </c>
@@ -2186,7 +2428,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="30">
+    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
         <v>31</v>
       </c>
@@ -2201,7 +2443,7 @@
       <c r="F10" s="27"/>
       <c r="G10" s="29"/>
     </row>
-    <row r="11" spans="1:7" ht="30">
+    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="28" t="s">
         <v>32</v>
       </c>
@@ -2216,7 +2458,7 @@
       <c r="F11" s="27"/>
       <c r="G11" s="29"/>
     </row>
-    <row r="12" spans="1:7" ht="30">
+    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="40" t="s">
         <v>33</v>
       </c>
@@ -2239,14 +2481,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22:G22"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.7109375" style="5" customWidth="1"/>
     <col min="2" max="2" width="42.28515625" style="5" customWidth="1"/>
@@ -2258,18 +2500,18 @@
     <col min="8" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="60"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="75" t="s">
+      <c r="F1" s="108" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="76"/>
-    </row>
-    <row r="2" spans="1:7" ht="15.75">
+      <c r="G1" s="109"/>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -2292,7 +2534,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -2315,7 +2557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -2338,7 +2580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -2361,7 +2603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -2384,7 +2626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
@@ -2407,7 +2649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -2430,7 +2672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
@@ -2453,7 +2695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>5</v>
       </c>
@@ -2476,7 +2718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>5</v>
       </c>
@@ -2499,7 +2741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>5</v>
       </c>
@@ -2522,7 +2764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>5</v>
       </c>
@@ -2545,7 +2787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>5</v>
       </c>
@@ -2568,7 +2810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>5</v>
       </c>
@@ -2591,7 +2833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>5</v>
       </c>
@@ -2614,53 +2856,53 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="101" t="s">
         <v>66</v>
       </c>
-      <c r="C17" s="63">
+      <c r="C17" s="102">
         <v>6192408100179</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="101" t="s">
         <v>77</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="101" t="s">
         <v>96</v>
       </c>
-      <c r="F17" s="45">
+      <c r="F17" s="103">
         <v>0</v>
       </c>
-      <c r="G17" s="46">
+      <c r="G17" s="104">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="101" t="s">
         <v>67</v>
       </c>
-      <c r="C18" s="63">
+      <c r="C18" s="102">
         <v>6192408100162</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="101" t="s">
         <v>77</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="101" t="s">
         <v>96</v>
       </c>
-      <c r="F18" s="45">
+      <c r="F18" s="103">
         <v>0</v>
       </c>
-      <c r="G18" s="46">
+      <c r="G18" s="104">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>5</v>
       </c>
@@ -2683,7 +2925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>5</v>
       </c>
@@ -2706,7 +2948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>5</v>
       </c>
@@ -2729,7 +2971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>5</v>
       </c>
@@ -2752,30 +2994,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="3" t="s">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="101" t="s">
         <v>71</v>
       </c>
-      <c r="C23" s="63">
+      <c r="C23" s="102">
         <v>6192408101527</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="101" t="s">
         <v>52</v>
       </c>
-      <c r="E23" s="64" t="s">
+      <c r="E23" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="F23" s="47">
+      <c r="F23" s="106">
         <v>0</v>
       </c>
-      <c r="G23" s="46">
+      <c r="G23" s="104">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D24" s="4"/>
     </row>
   </sheetData>
@@ -2789,14 +3031,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.7109375" style="10" customWidth="1"/>
     <col min="2" max="3" width="21" style="10" customWidth="1"/>
@@ -2807,18 +3049,18 @@
     <col min="8" max="16384" width="8.85546875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9"/>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
-      <c r="F1" s="75" t="s">
+      <c r="F1" s="108" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="76"/>
-    </row>
-    <row r="2" spans="1:7" ht="15.75">
+      <c r="G1" s="109"/>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -2841,7 +3083,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>13</v>
       </c>
@@ -2852,7 +3094,7 @@
       <c r="F3" s="51"/>
       <c r="G3" s="51"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>13</v>
       </c>
@@ -2863,7 +3105,7 @@
       <c r="F4" s="51"/>
       <c r="G4" s="51"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>13</v>
       </c>
@@ -2874,7 +3116,7 @@
       <c r="F5" s="51"/>
       <c r="G5" s="51"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>13</v>
       </c>
@@ -2885,7 +3127,7 @@
       <c r="F6" s="51"/>
       <c r="G6" s="51"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>13</v>
       </c>
@@ -2896,7 +3138,7 @@
       <c r="F7" s="51"/>
       <c r="G7" s="51"/>
     </row>
-    <row r="8" spans="1:7" s="50" customFormat="1">
+    <row r="8" spans="1:7" s="50" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="48" t="s">
         <v>13</v>
       </c>
@@ -2907,7 +3149,7 @@
       <c r="F8" s="51"/>
       <c r="G8" s="51"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>13</v>
       </c>
@@ -2918,7 +3160,7 @@
       <c r="F9" s="51"/>
       <c r="G9" s="51"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>13</v>
       </c>
@@ -2929,7 +3171,7 @@
       <c r="F10" s="51"/>
       <c r="G10" s="51"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>13</v>
       </c>
@@ -2940,7 +3182,7 @@
       <c r="F11" s="51"/>
       <c r="G11" s="52"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>13</v>
       </c>
@@ -2951,7 +3193,7 @@
       <c r="F12" s="53"/>
       <c r="G12" s="54"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>13</v>
       </c>
@@ -2962,7 +3204,7 @@
       <c r="F13" s="51"/>
       <c r="G13" s="51"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>13</v>
       </c>
@@ -2973,7 +3215,7 @@
       <c r="F14" s="51"/>
       <c r="G14" s="51"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>13</v>
       </c>
@@ -2984,7 +3226,7 @@
       <c r="F15" s="51"/>
       <c r="G15" s="51"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>13</v>
       </c>
@@ -2995,7 +3237,7 @@
       <c r="F16" s="51"/>
       <c r="G16" s="51"/>
     </row>
-    <row r="17" spans="1:7" s="50" customFormat="1">
+    <row r="17" spans="1:7" s="50" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="48" t="s">
         <v>13</v>
       </c>
@@ -3006,7 +3248,7 @@
       <c r="F17" s="51"/>
       <c r="G17" s="51"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>13</v>
       </c>
@@ -3017,7 +3259,7 @@
       <c r="F18" s="51"/>
       <c r="G18" s="51"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>13</v>
       </c>
@@ -3028,7 +3270,7 @@
       <c r="F19" s="51"/>
       <c r="G19" s="51"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>13</v>
       </c>
@@ -3049,14 +3291,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21:G22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="20.5703125" style="35" customWidth="1"/>
     <col min="3" max="3" width="20.5703125" style="70" customWidth="1"/>
@@ -3066,18 +3308,18 @@
     <col min="8" max="16384" width="8.85546875" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="32"/>
       <c r="B1" s="32"/>
       <c r="C1" s="32"/>
       <c r="D1" s="32"/>
       <c r="E1" s="32"/>
-      <c r="F1" s="75" t="s">
+      <c r="F1" s="108" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="76"/>
-    </row>
-    <row r="2" spans="1:7" ht="15.75">
+      <c r="G1" s="109"/>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -3100,359 +3342,328 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A3" s="80" t="s">
+    <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="113" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="84" t="s">
+      <c r="B3" s="117" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="82" t="s">
+      <c r="C3" s="115" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="80" t="s">
+      <c r="D3" s="113" t="s">
         <v>79</v>
       </c>
-      <c r="E3" s="93" t="s">
+      <c r="E3" s="126" t="s">
         <v>85</v>
       </c>
-      <c r="F3" s="91">
-        <v>1</v>
-      </c>
-      <c r="G3" s="97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A4" s="88"/>
-      <c r="B4" s="90"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="94"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="98"/>
-    </row>
-    <row r="5" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A5" s="88"/>
-      <c r="B5" s="90"/>
-      <c r="C5" s="89"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="94"/>
-      <c r="F5" s="96"/>
-      <c r="G5" s="98"/>
-    </row>
-    <row r="6" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A6" s="81"/>
-      <c r="B6" s="85"/>
-      <c r="C6" s="83"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="95"/>
-      <c r="F6" s="92"/>
-      <c r="G6" s="99"/>
-    </row>
-    <row r="7" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A7" s="80" t="s">
+      <c r="F3" s="124">
+        <v>1</v>
+      </c>
+      <c r="G3" s="130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="121"/>
+      <c r="B4" s="123"/>
+      <c r="C4" s="122"/>
+      <c r="D4" s="121"/>
+      <c r="E4" s="127"/>
+      <c r="F4" s="129"/>
+      <c r="G4" s="131"/>
+    </row>
+    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="121"/>
+      <c r="B5" s="123"/>
+      <c r="C5" s="122"/>
+      <c r="D5" s="121"/>
+      <c r="E5" s="127"/>
+      <c r="F5" s="129"/>
+      <c r="G5" s="131"/>
+    </row>
+    <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="114"/>
+      <c r="B6" s="118"/>
+      <c r="C6" s="116"/>
+      <c r="D6" s="114"/>
+      <c r="E6" s="128"/>
+      <c r="F6" s="125"/>
+      <c r="G6" s="132"/>
+    </row>
+    <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="113" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="84" t="s">
+      <c r="B7" s="117" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="82" t="s">
+      <c r="C7" s="115" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="80" t="s">
+      <c r="D7" s="113" t="s">
         <v>87</v>
       </c>
-      <c r="E7" s="93" t="s">
+      <c r="E7" s="126" t="s">
         <v>88</v>
       </c>
-      <c r="F7" s="91">
-        <v>1</v>
-      </c>
-      <c r="G7" s="91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A8" s="88"/>
-      <c r="B8" s="90"/>
-      <c r="C8" s="89"/>
-      <c r="D8" s="88"/>
-      <c r="E8" s="94"/>
-      <c r="F8" s="96"/>
-      <c r="G8" s="96"/>
-    </row>
-    <row r="9" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A9" s="88"/>
-      <c r="B9" s="90"/>
-      <c r="C9" s="89"/>
-      <c r="D9" s="88"/>
-      <c r="E9" s="94"/>
-      <c r="F9" s="96"/>
-      <c r="G9" s="96"/>
-    </row>
-    <row r="10" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A10" s="81"/>
-      <c r="B10" s="85"/>
-      <c r="C10" s="83"/>
-      <c r="D10" s="81"/>
-      <c r="E10" s="95"/>
-      <c r="F10" s="92"/>
-      <c r="G10" s="92"/>
-    </row>
-    <row r="11" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A11" s="80" t="s">
+      <c r="F7" s="124">
+        <v>1</v>
+      </c>
+      <c r="G7" s="124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="121"/>
+      <c r="B8" s="123"/>
+      <c r="C8" s="122"/>
+      <c r="D8" s="121"/>
+      <c r="E8" s="127"/>
+      <c r="F8" s="129"/>
+      <c r="G8" s="129"/>
+    </row>
+    <row r="9" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="121"/>
+      <c r="B9" s="123"/>
+      <c r="C9" s="122"/>
+      <c r="D9" s="121"/>
+      <c r="E9" s="127"/>
+      <c r="F9" s="129"/>
+      <c r="G9" s="129"/>
+    </row>
+    <row r="10" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="114"/>
+      <c r="B10" s="118"/>
+      <c r="C10" s="116"/>
+      <c r="D10" s="114"/>
+      <c r="E10" s="128"/>
+      <c r="F10" s="125"/>
+      <c r="G10" s="125"/>
+    </row>
+    <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="113" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="84" t="s">
+      <c r="B11" s="117" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="86" t="s">
+      <c r="C11" s="119" t="s">
         <v>96</v>
       </c>
-      <c r="D11" s="80" t="s">
-        <v>64</v>
-      </c>
-      <c r="E11" s="79" t="s">
+      <c r="D11" s="113" t="s">
         <v>97</v>
       </c>
-      <c r="F11" s="91">
-        <v>1</v>
-      </c>
-      <c r="G11" s="91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A12" s="81"/>
-      <c r="B12" s="85"/>
-      <c r="C12" s="87"/>
-      <c r="D12" s="81"/>
-      <c r="E12" s="78"/>
-      <c r="F12" s="92"/>
-      <c r="G12" s="92"/>
-    </row>
-    <row r="13" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A13" s="74"/>
-      <c r="B13" s="84" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" s="86" t="s">
+      <c r="E11" s="112" t="s">
+        <v>98</v>
+      </c>
+      <c r="F11" s="124">
+        <v>0</v>
+      </c>
+      <c r="G11" s="124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="114"/>
+      <c r="B12" s="118"/>
+      <c r="C12" s="120"/>
+      <c r="D12" s="114"/>
+      <c r="E12" s="111"/>
+      <c r="F12" s="125"/>
+      <c r="G12" s="125"/>
+    </row>
+    <row r="13" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="113" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="117" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="119" t="s">
         <v>96</v>
       </c>
-      <c r="D13" s="80" t="s">
-        <v>65</v>
-      </c>
-      <c r="E13" s="79" t="s">
-        <v>98</v>
-      </c>
-      <c r="F13" s="91">
-        <v>1</v>
-      </c>
-      <c r="G13" s="91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A14" s="74"/>
-      <c r="B14" s="85"/>
-      <c r="C14" s="87"/>
-      <c r="D14" s="81"/>
-      <c r="E14" s="78"/>
-      <c r="F14" s="92"/>
-      <c r="G14" s="92"/>
-    </row>
-    <row r="15" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A15" s="80" t="s">
+      <c r="D13" s="113" t="s">
+        <v>82</v>
+      </c>
+      <c r="E13" s="110" t="s">
+        <v>81</v>
+      </c>
+      <c r="F13" s="124">
+        <v>0</v>
+      </c>
+      <c r="G13" s="124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="114"/>
+      <c r="B14" s="118"/>
+      <c r="C14" s="120"/>
+      <c r="D14" s="114"/>
+      <c r="E14" s="111"/>
+      <c r="F14" s="125"/>
+      <c r="G14" s="125"/>
+    </row>
+    <row r="15" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A15" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="84" t="s">
-        <v>77</v>
-      </c>
-      <c r="C15" s="86" t="s">
+      <c r="B15" s="59" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="69" t="s">
         <v>96</v>
       </c>
-      <c r="D15" s="80" t="s">
-        <v>82</v>
-      </c>
-      <c r="E15" s="77" t="s">
-        <v>81</v>
-      </c>
-      <c r="F15" s="91">
-        <v>0</v>
-      </c>
-      <c r="G15" s="91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A16" s="81"/>
-      <c r="B16" s="85"/>
-      <c r="C16" s="87"/>
-      <c r="D16" s="81"/>
-      <c r="E16" s="78"/>
-      <c r="F16" s="92"/>
-      <c r="G16" s="92"/>
-    </row>
-    <row r="17" spans="1:7" ht="14.25">
-      <c r="A17" s="34" t="s">
+      <c r="D15" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" s="71" t="s">
+        <v>80</v>
+      </c>
+      <c r="F15" s="51">
+        <v>1</v>
+      </c>
+      <c r="G15" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A16" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="59" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" s="69" t="s">
+      <c r="B16" s="59" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16" s="69" t="s">
         <v>96</v>
       </c>
-      <c r="D17" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="E17" s="71" t="s">
-        <v>80</v>
-      </c>
-      <c r="F17" s="51">
-        <v>1</v>
-      </c>
-      <c r="G17" s="51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="14.25">
-      <c r="A18" s="34" t="s">
+      <c r="D16" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" s="72">
+        <v>6192408100353</v>
+      </c>
+      <c r="F16" s="51">
+        <v>1</v>
+      </c>
+      <c r="G16" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="113" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="59" t="s">
-        <v>95</v>
-      </c>
-      <c r="C18" s="69" t="s">
-        <v>96</v>
-      </c>
-      <c r="D18" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="E18" s="72">
-        <v>6192408100353</v>
-      </c>
-      <c r="F18" s="51">
-        <v>1</v>
-      </c>
-      <c r="G18" s="51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A19" s="80" t="s">
+      <c r="B17" s="117" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="115" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" s="113" t="s">
+        <v>84</v>
+      </c>
+      <c r="E17" s="112" t="s">
+        <v>83</v>
+      </c>
+      <c r="F17" s="124">
+        <v>1</v>
+      </c>
+      <c r="G17" s="124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="114"/>
+      <c r="B18" s="118"/>
+      <c r="C18" s="116"/>
+      <c r="D18" s="114"/>
+      <c r="E18" s="111"/>
+      <c r="F18" s="125"/>
+      <c r="G18" s="125"/>
+    </row>
+    <row r="19" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="113" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="84" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19" s="82" t="s">
-        <v>76</v>
-      </c>
-      <c r="D19" s="80" t="s">
-        <v>84</v>
-      </c>
-      <c r="E19" s="79" t="s">
-        <v>83</v>
-      </c>
-      <c r="F19" s="91">
-        <v>1</v>
-      </c>
-      <c r="G19" s="91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A20" s="81"/>
-      <c r="B20" s="85"/>
-      <c r="C20" s="83"/>
-      <c r="D20" s="81"/>
-      <c r="E20" s="78"/>
-      <c r="F20" s="92"/>
-      <c r="G20" s="92"/>
-    </row>
-    <row r="21" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A21" s="80" t="s">
-        <v>3</v>
-      </c>
-      <c r="B21" s="84" t="s">
+      <c r="B19" s="117" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="82" t="s">
+      <c r="C19" s="115" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="80" t="s">
+      <c r="D19" s="113" t="s">
         <v>70</v>
       </c>
-      <c r="E21" s="79" t="s">
+      <c r="E19" s="112" t="s">
         <v>86</v>
       </c>
-      <c r="F21" s="91">
-        <v>1</v>
-      </c>
-      <c r="G21" s="91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A22" s="81"/>
-      <c r="B22" s="85"/>
-      <c r="C22" s="83"/>
-      <c r="D22" s="81"/>
-      <c r="E22" s="78"/>
-      <c r="F22" s="92"/>
-      <c r="G22" s="92"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="80"/>
-      <c r="B23" s="84"/>
-      <c r="C23" s="82"/>
-      <c r="D23" s="80"/>
-      <c r="E23" s="79"/>
-      <c r="F23" s="91"/>
-      <c r="G23" s="91"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="81"/>
-      <c r="B24" s="85"/>
-      <c r="C24" s="83"/>
-      <c r="D24" s="81"/>
-      <c r="E24" s="78"/>
-      <c r="F24" s="92"/>
-      <c r="G24" s="92"/>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="F19" s="124">
+        <v>1</v>
+      </c>
+      <c r="G19" s="124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="114"/>
+      <c r="B20" s="118"/>
+      <c r="C20" s="116"/>
+      <c r="D20" s="114"/>
+      <c r="E20" s="111"/>
+      <c r="F20" s="125"/>
+      <c r="G20" s="125"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="113"/>
+      <c r="B21" s="117"/>
+      <c r="C21" s="115"/>
+      <c r="D21" s="113"/>
+      <c r="E21" s="112"/>
+      <c r="F21" s="124"/>
+      <c r="G21" s="124"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="114"/>
+      <c r="B22" s="118"/>
+      <c r="C22" s="116"/>
+      <c r="D22" s="114"/>
+      <c r="E22" s="111"/>
+      <c r="F22" s="125"/>
+      <c r="G22" s="125"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E26" s="63"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E27" s="63"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E28" s="63"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E29" s="63"/>
     </row>
-    <row r="30" spans="1:7">
-      <c r="E30" s="63"/>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="E31" s="63"/>
-    </row>
   </sheetData>
-  <mergeCells count="56">
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
+  <mergeCells count="50">
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G19:G20"/>
     <mergeCell ref="G21:G22"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="F19:F20"/>
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A19:A20"/>
     <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B21:B22"/>
     <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="E3:E6"/>
     <mergeCell ref="E7:E10"/>
@@ -3462,36 +3673,31 @@
     <mergeCell ref="G7:G10"/>
     <mergeCell ref="F11:F12"/>
     <mergeCell ref="G11:G12"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
     <mergeCell ref="F13:F14"/>
     <mergeCell ref="G13:G14"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
     <mergeCell ref="D3:D6"/>
     <mergeCell ref="D7:D10"/>
     <mergeCell ref="C3:C6"/>
     <mergeCell ref="B3:B6"/>
     <mergeCell ref="C7:C10"/>
     <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="B19:B20"/>
     <mergeCell ref="C19:C20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="D15:D16"/>
     <mergeCell ref="E19:E20"/>
     <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="D17:D18"/>
     <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E13:E14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3500,14 +3706,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28.140625" style="16" customWidth="1"/>
     <col min="2" max="2" width="39.85546875" style="18" bestFit="1" customWidth="1"/>
@@ -3519,18 +3725,18 @@
     <col min="8" max="16384" width="8.85546875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="75" t="s">
+      <c r="F1" s="108" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="76"/>
-    </row>
-    <row r="2" spans="1:7" ht="15.75">
+      <c r="G1" s="109"/>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
@@ -3553,7 +3759,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="25.5">
+    <row r="3" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
         <v>1</v>
       </c>
@@ -3576,7 +3782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="25.5">
+    <row r="4" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>1</v>
       </c>
@@ -3599,122 +3805,122 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="25.5">
-      <c r="A5" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="66" t="s">
+    <row r="5" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="78" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="79" t="s">
         <v>78</v>
       </c>
-      <c r="C5" s="59" t="s">
+      <c r="C5" s="74" t="s">
         <v>90</v>
       </c>
-      <c r="D5" s="59" t="s">
+      <c r="D5" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="E5" s="69" t="s">
+      <c r="E5" s="76" t="s">
         <v>96</v>
       </c>
-      <c r="F5" s="55">
-        <v>1</v>
-      </c>
-      <c r="G5" s="55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="25.5">
-      <c r="A6" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="66" t="s">
+      <c r="F5" s="80">
+        <v>1</v>
+      </c>
+      <c r="G5" s="80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="84" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="59" t="s">
+      <c r="C6" s="86" t="s">
         <v>91</v>
       </c>
-      <c r="D6" s="59" t="s">
+      <c r="D6" s="86" t="s">
         <v>52</v>
       </c>
-      <c r="E6" s="59" t="s">
+      <c r="E6" s="86" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="55">
+      <c r="F6" s="87">
         <v>0</v>
       </c>
-      <c r="G6" s="55">
+      <c r="G6" s="88">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="25.5">
-      <c r="A7" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="66" t="s">
+    <row r="7" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="89" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="90" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="91" t="s">
         <v>92</v>
       </c>
-      <c r="D7" s="59" t="s">
+      <c r="D7" s="91" t="s">
         <v>54</v>
       </c>
-      <c r="E7" s="59" t="s">
+      <c r="E7" s="91" t="s">
         <v>76</v>
       </c>
-      <c r="F7" s="55">
+      <c r="F7" s="92">
         <v>0</v>
       </c>
-      <c r="G7" s="55">
+      <c r="G7" s="93">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="25.5">
-      <c r="A8" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="66" t="s">
+    <row r="8" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="94" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="95" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="59" t="s">
+      <c r="C8" s="96" t="s">
         <v>93</v>
       </c>
-      <c r="D8" s="59" t="s">
+      <c r="D8" s="96" t="s">
         <v>77</v>
       </c>
-      <c r="E8" s="69" t="s">
+      <c r="E8" s="97" t="s">
         <v>96</v>
       </c>
-      <c r="F8" s="55">
+      <c r="F8" s="98">
         <v>0</v>
       </c>
-      <c r="G8" s="55">
+      <c r="G8" s="99">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="25.5">
-      <c r="A9" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="66" t="s">
+    <row r="9" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="81" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="82" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="59" t="s">
+      <c r="C9" s="75" t="s">
         <v>94</v>
       </c>
-      <c r="D9" s="59" t="s">
+      <c r="D9" s="75" t="s">
         <v>50</v>
       </c>
-      <c r="E9" s="69" t="s">
+      <c r="E9" s="77" t="s">
         <v>96</v>
       </c>
-      <c r="F9" s="55">
-        <v>1</v>
-      </c>
-      <c r="G9" s="55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="F9" s="83">
+        <v>1</v>
+      </c>
+      <c r="G9" s="83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="36" t="s">
         <v>4</v>
       </c>
@@ -3737,7 +3943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C11" s="17"/>
     </row>
   </sheetData>
@@ -3745,20 +3951,20 @@
     <mergeCell ref="F1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20:G22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="30.7109375" style="23" customWidth="1"/>
     <col min="2" max="2" width="42.28515625" style="23" customWidth="1"/>
@@ -3770,18 +3976,18 @@
     <col min="8" max="16384" width="8.85546875" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="20"/>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
       <c r="D1" s="20"/>
       <c r="E1" s="20"/>
-      <c r="F1" s="75" t="s">
+      <c r="F1" s="108" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="76"/>
-    </row>
-    <row r="2" spans="1:7" ht="31.5">
+      <c r="G1" s="109"/>
+    </row>
+    <row r="2" spans="1:7" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
@@ -3804,7 +4010,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="22" t="s">
         <v>2</v>
       </c>
@@ -3827,7 +4033,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="22" t="s">
         <v>2</v>
       </c>
@@ -3850,7 +4056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="22" t="s">
         <v>2</v>
       </c>
@@ -3873,7 +4079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="22" t="s">
         <v>2</v>
       </c>
@@ -3896,7 +4102,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="22" t="s">
         <v>2</v>
       </c>
@@ -3919,7 +4125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="22" t="s">
         <v>2</v>
       </c>
@@ -3942,7 +4148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="22" t="s">
         <v>2</v>
       </c>
@@ -3965,7 +4171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="22" t="s">
         <v>2</v>
       </c>
@@ -3988,7 +4194,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="22" t="s">
         <v>2</v>
       </c>
@@ -4011,7 +4217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
         <v>2</v>
       </c>
@@ -4034,7 +4240,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="22" t="s">
         <v>2</v>
       </c>
@@ -4057,7 +4263,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="22" t="s">
         <v>2</v>
       </c>
@@ -4080,7 +4286,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="22" t="s">
         <v>2</v>
       </c>
@@ -4103,7 +4309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="22" t="s">
         <v>2</v>
       </c>
@@ -4126,7 +4332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="22" t="s">
         <v>2</v>
       </c>
@@ -4149,7 +4355,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="22" t="s">
         <v>2</v>
       </c>
@@ -4172,7 +4378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="22" t="s">
         <v>2</v>
       </c>
@@ -4195,15 +4401,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="58" customFormat="1">
+    <row r="20" spans="1:7" s="58" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="57" t="s">
         <v>35</v>
       </c>
       <c r="B20" s="68" t="s">
-        <v>55</v>
-      </c>
-      <c r="C20" s="62">
-        <v>9103482</v>
+        <v>58</v>
+      </c>
+      <c r="C20" s="63">
+        <v>6192408100810</v>
       </c>
       <c r="D20" s="59" t="s">
         <v>48</v>
@@ -4212,56 +4418,10 @@
         <v>38</v>
       </c>
       <c r="F20" s="56">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G20" s="56">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" s="58" customFormat="1">
-      <c r="A21" s="57" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="68" t="s">
-        <v>58</v>
-      </c>
-      <c r="C21" s="63">
-        <v>6192408100810</v>
-      </c>
-      <c r="D21" s="59" t="s">
-        <v>48</v>
-      </c>
-      <c r="E21" s="67" t="s">
-        <v>38</v>
-      </c>
-      <c r="F21" s="56">
-        <v>3</v>
-      </c>
-      <c r="G21" s="56">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" s="58" customFormat="1">
-      <c r="A22" s="57" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" s="68" t="s">
-        <v>57</v>
-      </c>
-      <c r="C22" s="63">
-        <v>6192408100469</v>
-      </c>
-      <c r="D22" s="59" t="s">
-        <v>48</v>
-      </c>
-      <c r="E22" s="67" t="s">
-        <v>38</v>
-      </c>
-      <c r="F22" s="56">
-        <v>4</v>
-      </c>
-      <c r="G22" s="56">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/SANOFITN/Data/Template.xlsx
+++ b/Projects/SANOFITN/Data/Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -609,7 +609,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="86">
   <si>
     <t xml:space="preserve">KPI Name</t>
   </si>
@@ -842,9 +842,6 @@
     <t xml:space="preserve">SATN.DOL.17.12.0300</t>
   </si>
   <si>
-    <t xml:space="preserve">Doliprex/Dolirhume</t>
-  </si>
-  <si>
     <t xml:space="preserve">Réglettes Multipathologie
 Douleur Inflammatoire</t>
   </si>
@@ -890,7 +887,7 @@
     <numFmt numFmtId="166" formatCode="0.00"/>
     <numFmt numFmtId="167" formatCode="0"/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="35">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -922,12 +919,7 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -942,6 +934,7 @@
     <font>
       <b val="true"/>
       <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -949,7 +942,7 @@
     <font>
       <b val="true"/>
       <sz val="10"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -957,14 +950,7 @@
     <font>
       <b val="true"/>
       <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -985,21 +971,7 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -1034,6 +1006,12 @@
       <charset val="204"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Calibri"/>
@@ -1041,8 +1019,44 @@
       <charset val="204"/>
     </font>
     <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="8"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -1067,18 +1081,17 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
@@ -1303,12 +1316,12 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="107">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1369,31 +1382,31 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="6" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="7" fillId="6" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="6" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="7" fillId="6" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="9" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="9" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1405,7 +1418,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1413,7 +1426,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1421,151 +1434,139 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="21" fillId="6" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="18" fillId="6" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="11" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="20" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="21" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="9" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="9" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="6" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="22" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="6" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="25" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="9" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="26" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="9" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="6" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="23" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="27" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1573,11 +1574,15 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="11" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="11" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1589,79 +1594,83 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="28" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="9" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="26" fillId="11" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="11" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="26" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="27" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="26" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="27" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="26" fillId="9" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="27" fillId="9" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="26" fillId="9" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="27" fillId="9" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="26" fillId="11" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="27" fillId="11" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="26" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="26" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="26" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="27" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="26" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="27" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="26" fillId="11" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="27" fillId="11" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="26" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="26" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="26" fillId="9" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="27" fillId="9" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="26" fillId="9" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="27" fillId="9" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="11" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="27" fillId="11" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1673,63 +1682,71 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="9" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="9" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="27" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="29" fillId="6" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="31" fillId="6" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="30" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="32" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="31" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="33" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="32" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="34" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="9" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="22" fillId="9" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="167" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="32" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="34" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1819,14 +1836,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.8542510121457"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.0647773279352"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.7449392712551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.9595141700405"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.1052631578947"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="24.5303643724696"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.4008097165992"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.2186234817814"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.4655870445344"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.0769230769231"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="25.0931174089069"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="9.30364372469636"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2083,20 +2100,20 @@
   </sheetPr>
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B33" activeCellId="0" sqref="B33"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D40" activeCellId="0" sqref="D40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="24.8502024291498"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="42.6315789473684"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="14" width="21.8542510121457"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="17.7813765182186"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="13" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="17.7813765182186"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="13" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="15" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="25.4655870445344"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="43.7044534412956"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="14" width="22.4008097165992"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="18.1174089068826"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="13" width="13.7125506072874"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="18.1174089068826"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="13" width="16.7732793522267"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="15" width="9.06072874493927"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2110,7 +2127,7 @@
       </c>
       <c r="G1" s="18"/>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
@@ -2133,7 +2150,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="22" t="s">
         <v>23</v>
       </c>
@@ -2156,7 +2173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="22" t="s">
         <v>23</v>
       </c>
@@ -2179,7 +2196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="22" t="s">
         <v>23</v>
       </c>
@@ -2202,7 +2219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="22" t="s">
         <v>23</v>
       </c>
@@ -2225,7 +2242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="22" t="s">
         <v>23</v>
       </c>
@@ -2248,7 +2265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="22" t="s">
         <v>23</v>
       </c>
@@ -2271,7 +2288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="22" t="s">
         <v>23</v>
       </c>
@@ -2294,7 +2311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="22" t="s">
         <v>23</v>
       </c>
@@ -2317,7 +2334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="22" t="s">
         <v>23</v>
       </c>
@@ -2340,7 +2357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="22" t="s">
         <v>23</v>
       </c>
@@ -2363,7 +2380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="22" t="s">
         <v>23</v>
       </c>
@@ -2386,7 +2403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="22" t="s">
         <v>23</v>
       </c>
@@ -2409,7 +2426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="22" t="s">
         <v>23</v>
       </c>
@@ -2432,7 +2449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="22" t="s">
         <v>23</v>
       </c>
@@ -2455,53 +2472,53 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="30" t="s">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="32" t="n">
+      <c r="C17" s="27" t="n">
         <v>6192408100179</v>
       </c>
-      <c r="D17" s="31" t="s">
+      <c r="D17" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="E17" s="31" t="s">
+      <c r="E17" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="F17" s="33" t="n">
+      <c r="F17" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="G17" s="34" t="n">
+      <c r="G17" s="26" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="30" t="s">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="C18" s="32" t="n">
+      <c r="C18" s="27" t="n">
         <v>6192408100162</v>
       </c>
-      <c r="D18" s="31" t="s">
+      <c r="D18" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="E18" s="31" t="s">
+      <c r="E18" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="F18" s="33" t="n">
+      <c r="F18" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="G18" s="34" t="n">
+      <c r="G18" s="26" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="22" t="s">
         <v>23</v>
       </c>
@@ -2524,7 +2541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="22" t="s">
         <v>23</v>
       </c>
@@ -2541,13 +2558,13 @@
         <v>64</v>
       </c>
       <c r="F20" s="25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" s="26" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="22" t="s">
         <v>23</v>
       </c>
@@ -2563,14 +2580,14 @@
       <c r="E21" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="F21" s="35" t="n">
-        <v>1</v>
+      <c r="F21" s="30" t="n">
+        <v>0</v>
       </c>
       <c r="G21" s="26" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="22" t="s">
         <v>23</v>
       </c>
@@ -2586,37 +2603,37 @@
       <c r="E22" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="F22" s="35" t="n">
-        <v>1</v>
+      <c r="F22" s="30" t="n">
+        <v>0</v>
       </c>
       <c r="G22" s="26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="30" t="s">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="31" t="s">
+      <c r="B23" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="C23" s="32" t="n">
+      <c r="C23" s="27" t="n">
         <v>6192408101527</v>
       </c>
-      <c r="D23" s="31" t="s">
+      <c r="D23" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="E23" s="36" t="s">
+      <c r="E23" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="F23" s="37" t="n">
+      <c r="F23" s="30" t="n">
         <v>0</v>
       </c>
-      <c r="G23" s="34" t="n">
+      <c r="G23" s="26" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D24" s="23"/>
     </row>
   </sheetData>
@@ -2647,46 +2664,46 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="38" width="24.8502024291498"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="38" width="21.1012145748988"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="38" width="28.1740890688259"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="38" width="21.1012145748988"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="38" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="38" width="9.31983805668016"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="39" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="32" width="25.4655870445344"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="32" width="21.5465587044534"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="32" width="28.7732793522267"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="32" width="21.5465587044534"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="32" width="11.0202429149798"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="32" width="9.54655870445344"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="33" width="9.06072874493927"/>
   </cols>
   <sheetData>
-    <row r="1" s="15" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="40"/>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="18" t="s">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="34"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="18"/>
+      <c r="G1" s="35"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="41" t="s">
+      <c r="G2" s="38" t="s">
         <v>36</v>
       </c>
       <c r="H2" s="0"/>
@@ -3708,15 +3725,15 @@
       <c r="AMJ2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="23"/>
+      <c r="B3" s="40"/>
       <c r="C3" s="24"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
       <c r="H3" s="0"/>
       <c r="I3" s="0"/>
       <c r="J3" s="0"/>
@@ -4736,15 +4753,15 @@
       <c r="AMJ3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="23"/>
+      <c r="B4" s="40"/>
       <c r="C4" s="24"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
       <c r="H4" s="0"/>
       <c r="I4" s="0"/>
       <c r="J4" s="0"/>
@@ -5764,15 +5781,15 @@
       <c r="AMJ4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="23"/>
+      <c r="B5" s="40"/>
       <c r="C5" s="24"/>
-      <c r="D5" s="23"/>
+      <c r="D5" s="40"/>
       <c r="E5" s="29"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
       <c r="H5" s="0"/>
       <c r="I5" s="0"/>
       <c r="J5" s="0"/>
@@ -6792,15 +6809,15 @@
       <c r="AMJ5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="23"/>
+      <c r="B6" s="40"/>
       <c r="C6" s="24"/>
-      <c r="D6" s="23"/>
+      <c r="D6" s="40"/>
       <c r="E6" s="29"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
       <c r="H6" s="0"/>
       <c r="I6" s="0"/>
       <c r="J6" s="0"/>
@@ -7820,15 +7837,15 @@
       <c r="AMJ6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="23"/>
+      <c r="B7" s="40"/>
       <c r="C7" s="24"/>
-      <c r="D7" s="23"/>
+      <c r="D7" s="40"/>
       <c r="E7" s="29"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
       <c r="H7" s="0"/>
       <c r="I7" s="0"/>
       <c r="J7" s="0"/>
@@ -8847,27 +8864,27 @@
       <c r="AMI7" s="0"/>
       <c r="AMJ7" s="0"/>
     </row>
-    <row r="8" s="46" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="45" t="s">
+    <row r="8" s="44" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="23"/>
+      <c r="B8" s="40"/>
       <c r="C8" s="24"/>
-      <c r="D8" s="23"/>
+      <c r="D8" s="40"/>
       <c r="E8" s="28"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="42" t="s">
+      <c r="A9" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="23"/>
+      <c r="B9" s="40"/>
       <c r="C9" s="24"/>
-      <c r="D9" s="23"/>
+      <c r="D9" s="40"/>
       <c r="E9" s="29"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
       <c r="H9" s="0"/>
       <c r="I9" s="0"/>
       <c r="J9" s="0"/>
@@ -9887,15 +9904,15 @@
       <c r="AMJ9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="42" t="s">
+      <c r="A10" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="23"/>
+      <c r="B10" s="40"/>
       <c r="C10" s="24"/>
-      <c r="D10" s="23"/>
+      <c r="D10" s="40"/>
       <c r="E10" s="29"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
       <c r="H10" s="0"/>
       <c r="I10" s="0"/>
       <c r="J10" s="0"/>
@@ -10915,15 +10932,15 @@
       <c r="AMJ10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="42" t="s">
+      <c r="A11" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="23"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="23"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="40"/>
       <c r="E11" s="29"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="48"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="45"/>
       <c r="H11" s="0"/>
       <c r="I11" s="0"/>
       <c r="J11" s="0"/>
@@ -11943,15 +11960,15 @@
       <c r="AMJ11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="42" t="s">
+      <c r="A12" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="23"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="40"/>
       <c r="E12" s="29"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="50"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="47"/>
       <c r="H12" s="0"/>
       <c r="I12" s="0"/>
       <c r="J12" s="0"/>
@@ -12971,15 +12988,15 @@
       <c r="AMJ12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="42" t="s">
+      <c r="A13" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="23"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="40"/>
       <c r="E13" s="29"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
       <c r="H13" s="0"/>
       <c r="I13" s="0"/>
       <c r="J13" s="0"/>
@@ -13999,15 +14016,15 @@
       <c r="AMJ13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="42" t="s">
+      <c r="A14" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="23"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="23"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="40"/>
       <c r="E14" s="29"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
       <c r="H14" s="0"/>
       <c r="I14" s="0"/>
       <c r="J14" s="0"/>
@@ -15027,15 +15044,15 @@
       <c r="AMJ14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="42" t="s">
+      <c r="A15" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="23"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="23"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="40"/>
       <c r="E15" s="29"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
       <c r="H15" s="0"/>
       <c r="I15" s="0"/>
       <c r="J15" s="0"/>
@@ -16055,15 +16072,15 @@
       <c r="AMJ15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="42" t="s">
+      <c r="A16" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="23"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
       <c r="H16" s="0"/>
       <c r="I16" s="0"/>
       <c r="J16" s="0"/>
@@ -17082,49 +17099,49 @@
       <c r="AMI16" s="0"/>
       <c r="AMJ16" s="0"/>
     </row>
-    <row r="17" s="46" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="45" t="s">
+    <row r="17" s="44" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="23"/>
+      <c r="B17" s="40"/>
       <c r="C17" s="24"/>
-      <c r="D17" s="23"/>
+      <c r="D17" s="40"/>
       <c r="E17" s="28"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="44"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="42" t="s">
+      <c r="A18" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="23"/>
+      <c r="B18" s="40"/>
       <c r="C18" s="24"/>
-      <c r="D18" s="23"/>
+      <c r="D18" s="40"/>
       <c r="E18" s="29"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="42" t="s">
+      <c r="A19" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="23"/>
+      <c r="B19" s="40"/>
       <c r="C19" s="24"/>
-      <c r="D19" s="23"/>
+      <c r="D19" s="40"/>
       <c r="E19" s="29"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="44"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="42" t="s">
+      <c r="A20" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="23"/>
+      <c r="B20" s="40"/>
       <c r="C20" s="24"/>
-      <c r="D20" s="23"/>
+      <c r="D20" s="40"/>
       <c r="E20" s="29"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -17148,71 +17165,71 @@
   </sheetPr>
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="51" width="20.6720647773279"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="52" width="20.6720647773279"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="51" width="42.7408906882591"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="51" width="63.8421052631579"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="51" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="53" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="48" width="21.0607287449393"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="49" width="21.0607287449393"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="48" width="43.8259109311741"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="48" width="65.4939271255061"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="48" width="10.5263157894737"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="50" width="9.06072874493927"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="54"/>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="18" t="s">
+      <c r="A1" s="51"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="18"/>
+      <c r="G1" s="35"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="37" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="55"/>
-      <c r="B3" s="56"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
+      <c r="A3" s="52"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="55"/>
-      <c r="B4" s="56"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
+      <c r="A4" s="52"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -17248,241 +17265,241 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+      <selection pane="topLeft" activeCell="B32" activeCellId="0" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="59" width="28.2793522267206"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="60" width="40.17004048583"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="59" width="21.8542510121457"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="60" width="26.1376518218623"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="60" width="18.7449392712551"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="59" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="59" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="61" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="32" width="28.8947368421053"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="56" width="41.1336032388664"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="32" width="22.4008097165992"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="56" width="26.6882591093117"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="56" width="19.2186234817814"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="32" width="9.30364372469636"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="32" width="8.81376518218623"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="57" width="9.06072874493927"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="16"/>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="18" t="s">
+      <c r="A1" s="58"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="18"/>
+      <c r="G1" s="35"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="62" t="s">
+      <c r="C2" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="62" t="s">
+      <c r="D2" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="62" t="s">
+      <c r="E2" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="63" t="s">
+      <c r="G2" s="60" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="64" t="s">
+    <row r="3" customFormat="false" ht="25.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="56" t="s">
+      <c r="C3" s="63" t="s">
         <v>71</v>
       </c>
-      <c r="D3" s="56" t="s">
+      <c r="D3" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="57" t="s">
+      <c r="E3" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="66" t="n">
+      <c r="F3" s="64" t="n">
         <v>1</v>
       </c>
-      <c r="G3" s="66" t="n">
+      <c r="G3" s="64" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="64" t="s">
+    <row r="4" customFormat="false" ht="25.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="65" t="s">
+      <c r="B4" s="62" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="56" t="s">
+      <c r="C4" s="63" t="s">
         <v>73</v>
       </c>
-      <c r="D4" s="56" t="s">
+      <c r="D4" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="E4" s="57" t="s">
+      <c r="E4" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="66" t="n">
+      <c r="F4" s="64" t="n">
         <v>1</v>
       </c>
-      <c r="G4" s="66" t="n">
+      <c r="G4" s="64" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="67" t="s">
+    <row r="5" customFormat="false" ht="25.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="68" t="s">
+      <c r="B5" s="66" t="s">
         <v>74</v>
       </c>
-      <c r="C5" s="69" t="s">
+      <c r="C5" s="67" t="s">
         <v>75</v>
       </c>
-      <c r="D5" s="69" t="s">
+      <c r="D5" s="68" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="69" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="70" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="25.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="71" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="72" t="s">
         <v>76</v>
       </c>
-      <c r="E5" s="70" t="s">
+      <c r="C6" s="73" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" s="73" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="74" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="75" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="25.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="76" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="77" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="78" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" s="78" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="78" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" s="79" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="80" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="25.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="81" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="82" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="83" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="83" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="84" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="71" t="n">
+      <c r="F8" s="85" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="86" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="25.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="87" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="88" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="89" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="89" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="90" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="91" t="n">
         <v>1</v>
       </c>
-      <c r="G5" s="71" t="n">
+      <c r="G9" s="91" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="72" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="73" t="s">
-        <v>77</v>
-      </c>
-      <c r="C6" s="74" t="s">
-        <v>78</v>
-      </c>
-      <c r="D6" s="74" t="s">
-        <v>67</v>
-      </c>
-      <c r="E6" s="74" t="s">
+    <row r="10" customFormat="false" ht="25.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="92" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" s="63" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" s="63" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="75" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="76" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="77" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="78" t="s">
-        <v>79</v>
-      </c>
-      <c r="C7" s="79" t="s">
-        <v>80</v>
-      </c>
-      <c r="D7" s="79" t="s">
-        <v>63</v>
-      </c>
-      <c r="E7" s="79" t="s">
-        <v>64</v>
-      </c>
-      <c r="F7" s="80" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="81" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="82" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="83" t="s">
-        <v>81</v>
-      </c>
-      <c r="C8" s="84" t="s">
-        <v>82</v>
-      </c>
-      <c r="D8" s="84" t="s">
-        <v>58</v>
-      </c>
-      <c r="E8" s="85" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" s="86" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" s="87" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="88" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="89" t="s">
-        <v>83</v>
-      </c>
-      <c r="C9" s="90" t="s">
-        <v>84</v>
-      </c>
-      <c r="D9" s="90" t="s">
-        <v>55</v>
-      </c>
-      <c r="E9" s="91" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" s="92" t="n">
+      <c r="F10" s="64" t="n">
         <v>1</v>
       </c>
-      <c r="G9" s="92" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="93" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="65" t="s">
-        <v>85</v>
-      </c>
-      <c r="C10" s="56" t="s">
-        <v>86</v>
-      </c>
-      <c r="D10" s="56" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="56" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" s="66" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" s="66" t="n">
+      <c r="G10" s="64" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="94"/>
+      <c r="C11" s="93"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -17504,34 +17521,34 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:20"/>
+  <dimension ref="1:65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+      <selection pane="topLeft" activeCell="D25" activeCellId="0" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="95" width="30.8502024291498"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="95" width="42.6315789473684"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="95" width="18.6396761133603"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="95" width="17.4615384615385"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="95" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="95" width="10.1781376518219"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="95" width="9.74898785425101"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="96" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="94" width="31.587044534413"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="94" width="43.7044534412956"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="94" width="19.0971659919028"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="94" width="17.8744939271255"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="94" width="16.7732793522267"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="94" width="10.2834008097166"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="94" width="9.91093117408907"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="95" width="9.06072874493927"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="97"/>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="18" t="s">
+      <c r="A1" s="96"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="18"/>
+      <c r="G1" s="35"/>
       <c r="H1" s="0"/>
       <c r="I1" s="0"/>
       <c r="J1" s="0"/>
@@ -18551,25 +18568,25 @@
       <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="98" t="s">
+      <c r="A2" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="98" t="s">
+      <c r="B2" s="97" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="98" t="s">
+      <c r="C2" s="97" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="62" t="s">
+      <c r="D2" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="62" t="s">
+      <c r="E2" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="99" t="s">
+      <c r="G2" s="98" t="s">
         <v>36</v>
       </c>
       <c r="H2" s="0"/>
@@ -19590,27 +19607,27 @@
       <c r="AMI2" s="0"/>
       <c r="AMJ2" s="0"/>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="100" t="s">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="99" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="100" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="14" t="n">
+      <c r="C3" s="101" t="n">
         <v>9103482</v>
       </c>
-      <c r="D3" s="56" t="s">
+      <c r="D3" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="101" t="s">
+      <c r="E3" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="102" t="n">
-        <v>2</v>
-      </c>
-      <c r="G3" s="102" t="n">
-        <v>2</v>
+      <c r="F3" s="103" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="103" t="n">
+        <v>1</v>
       </c>
       <c r="H3" s="0"/>
       <c r="I3" s="0"/>
@@ -20630,26 +20647,26 @@
       <c r="AMI3" s="0"/>
       <c r="AMJ3" s="0"/>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="100" t="s">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="99" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="65" t="s">
+      <c r="B4" s="100" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="14" t="n">
+      <c r="C4" s="101" t="n">
         <v>9103489</v>
       </c>
-      <c r="D4" s="56" t="s">
+      <c r="D4" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="101" t="s">
+      <c r="E4" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="102" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="102" t="n">
+      <c r="F4" s="103" t="n">
+        <v>2</v>
+      </c>
+      <c r="G4" s="103" t="n">
         <v>1</v>
       </c>
       <c r="H4" s="0"/>
@@ -21670,26 +21687,26 @@
       <c r="AMI4" s="0"/>
       <c r="AMJ4" s="0"/>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="100" t="s">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="99" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="65" t="s">
+      <c r="B5" s="100" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="27" t="n">
+      <c r="C5" s="104" t="n">
         <v>6192408100469</v>
       </c>
-      <c r="D5" s="56" t="s">
+      <c r="D5" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="101" t="s">
+      <c r="E5" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="102" t="n">
+      <c r="F5" s="103" t="n">
         <v>1</v>
       </c>
-      <c r="G5" s="102" t="n">
+      <c r="G5" s="103" t="n">
         <v>1</v>
       </c>
       <c r="H5" s="0"/>
@@ -22710,26 +22727,26 @@
       <c r="AMI5" s="0"/>
       <c r="AMJ5" s="0"/>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="100" t="s">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="99" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="65" t="s">
+      <c r="B6" s="100" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="27" t="n">
+      <c r="C6" s="104" t="n">
         <v>6192408100810</v>
       </c>
-      <c r="D6" s="56" t="s">
+      <c r="D6" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="101" t="s">
+      <c r="E6" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="102" t="n">
-        <v>2</v>
-      </c>
-      <c r="G6" s="102" t="n">
+      <c r="F6" s="103" t="n">
+        <v>3</v>
+      </c>
+      <c r="G6" s="103" t="n">
         <v>2</v>
       </c>
       <c r="H6" s="0"/>
@@ -23750,27 +23767,27 @@
       <c r="AMI6" s="0"/>
       <c r="AMJ6" s="0"/>
     </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="100" t="s">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="99" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="65" t="s">
+      <c r="B7" s="100" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="27" t="n">
+      <c r="C7" s="104" t="n">
         <v>6192408101510</v>
       </c>
-      <c r="D7" s="56" t="s">
+      <c r="D7" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="E7" s="101" t="s">
+      <c r="E7" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="102" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="102" t="n">
-        <v>1</v>
+      <c r="F7" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="103" t="n">
+        <v>0</v>
       </c>
       <c r="H7" s="0"/>
       <c r="I7" s="0"/>
@@ -24790,26 +24807,26 @@
       <c r="AMI7" s="0"/>
       <c r="AMJ7" s="0"/>
     </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="100" t="s">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="99" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="65" t="s">
+      <c r="B8" s="100" t="s">
         <v>68</v>
       </c>
-      <c r="C8" s="27" t="n">
+      <c r="C8" s="104" t="n">
         <v>6192408101527</v>
       </c>
-      <c r="D8" s="56" t="s">
+      <c r="D8" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="E8" s="101" t="s">
+      <c r="E8" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="102" t="n">
+      <c r="F8" s="103" t="n">
         <v>0</v>
       </c>
-      <c r="G8" s="102" t="n">
+      <c r="G8" s="103" t="n">
         <v>0</v>
       </c>
       <c r="H8" s="0"/>
@@ -25830,26 +25847,26 @@
       <c r="AMI8" s="0"/>
       <c r="AMJ8" s="0"/>
     </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="100" t="s">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="99" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="65" t="s">
+      <c r="B9" s="100" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="27" t="n">
+      <c r="C9" s="104" t="n">
         <v>6192408100032</v>
       </c>
-      <c r="D9" s="56" t="s">
+      <c r="D9" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="E9" s="101" t="s">
+      <c r="E9" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="102" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" s="102" t="n">
+      <c r="F9" s="103" t="n">
+        <v>2</v>
+      </c>
+      <c r="G9" s="103" t="n">
         <v>1</v>
       </c>
       <c r="H9" s="0"/>
@@ -26870,27 +26887,27 @@
       <c r="AMI9" s="0"/>
       <c r="AMJ9" s="0"/>
     </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="100" t="s">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="99" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="65" t="s">
+      <c r="B10" s="100" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="27" t="n">
+      <c r="C10" s="104" t="n">
         <v>6192408101886</v>
       </c>
-      <c r="D10" s="56" t="s">
+      <c r="D10" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="E10" s="101" t="s">
+      <c r="E10" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="102" t="n">
+      <c r="F10" s="103" t="n">
         <v>2</v>
       </c>
-      <c r="G10" s="102" t="n">
-        <v>2</v>
+      <c r="G10" s="103" t="n">
+        <v>1</v>
       </c>
       <c r="H10" s="0"/>
       <c r="I10" s="0"/>
@@ -27910,26 +27927,26 @@
       <c r="AMI10" s="0"/>
       <c r="AMJ10" s="0"/>
     </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="100" t="s">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="99" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="65" t="s">
+      <c r="B11" s="100" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="27" t="n">
+      <c r="C11" s="104" t="n">
         <v>6192408101909</v>
       </c>
-      <c r="D11" s="56" t="s">
+      <c r="D11" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="E11" s="101" t="s">
+      <c r="E11" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="F11" s="102" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" s="102" t="n">
+      <c r="F11" s="103" t="n">
+        <v>2</v>
+      </c>
+      <c r="G11" s="103" t="n">
         <v>1</v>
       </c>
       <c r="H11" s="0"/>
@@ -28950,27 +28967,27 @@
       <c r="AMI11" s="0"/>
       <c r="AMJ11" s="0"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="100" t="s">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="99" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="65" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="29" t="n">
-        <v>6192408100353</v>
-      </c>
-      <c r="D12" s="56" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" s="103" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" s="102" t="n">
+      <c r="B12" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="104" t="n">
+        <v>6192408101893</v>
+      </c>
+      <c r="D12" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="102" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="103" t="n">
         <v>2</v>
       </c>
-      <c r="G12" s="102" t="n">
-        <v>2</v>
+      <c r="G12" s="103" t="n">
+        <v>1</v>
       </c>
       <c r="H12" s="0"/>
       <c r="I12" s="0"/>
@@ -29990,27 +30007,27 @@
       <c r="AMI12" s="0"/>
       <c r="AMJ12" s="0"/>
     </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="100" t="s">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="99" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="65" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" s="27" t="n">
-        <v>6192408100155</v>
-      </c>
-      <c r="D13" s="56" t="s">
-        <v>55</v>
-      </c>
-      <c r="E13" s="103" t="s">
+      <c r="B13" s="100" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="29" t="n">
+        <v>6192408100353</v>
+      </c>
+      <c r="D13" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="F13" s="102" t="n">
+      <c r="F13" s="103" t="n">
         <v>3</v>
       </c>
-      <c r="G13" s="102" t="n">
-        <v>3</v>
+      <c r="G13" s="103" t="n">
+        <v>2</v>
       </c>
       <c r="H13" s="0"/>
       <c r="I13" s="0"/>
@@ -31030,26 +31047,26 @@
       <c r="AMI13" s="0"/>
       <c r="AMJ13" s="0"/>
     </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="100" t="s">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="99" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="65" t="s">
-        <v>56</v>
-      </c>
-      <c r="C14" s="27" t="n">
-        <v>6192408100308</v>
-      </c>
-      <c r="D14" s="56" t="s">
+      <c r="B14" s="100" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="104" t="n">
+        <v>6192408100155</v>
+      </c>
+      <c r="D14" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="103" t="s">
+      <c r="E14" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="F14" s="102" t="n">
-        <v>2</v>
-      </c>
-      <c r="G14" s="102" t="n">
+      <c r="F14" s="103" t="n">
+        <v>3</v>
+      </c>
+      <c r="G14" s="103" t="n">
         <v>2</v>
       </c>
       <c r="H14" s="0"/>
@@ -32070,27 +32087,27 @@
       <c r="AMI14" s="0"/>
       <c r="AMJ14" s="0"/>
     </row>
-    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="100" t="s">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="99" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="65" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15" s="27" t="n">
-        <v>6192408100179</v>
-      </c>
-      <c r="D15" s="56" t="s">
-        <v>58</v>
-      </c>
-      <c r="E15" s="103" t="s">
+      <c r="B15" s="100" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="104" t="n">
+        <v>6192408100308</v>
+      </c>
+      <c r="D15" s="53" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="F15" s="102" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" s="102" t="n">
-        <v>0</v>
+      <c r="F15" s="103" t="n">
+        <v>3</v>
+      </c>
+      <c r="G15" s="103" t="n">
+        <v>2</v>
       </c>
       <c r="H15" s="0"/>
       <c r="I15" s="0"/>
@@ -33110,26 +33127,26 @@
       <c r="AMI15" s="0"/>
       <c r="AMJ15" s="0"/>
     </row>
-    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="100" t="s">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="99" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="65" t="s">
-        <v>59</v>
-      </c>
-      <c r="C16" s="27" t="n">
-        <v>6192408100162</v>
-      </c>
-      <c r="D16" s="56" t="s">
+      <c r="B16" s="100" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="104" t="n">
+        <v>6192408100179</v>
+      </c>
+      <c r="D16" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="E16" s="103" t="s">
+      <c r="E16" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="F16" s="102" t="n">
+      <c r="F16" s="103" t="n">
         <v>0</v>
       </c>
-      <c r="G16" s="102" t="n">
+      <c r="G16" s="103" t="n">
         <v>0</v>
       </c>
       <c r="H16" s="0"/>
@@ -34150,27 +34167,27 @@
       <c r="AMI16" s="0"/>
       <c r="AMJ16" s="0"/>
     </row>
-    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="100" t="s">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="99" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="65" t="s">
-        <v>60</v>
-      </c>
-      <c r="C17" s="14" t="n">
-        <v>9103471</v>
-      </c>
-      <c r="D17" s="56" t="s">
-        <v>61</v>
-      </c>
-      <c r="E17" s="103" t="s">
+      <c r="B17" s="100" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="104" t="n">
+        <v>6192408100162</v>
+      </c>
+      <c r="D17" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="F17" s="102" t="n">
-        <v>2</v>
-      </c>
-      <c r="G17" s="102" t="n">
-        <v>2</v>
+      <c r="F17" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="103" t="n">
+        <v>0</v>
       </c>
       <c r="H17" s="0"/>
       <c r="I17" s="0"/>
@@ -35190,27 +35207,27 @@
       <c r="AMI17" s="0"/>
       <c r="AMJ17" s="0"/>
     </row>
-    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="100" t="s">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="99" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="65" t="s">
-        <v>62</v>
-      </c>
-      <c r="C18" s="27" t="n">
-        <v>3582910075455</v>
-      </c>
-      <c r="D18" s="56" t="s">
-        <v>63</v>
-      </c>
-      <c r="E18" s="101" t="s">
-        <v>64</v>
-      </c>
-      <c r="F18" s="102" t="n">
-        <v>1</v>
-      </c>
-      <c r="G18" s="102" t="n">
-        <v>1</v>
+      <c r="B18" s="100" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="101" t="n">
+        <v>9103471</v>
+      </c>
+      <c r="D18" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18" s="103" t="n">
+        <v>3</v>
+      </c>
+      <c r="G18" s="103" t="n">
+        <v>2</v>
       </c>
       <c r="H18" s="0"/>
       <c r="I18" s="0"/>
@@ -36230,27 +36247,27 @@
       <c r="AMI18" s="0"/>
       <c r="AMJ18" s="0"/>
     </row>
-    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="100" t="s">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="99" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="65" t="s">
-        <v>65</v>
-      </c>
-      <c r="C19" s="27" t="n">
-        <v>3582910075448</v>
-      </c>
-      <c r="D19" s="56" t="s">
+      <c r="B19" s="100" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="104" t="n">
+        <v>3582910075455</v>
+      </c>
+      <c r="D19" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="E19" s="101" t="s">
+      <c r="E19" s="102" t="s">
         <v>64</v>
       </c>
-      <c r="F19" s="102" t="n">
-        <v>1</v>
-      </c>
-      <c r="G19" s="102" t="n">
-        <v>1</v>
+      <c r="F19" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="103" t="n">
+        <v>0</v>
       </c>
       <c r="H19" s="0"/>
       <c r="I19" s="0"/>
@@ -37270,29 +37287,1072 @@
       <c r="AMI19" s="0"/>
       <c r="AMJ19" s="0"/>
     </row>
-    <row r="20" s="105" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="104" t="s">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="99" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="100" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="104" t="n">
+        <v>3582910075448</v>
+      </c>
+      <c r="D20" s="53" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" s="102" t="s">
+        <v>64</v>
+      </c>
+      <c r="F20" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="103" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" s="0"/>
+      <c r="I20" s="0"/>
+      <c r="J20" s="0"/>
+      <c r="K20" s="0"/>
+      <c r="L20" s="0"/>
+      <c r="M20" s="0"/>
+      <c r="N20" s="0"/>
+      <c r="O20" s="0"/>
+      <c r="P20" s="0"/>
+      <c r="Q20" s="0"/>
+      <c r="R20" s="0"/>
+      <c r="S20" s="0"/>
+      <c r="T20" s="0"/>
+      <c r="U20" s="0"/>
+      <c r="V20" s="0"/>
+      <c r="W20" s="0"/>
+      <c r="X20" s="0"/>
+      <c r="Y20" s="0"/>
+      <c r="Z20" s="0"/>
+      <c r="AA20" s="0"/>
+      <c r="AB20" s="0"/>
+      <c r="AC20" s="0"/>
+      <c r="AD20" s="0"/>
+      <c r="AE20" s="0"/>
+      <c r="AF20" s="0"/>
+      <c r="AG20" s="0"/>
+      <c r="AH20" s="0"/>
+      <c r="AI20" s="0"/>
+      <c r="AJ20" s="0"/>
+      <c r="AK20" s="0"/>
+      <c r="AL20" s="0"/>
+      <c r="AM20" s="0"/>
+      <c r="AN20" s="0"/>
+      <c r="AO20" s="0"/>
+      <c r="AP20" s="0"/>
+      <c r="AQ20" s="0"/>
+      <c r="AR20" s="0"/>
+      <c r="AS20" s="0"/>
+      <c r="AT20" s="0"/>
+      <c r="AU20" s="0"/>
+      <c r="AV20" s="0"/>
+      <c r="AW20" s="0"/>
+      <c r="AX20" s="0"/>
+      <c r="AY20" s="0"/>
+      <c r="AZ20" s="0"/>
+      <c r="BA20" s="0"/>
+      <c r="BB20" s="0"/>
+      <c r="BC20" s="0"/>
+      <c r="BD20" s="0"/>
+      <c r="BE20" s="0"/>
+      <c r="BF20" s="0"/>
+      <c r="BG20" s="0"/>
+      <c r="BH20" s="0"/>
+      <c r="BI20" s="0"/>
+      <c r="BJ20" s="0"/>
+      <c r="BK20" s="0"/>
+      <c r="BL20" s="0"/>
+      <c r="BM20" s="0"/>
+      <c r="BN20" s="0"/>
+      <c r="BO20" s="0"/>
+      <c r="BP20" s="0"/>
+      <c r="BQ20" s="0"/>
+      <c r="BR20" s="0"/>
+      <c r="BS20" s="0"/>
+      <c r="BT20" s="0"/>
+      <c r="BU20" s="0"/>
+      <c r="BV20" s="0"/>
+      <c r="BW20" s="0"/>
+      <c r="BX20" s="0"/>
+      <c r="BY20" s="0"/>
+      <c r="BZ20" s="0"/>
+      <c r="CA20" s="0"/>
+      <c r="CB20" s="0"/>
+      <c r="CC20" s="0"/>
+      <c r="CD20" s="0"/>
+      <c r="CE20" s="0"/>
+      <c r="CF20" s="0"/>
+      <c r="CG20" s="0"/>
+      <c r="CH20" s="0"/>
+      <c r="CI20" s="0"/>
+      <c r="CJ20" s="0"/>
+      <c r="CK20" s="0"/>
+      <c r="CL20" s="0"/>
+      <c r="CM20" s="0"/>
+      <c r="CN20" s="0"/>
+      <c r="CO20" s="0"/>
+      <c r="CP20" s="0"/>
+      <c r="CQ20" s="0"/>
+      <c r="CR20" s="0"/>
+      <c r="CS20" s="0"/>
+      <c r="CT20" s="0"/>
+      <c r="CU20" s="0"/>
+      <c r="CV20" s="0"/>
+      <c r="CW20" s="0"/>
+      <c r="CX20" s="0"/>
+      <c r="CY20" s="0"/>
+      <c r="CZ20" s="0"/>
+      <c r="DA20" s="0"/>
+      <c r="DB20" s="0"/>
+      <c r="DC20" s="0"/>
+      <c r="DD20" s="0"/>
+      <c r="DE20" s="0"/>
+      <c r="DF20" s="0"/>
+      <c r="DG20" s="0"/>
+      <c r="DH20" s="0"/>
+      <c r="DI20" s="0"/>
+      <c r="DJ20" s="0"/>
+      <c r="DK20" s="0"/>
+      <c r="DL20" s="0"/>
+      <c r="DM20" s="0"/>
+      <c r="DN20" s="0"/>
+      <c r="DO20" s="0"/>
+      <c r="DP20" s="0"/>
+      <c r="DQ20" s="0"/>
+      <c r="DR20" s="0"/>
+      <c r="DS20" s="0"/>
+      <c r="DT20" s="0"/>
+      <c r="DU20" s="0"/>
+      <c r="DV20" s="0"/>
+      <c r="DW20" s="0"/>
+      <c r="DX20" s="0"/>
+      <c r="DY20" s="0"/>
+      <c r="DZ20" s="0"/>
+      <c r="EA20" s="0"/>
+      <c r="EB20" s="0"/>
+      <c r="EC20" s="0"/>
+      <c r="ED20" s="0"/>
+      <c r="EE20" s="0"/>
+      <c r="EF20" s="0"/>
+      <c r="EG20" s="0"/>
+      <c r="EH20" s="0"/>
+      <c r="EI20" s="0"/>
+      <c r="EJ20" s="0"/>
+      <c r="EK20" s="0"/>
+      <c r="EL20" s="0"/>
+      <c r="EM20" s="0"/>
+      <c r="EN20" s="0"/>
+      <c r="EO20" s="0"/>
+      <c r="EP20" s="0"/>
+      <c r="EQ20" s="0"/>
+      <c r="ER20" s="0"/>
+      <c r="ES20" s="0"/>
+      <c r="ET20" s="0"/>
+      <c r="EU20" s="0"/>
+      <c r="EV20" s="0"/>
+      <c r="EW20" s="0"/>
+      <c r="EX20" s="0"/>
+      <c r="EY20" s="0"/>
+      <c r="EZ20" s="0"/>
+      <c r="FA20" s="0"/>
+      <c r="FB20" s="0"/>
+      <c r="FC20" s="0"/>
+      <c r="FD20" s="0"/>
+      <c r="FE20" s="0"/>
+      <c r="FF20" s="0"/>
+      <c r="FG20" s="0"/>
+      <c r="FH20" s="0"/>
+      <c r="FI20" s="0"/>
+      <c r="FJ20" s="0"/>
+      <c r="FK20" s="0"/>
+      <c r="FL20" s="0"/>
+      <c r="FM20" s="0"/>
+      <c r="FN20" s="0"/>
+      <c r="FO20" s="0"/>
+      <c r="FP20" s="0"/>
+      <c r="FQ20" s="0"/>
+      <c r="FR20" s="0"/>
+      <c r="FS20" s="0"/>
+      <c r="FT20" s="0"/>
+      <c r="FU20" s="0"/>
+      <c r="FV20" s="0"/>
+      <c r="FW20" s="0"/>
+      <c r="FX20" s="0"/>
+      <c r="FY20" s="0"/>
+      <c r="FZ20" s="0"/>
+      <c r="GA20" s="0"/>
+      <c r="GB20" s="0"/>
+      <c r="GC20" s="0"/>
+      <c r="GD20" s="0"/>
+      <c r="GE20" s="0"/>
+      <c r="GF20" s="0"/>
+      <c r="GG20" s="0"/>
+      <c r="GH20" s="0"/>
+      <c r="GI20" s="0"/>
+      <c r="GJ20" s="0"/>
+      <c r="GK20" s="0"/>
+      <c r="GL20" s="0"/>
+      <c r="GM20" s="0"/>
+      <c r="GN20" s="0"/>
+      <c r="GO20" s="0"/>
+      <c r="GP20" s="0"/>
+      <c r="GQ20" s="0"/>
+      <c r="GR20" s="0"/>
+      <c r="GS20" s="0"/>
+      <c r="GT20" s="0"/>
+      <c r="GU20" s="0"/>
+      <c r="GV20" s="0"/>
+      <c r="GW20" s="0"/>
+      <c r="GX20" s="0"/>
+      <c r="GY20" s="0"/>
+      <c r="GZ20" s="0"/>
+      <c r="HA20" s="0"/>
+      <c r="HB20" s="0"/>
+      <c r="HC20" s="0"/>
+      <c r="HD20" s="0"/>
+      <c r="HE20" s="0"/>
+      <c r="HF20" s="0"/>
+      <c r="HG20" s="0"/>
+      <c r="HH20" s="0"/>
+      <c r="HI20" s="0"/>
+      <c r="HJ20" s="0"/>
+      <c r="HK20" s="0"/>
+      <c r="HL20" s="0"/>
+      <c r="HM20" s="0"/>
+      <c r="HN20" s="0"/>
+      <c r="HO20" s="0"/>
+      <c r="HP20" s="0"/>
+      <c r="HQ20" s="0"/>
+      <c r="HR20" s="0"/>
+      <c r="HS20" s="0"/>
+      <c r="HT20" s="0"/>
+      <c r="HU20" s="0"/>
+      <c r="HV20" s="0"/>
+      <c r="HW20" s="0"/>
+      <c r="HX20" s="0"/>
+      <c r="HY20" s="0"/>
+      <c r="HZ20" s="0"/>
+      <c r="IA20" s="0"/>
+      <c r="IB20" s="0"/>
+      <c r="IC20" s="0"/>
+      <c r="ID20" s="0"/>
+      <c r="IE20" s="0"/>
+      <c r="IF20" s="0"/>
+      <c r="IG20" s="0"/>
+      <c r="IH20" s="0"/>
+      <c r="II20" s="0"/>
+      <c r="IJ20" s="0"/>
+      <c r="IK20" s="0"/>
+      <c r="IL20" s="0"/>
+      <c r="IM20" s="0"/>
+      <c r="IN20" s="0"/>
+      <c r="IO20" s="0"/>
+      <c r="IP20" s="0"/>
+      <c r="IQ20" s="0"/>
+      <c r="IR20" s="0"/>
+      <c r="IS20" s="0"/>
+      <c r="IT20" s="0"/>
+      <c r="IU20" s="0"/>
+      <c r="IV20" s="0"/>
+      <c r="IW20" s="0"/>
+      <c r="IX20" s="0"/>
+      <c r="IY20" s="0"/>
+      <c r="IZ20" s="0"/>
+      <c r="JA20" s="0"/>
+      <c r="JB20" s="0"/>
+      <c r="JC20" s="0"/>
+      <c r="JD20" s="0"/>
+      <c r="JE20" s="0"/>
+      <c r="JF20" s="0"/>
+      <c r="JG20" s="0"/>
+      <c r="JH20" s="0"/>
+      <c r="JI20" s="0"/>
+      <c r="JJ20" s="0"/>
+      <c r="JK20" s="0"/>
+      <c r="JL20" s="0"/>
+      <c r="JM20" s="0"/>
+      <c r="JN20" s="0"/>
+      <c r="JO20" s="0"/>
+      <c r="JP20" s="0"/>
+      <c r="JQ20" s="0"/>
+      <c r="JR20" s="0"/>
+      <c r="JS20" s="0"/>
+      <c r="JT20" s="0"/>
+      <c r="JU20" s="0"/>
+      <c r="JV20" s="0"/>
+      <c r="JW20" s="0"/>
+      <c r="JX20" s="0"/>
+      <c r="JY20" s="0"/>
+      <c r="JZ20" s="0"/>
+      <c r="KA20" s="0"/>
+      <c r="KB20" s="0"/>
+      <c r="KC20" s="0"/>
+      <c r="KD20" s="0"/>
+      <c r="KE20" s="0"/>
+      <c r="KF20" s="0"/>
+      <c r="KG20" s="0"/>
+      <c r="KH20" s="0"/>
+      <c r="KI20" s="0"/>
+      <c r="KJ20" s="0"/>
+      <c r="KK20" s="0"/>
+      <c r="KL20" s="0"/>
+      <c r="KM20" s="0"/>
+      <c r="KN20" s="0"/>
+      <c r="KO20" s="0"/>
+      <c r="KP20" s="0"/>
+      <c r="KQ20" s="0"/>
+      <c r="KR20" s="0"/>
+      <c r="KS20" s="0"/>
+      <c r="KT20" s="0"/>
+      <c r="KU20" s="0"/>
+      <c r="KV20" s="0"/>
+      <c r="KW20" s="0"/>
+      <c r="KX20" s="0"/>
+      <c r="KY20" s="0"/>
+      <c r="KZ20" s="0"/>
+      <c r="LA20" s="0"/>
+      <c r="LB20" s="0"/>
+      <c r="LC20" s="0"/>
+      <c r="LD20" s="0"/>
+      <c r="LE20" s="0"/>
+      <c r="LF20" s="0"/>
+      <c r="LG20" s="0"/>
+      <c r="LH20" s="0"/>
+      <c r="LI20" s="0"/>
+      <c r="LJ20" s="0"/>
+      <c r="LK20" s="0"/>
+      <c r="LL20" s="0"/>
+      <c r="LM20" s="0"/>
+      <c r="LN20" s="0"/>
+      <c r="LO20" s="0"/>
+      <c r="LP20" s="0"/>
+      <c r="LQ20" s="0"/>
+      <c r="LR20" s="0"/>
+      <c r="LS20" s="0"/>
+      <c r="LT20" s="0"/>
+      <c r="LU20" s="0"/>
+      <c r="LV20" s="0"/>
+      <c r="LW20" s="0"/>
+      <c r="LX20" s="0"/>
+      <c r="LY20" s="0"/>
+      <c r="LZ20" s="0"/>
+      <c r="MA20" s="0"/>
+      <c r="MB20" s="0"/>
+      <c r="MC20" s="0"/>
+      <c r="MD20" s="0"/>
+      <c r="ME20" s="0"/>
+      <c r="MF20" s="0"/>
+      <c r="MG20" s="0"/>
+      <c r="MH20" s="0"/>
+      <c r="MI20" s="0"/>
+      <c r="MJ20" s="0"/>
+      <c r="MK20" s="0"/>
+      <c r="ML20" s="0"/>
+      <c r="MM20" s="0"/>
+      <c r="MN20" s="0"/>
+      <c r="MO20" s="0"/>
+      <c r="MP20" s="0"/>
+      <c r="MQ20" s="0"/>
+      <c r="MR20" s="0"/>
+      <c r="MS20" s="0"/>
+      <c r="MT20" s="0"/>
+      <c r="MU20" s="0"/>
+      <c r="MV20" s="0"/>
+      <c r="MW20" s="0"/>
+      <c r="MX20" s="0"/>
+      <c r="MY20" s="0"/>
+      <c r="MZ20" s="0"/>
+      <c r="NA20" s="0"/>
+      <c r="NB20" s="0"/>
+      <c r="NC20" s="0"/>
+      <c r="ND20" s="0"/>
+      <c r="NE20" s="0"/>
+      <c r="NF20" s="0"/>
+      <c r="NG20" s="0"/>
+      <c r="NH20" s="0"/>
+      <c r="NI20" s="0"/>
+      <c r="NJ20" s="0"/>
+      <c r="NK20" s="0"/>
+      <c r="NL20" s="0"/>
+      <c r="NM20" s="0"/>
+      <c r="NN20" s="0"/>
+      <c r="NO20" s="0"/>
+      <c r="NP20" s="0"/>
+      <c r="NQ20" s="0"/>
+      <c r="NR20" s="0"/>
+      <c r="NS20" s="0"/>
+      <c r="NT20" s="0"/>
+      <c r="NU20" s="0"/>
+      <c r="NV20" s="0"/>
+      <c r="NW20" s="0"/>
+      <c r="NX20" s="0"/>
+      <c r="NY20" s="0"/>
+      <c r="NZ20" s="0"/>
+      <c r="OA20" s="0"/>
+      <c r="OB20" s="0"/>
+      <c r="OC20" s="0"/>
+      <c r="OD20" s="0"/>
+      <c r="OE20" s="0"/>
+      <c r="OF20" s="0"/>
+      <c r="OG20" s="0"/>
+      <c r="OH20" s="0"/>
+      <c r="OI20" s="0"/>
+      <c r="OJ20" s="0"/>
+      <c r="OK20" s="0"/>
+      <c r="OL20" s="0"/>
+      <c r="OM20" s="0"/>
+      <c r="ON20" s="0"/>
+      <c r="OO20" s="0"/>
+      <c r="OP20" s="0"/>
+      <c r="OQ20" s="0"/>
+      <c r="OR20" s="0"/>
+      <c r="OS20" s="0"/>
+      <c r="OT20" s="0"/>
+      <c r="OU20" s="0"/>
+      <c r="OV20" s="0"/>
+      <c r="OW20" s="0"/>
+      <c r="OX20" s="0"/>
+      <c r="OY20" s="0"/>
+      <c r="OZ20" s="0"/>
+      <c r="PA20" s="0"/>
+      <c r="PB20" s="0"/>
+      <c r="PC20" s="0"/>
+      <c r="PD20" s="0"/>
+      <c r="PE20" s="0"/>
+      <c r="PF20" s="0"/>
+      <c r="PG20" s="0"/>
+      <c r="PH20" s="0"/>
+      <c r="PI20" s="0"/>
+      <c r="PJ20" s="0"/>
+      <c r="PK20" s="0"/>
+      <c r="PL20" s="0"/>
+      <c r="PM20" s="0"/>
+      <c r="PN20" s="0"/>
+      <c r="PO20" s="0"/>
+      <c r="PP20" s="0"/>
+      <c r="PQ20" s="0"/>
+      <c r="PR20" s="0"/>
+      <c r="PS20" s="0"/>
+      <c r="PT20" s="0"/>
+      <c r="PU20" s="0"/>
+      <c r="PV20" s="0"/>
+      <c r="PW20" s="0"/>
+      <c r="PX20" s="0"/>
+      <c r="PY20" s="0"/>
+      <c r="PZ20" s="0"/>
+      <c r="QA20" s="0"/>
+      <c r="QB20" s="0"/>
+      <c r="QC20" s="0"/>
+      <c r="QD20" s="0"/>
+      <c r="QE20" s="0"/>
+      <c r="QF20" s="0"/>
+      <c r="QG20" s="0"/>
+      <c r="QH20" s="0"/>
+      <c r="QI20" s="0"/>
+      <c r="QJ20" s="0"/>
+      <c r="QK20" s="0"/>
+      <c r="QL20" s="0"/>
+      <c r="QM20" s="0"/>
+      <c r="QN20" s="0"/>
+      <c r="QO20" s="0"/>
+      <c r="QP20" s="0"/>
+      <c r="QQ20" s="0"/>
+      <c r="QR20" s="0"/>
+      <c r="QS20" s="0"/>
+      <c r="QT20" s="0"/>
+      <c r="QU20" s="0"/>
+      <c r="QV20" s="0"/>
+      <c r="QW20" s="0"/>
+      <c r="QX20" s="0"/>
+      <c r="QY20" s="0"/>
+      <c r="QZ20" s="0"/>
+      <c r="RA20" s="0"/>
+      <c r="RB20" s="0"/>
+      <c r="RC20" s="0"/>
+      <c r="RD20" s="0"/>
+      <c r="RE20" s="0"/>
+      <c r="RF20" s="0"/>
+      <c r="RG20" s="0"/>
+      <c r="RH20" s="0"/>
+      <c r="RI20" s="0"/>
+      <c r="RJ20" s="0"/>
+      <c r="RK20" s="0"/>
+      <c r="RL20" s="0"/>
+      <c r="RM20" s="0"/>
+      <c r="RN20" s="0"/>
+      <c r="RO20" s="0"/>
+      <c r="RP20" s="0"/>
+      <c r="RQ20" s="0"/>
+      <c r="RR20" s="0"/>
+      <c r="RS20" s="0"/>
+      <c r="RT20" s="0"/>
+      <c r="RU20" s="0"/>
+      <c r="RV20" s="0"/>
+      <c r="RW20" s="0"/>
+      <c r="RX20" s="0"/>
+      <c r="RY20" s="0"/>
+      <c r="RZ20" s="0"/>
+      <c r="SA20" s="0"/>
+      <c r="SB20" s="0"/>
+      <c r="SC20" s="0"/>
+      <c r="SD20" s="0"/>
+      <c r="SE20" s="0"/>
+      <c r="SF20" s="0"/>
+      <c r="SG20" s="0"/>
+      <c r="SH20" s="0"/>
+      <c r="SI20" s="0"/>
+      <c r="SJ20" s="0"/>
+      <c r="SK20" s="0"/>
+      <c r="SL20" s="0"/>
+      <c r="SM20" s="0"/>
+      <c r="SN20" s="0"/>
+      <c r="SO20" s="0"/>
+      <c r="SP20" s="0"/>
+      <c r="SQ20" s="0"/>
+      <c r="SR20" s="0"/>
+      <c r="SS20" s="0"/>
+      <c r="ST20" s="0"/>
+      <c r="SU20" s="0"/>
+      <c r="SV20" s="0"/>
+      <c r="SW20" s="0"/>
+      <c r="SX20" s="0"/>
+      <c r="SY20" s="0"/>
+      <c r="SZ20" s="0"/>
+      <c r="TA20" s="0"/>
+      <c r="TB20" s="0"/>
+      <c r="TC20" s="0"/>
+      <c r="TD20" s="0"/>
+      <c r="TE20" s="0"/>
+      <c r="TF20" s="0"/>
+      <c r="TG20" s="0"/>
+      <c r="TH20" s="0"/>
+      <c r="TI20" s="0"/>
+      <c r="TJ20" s="0"/>
+      <c r="TK20" s="0"/>
+      <c r="TL20" s="0"/>
+      <c r="TM20" s="0"/>
+      <c r="TN20" s="0"/>
+      <c r="TO20" s="0"/>
+      <c r="TP20" s="0"/>
+      <c r="TQ20" s="0"/>
+      <c r="TR20" s="0"/>
+      <c r="TS20" s="0"/>
+      <c r="TT20" s="0"/>
+      <c r="TU20" s="0"/>
+      <c r="TV20" s="0"/>
+      <c r="TW20" s="0"/>
+      <c r="TX20" s="0"/>
+      <c r="TY20" s="0"/>
+      <c r="TZ20" s="0"/>
+      <c r="UA20" s="0"/>
+      <c r="UB20" s="0"/>
+      <c r="UC20" s="0"/>
+      <c r="UD20" s="0"/>
+      <c r="UE20" s="0"/>
+      <c r="UF20" s="0"/>
+      <c r="UG20" s="0"/>
+      <c r="UH20" s="0"/>
+      <c r="UI20" s="0"/>
+      <c r="UJ20" s="0"/>
+      <c r="UK20" s="0"/>
+      <c r="UL20" s="0"/>
+      <c r="UM20" s="0"/>
+      <c r="UN20" s="0"/>
+      <c r="UO20" s="0"/>
+      <c r="UP20" s="0"/>
+      <c r="UQ20" s="0"/>
+      <c r="UR20" s="0"/>
+      <c r="US20" s="0"/>
+      <c r="UT20" s="0"/>
+      <c r="UU20" s="0"/>
+      <c r="UV20" s="0"/>
+      <c r="UW20" s="0"/>
+      <c r="UX20" s="0"/>
+      <c r="UY20" s="0"/>
+      <c r="UZ20" s="0"/>
+      <c r="VA20" s="0"/>
+      <c r="VB20" s="0"/>
+      <c r="VC20" s="0"/>
+      <c r="VD20" s="0"/>
+      <c r="VE20" s="0"/>
+      <c r="VF20" s="0"/>
+      <c r="VG20" s="0"/>
+      <c r="VH20" s="0"/>
+      <c r="VI20" s="0"/>
+      <c r="VJ20" s="0"/>
+      <c r="VK20" s="0"/>
+      <c r="VL20" s="0"/>
+      <c r="VM20" s="0"/>
+      <c r="VN20" s="0"/>
+      <c r="VO20" s="0"/>
+      <c r="VP20" s="0"/>
+      <c r="VQ20" s="0"/>
+      <c r="VR20" s="0"/>
+      <c r="VS20" s="0"/>
+      <c r="VT20" s="0"/>
+      <c r="VU20" s="0"/>
+      <c r="VV20" s="0"/>
+      <c r="VW20" s="0"/>
+      <c r="VX20" s="0"/>
+      <c r="VY20" s="0"/>
+      <c r="VZ20" s="0"/>
+      <c r="WA20" s="0"/>
+      <c r="WB20" s="0"/>
+      <c r="WC20" s="0"/>
+      <c r="WD20" s="0"/>
+      <c r="WE20" s="0"/>
+      <c r="WF20" s="0"/>
+      <c r="WG20" s="0"/>
+      <c r="WH20" s="0"/>
+      <c r="WI20" s="0"/>
+      <c r="WJ20" s="0"/>
+      <c r="WK20" s="0"/>
+      <c r="WL20" s="0"/>
+      <c r="WM20" s="0"/>
+      <c r="WN20" s="0"/>
+      <c r="WO20" s="0"/>
+      <c r="WP20" s="0"/>
+      <c r="WQ20" s="0"/>
+      <c r="WR20" s="0"/>
+      <c r="WS20" s="0"/>
+      <c r="WT20" s="0"/>
+      <c r="WU20" s="0"/>
+      <c r="WV20" s="0"/>
+      <c r="WW20" s="0"/>
+      <c r="WX20" s="0"/>
+      <c r="WY20" s="0"/>
+      <c r="WZ20" s="0"/>
+      <c r="XA20" s="0"/>
+      <c r="XB20" s="0"/>
+      <c r="XC20" s="0"/>
+      <c r="XD20" s="0"/>
+      <c r="XE20" s="0"/>
+      <c r="XF20" s="0"/>
+      <c r="XG20" s="0"/>
+      <c r="XH20" s="0"/>
+      <c r="XI20" s="0"/>
+      <c r="XJ20" s="0"/>
+      <c r="XK20" s="0"/>
+      <c r="XL20" s="0"/>
+      <c r="XM20" s="0"/>
+      <c r="XN20" s="0"/>
+      <c r="XO20" s="0"/>
+      <c r="XP20" s="0"/>
+      <c r="XQ20" s="0"/>
+      <c r="XR20" s="0"/>
+      <c r="XS20" s="0"/>
+      <c r="XT20" s="0"/>
+      <c r="XU20" s="0"/>
+      <c r="XV20" s="0"/>
+      <c r="XW20" s="0"/>
+      <c r="XX20" s="0"/>
+      <c r="XY20" s="0"/>
+      <c r="XZ20" s="0"/>
+      <c r="YA20" s="0"/>
+      <c r="YB20" s="0"/>
+      <c r="YC20" s="0"/>
+      <c r="YD20" s="0"/>
+      <c r="YE20" s="0"/>
+      <c r="YF20" s="0"/>
+      <c r="YG20" s="0"/>
+      <c r="YH20" s="0"/>
+      <c r="YI20" s="0"/>
+      <c r="YJ20" s="0"/>
+      <c r="YK20" s="0"/>
+      <c r="YL20" s="0"/>
+      <c r="YM20" s="0"/>
+      <c r="YN20" s="0"/>
+      <c r="YO20" s="0"/>
+      <c r="YP20" s="0"/>
+      <c r="YQ20" s="0"/>
+      <c r="YR20" s="0"/>
+      <c r="YS20" s="0"/>
+      <c r="YT20" s="0"/>
+      <c r="YU20" s="0"/>
+      <c r="YV20" s="0"/>
+      <c r="YW20" s="0"/>
+      <c r="YX20" s="0"/>
+      <c r="YY20" s="0"/>
+      <c r="YZ20" s="0"/>
+      <c r="ZA20" s="0"/>
+      <c r="ZB20" s="0"/>
+      <c r="ZC20" s="0"/>
+      <c r="ZD20" s="0"/>
+      <c r="ZE20" s="0"/>
+      <c r="ZF20" s="0"/>
+      <c r="ZG20" s="0"/>
+      <c r="ZH20" s="0"/>
+      <c r="ZI20" s="0"/>
+      <c r="ZJ20" s="0"/>
+      <c r="ZK20" s="0"/>
+      <c r="ZL20" s="0"/>
+      <c r="ZM20" s="0"/>
+      <c r="ZN20" s="0"/>
+      <c r="ZO20" s="0"/>
+      <c r="ZP20" s="0"/>
+      <c r="ZQ20" s="0"/>
+      <c r="ZR20" s="0"/>
+      <c r="ZS20" s="0"/>
+      <c r="ZT20" s="0"/>
+      <c r="ZU20" s="0"/>
+      <c r="ZV20" s="0"/>
+      <c r="ZW20" s="0"/>
+      <c r="ZX20" s="0"/>
+      <c r="ZY20" s="0"/>
+      <c r="ZZ20" s="0"/>
+      <c r="AAA20" s="0"/>
+      <c r="AAB20" s="0"/>
+      <c r="AAC20" s="0"/>
+      <c r="AAD20" s="0"/>
+      <c r="AAE20" s="0"/>
+      <c r="AAF20" s="0"/>
+      <c r="AAG20" s="0"/>
+      <c r="AAH20" s="0"/>
+      <c r="AAI20" s="0"/>
+      <c r="AAJ20" s="0"/>
+      <c r="AAK20" s="0"/>
+      <c r="AAL20" s="0"/>
+      <c r="AAM20" s="0"/>
+      <c r="AAN20" s="0"/>
+      <c r="AAO20" s="0"/>
+      <c r="AAP20" s="0"/>
+      <c r="AAQ20" s="0"/>
+      <c r="AAR20" s="0"/>
+      <c r="AAS20" s="0"/>
+      <c r="AAT20" s="0"/>
+      <c r="AAU20" s="0"/>
+      <c r="AAV20" s="0"/>
+      <c r="AAW20" s="0"/>
+      <c r="AAX20" s="0"/>
+      <c r="AAY20" s="0"/>
+      <c r="AAZ20" s="0"/>
+      <c r="ABA20" s="0"/>
+      <c r="ABB20" s="0"/>
+      <c r="ABC20" s="0"/>
+      <c r="ABD20" s="0"/>
+      <c r="ABE20" s="0"/>
+      <c r="ABF20" s="0"/>
+      <c r="ABG20" s="0"/>
+      <c r="ABH20" s="0"/>
+      <c r="ABI20" s="0"/>
+      <c r="ABJ20" s="0"/>
+      <c r="ABK20" s="0"/>
+      <c r="ABL20" s="0"/>
+      <c r="ABM20" s="0"/>
+      <c r="ABN20" s="0"/>
+      <c r="ABO20" s="0"/>
+      <c r="ABP20" s="0"/>
+      <c r="ABQ20" s="0"/>
+      <c r="ABR20" s="0"/>
+      <c r="ABS20" s="0"/>
+      <c r="ABT20" s="0"/>
+      <c r="ABU20" s="0"/>
+      <c r="ABV20" s="0"/>
+      <c r="ABW20" s="0"/>
+      <c r="ABX20" s="0"/>
+      <c r="ABY20" s="0"/>
+      <c r="ABZ20" s="0"/>
+      <c r="ACA20" s="0"/>
+      <c r="ACB20" s="0"/>
+      <c r="ACC20" s="0"/>
+      <c r="ACD20" s="0"/>
+      <c r="ACE20" s="0"/>
+      <c r="ACF20" s="0"/>
+      <c r="ACG20" s="0"/>
+      <c r="ACH20" s="0"/>
+      <c r="ACI20" s="0"/>
+      <c r="ACJ20" s="0"/>
+      <c r="ACK20" s="0"/>
+      <c r="ACL20" s="0"/>
+      <c r="ACM20" s="0"/>
+      <c r="ACN20" s="0"/>
+      <c r="ACO20" s="0"/>
+      <c r="ACP20" s="0"/>
+      <c r="ACQ20" s="0"/>
+      <c r="ACR20" s="0"/>
+      <c r="ACS20" s="0"/>
+      <c r="ACT20" s="0"/>
+      <c r="ACU20" s="0"/>
+      <c r="ACV20" s="0"/>
+      <c r="ACW20" s="0"/>
+      <c r="ACX20" s="0"/>
+      <c r="ACY20" s="0"/>
+      <c r="ACZ20" s="0"/>
+      <c r="ADA20" s="0"/>
+      <c r="ADB20" s="0"/>
+      <c r="ADC20" s="0"/>
+      <c r="ADD20" s="0"/>
+      <c r="ADE20" s="0"/>
+      <c r="ADF20" s="0"/>
+      <c r="ADG20" s="0"/>
+      <c r="ADH20" s="0"/>
+      <c r="ADI20" s="0"/>
+      <c r="ADJ20" s="0"/>
+      <c r="ADK20" s="0"/>
+      <c r="ADL20" s="0"/>
+      <c r="ADM20" s="0"/>
+      <c r="ADN20" s="0"/>
+      <c r="ADO20" s="0"/>
+      <c r="ADP20" s="0"/>
+      <c r="ADQ20" s="0"/>
+      <c r="ADR20" s="0"/>
+      <c r="ADS20" s="0"/>
+      <c r="ADT20" s="0"/>
+      <c r="ADU20" s="0"/>
+      <c r="ADV20" s="0"/>
+      <c r="ADW20" s="0"/>
+      <c r="ADX20" s="0"/>
+      <c r="ADY20" s="0"/>
+      <c r="ADZ20" s="0"/>
+      <c r="AEA20" s="0"/>
+      <c r="AEB20" s="0"/>
+      <c r="AEC20" s="0"/>
+      <c r="AED20" s="0"/>
+      <c r="AEE20" s="0"/>
+      <c r="AEF20" s="0"/>
+      <c r="AEG20" s="0"/>
+      <c r="AEH20" s="0"/>
+      <c r="AEI20" s="0"/>
+      <c r="AEJ20" s="0"/>
+      <c r="AEK20" s="0"/>
+      <c r="AEL20" s="0"/>
+      <c r="AEM20" s="0"/>
+      <c r="AEN20" s="0"/>
+      <c r="AEO20" s="0"/>
+      <c r="AEP20" s="0"/>
+      <c r="AEQ20" s="0"/>
+      <c r="AER20" s="0"/>
+      <c r="AES20" s="0"/>
+      <c r="AET20" s="0"/>
+      <c r="AEU20" s="0"/>
+      <c r="AEV20" s="0"/>
+      <c r="AEW20" s="0"/>
+      <c r="AEX20" s="0"/>
+      <c r="AEY20" s="0"/>
+      <c r="AEZ20" s="0"/>
+      <c r="AFA20" s="0"/>
+      <c r="AFB20" s="0"/>
+      <c r="AFC20" s="0"/>
+      <c r="AFD20" s="0"/>
+      <c r="AFE20" s="0"/>
+      <c r="AFF20" s="0"/>
+      <c r="AFG20" s="0"/>
+      <c r="AFH20" s="0"/>
+      <c r="AFI20" s="0"/>
+      <c r="AFJ20" s="0"/>
+      <c r="AFK20" s="0"/>
+      <c r="AFL20" s="0"/>
+      <c r="AFM20" s="0"/>
+      <c r="AFN20" s="0"/>
+      <c r="AFO20" s="0"/>
+      <c r="AFP20" s="0"/>
+      <c r="AFQ20" s="0"/>
+      <c r="AFR20" s="0"/>
+      <c r="AFS20" s="0"/>
+      <c r="AFT20" s="0"/>
+      <c r="AFU20" s="0"/>
+      <c r="AFV20" s="0"/>
+      <c r="AFW20" s="0"/>
+      <c r="AFX20" s="0"/>
+      <c r="AFY20" s="0"/>
+      <c r="AFZ20" s="0"/>
+      <c r="AGA20" s="0"/>
+      <c r="AGB20" s="0"/>
+      <c r="AGC20" s="0"/>
+      <c r="AGD20" s="0"/>
+      <c r="AGE20" s="0"/>
+      <c r="AGF20" s="0"/>
+      <c r="AGG20" s="0"/>
+      <c r="AGH20" s="0"/>
+      <c r="AGI20" s="0"/>
+      <c r="AGJ20" s="0"/>
+      <c r="AGK20" s="0"/>
+      <c r="AGL20" s="0"/>
+      <c r="AGM20" s="0"/>
+      <c r="AGN20" s="0"/>
+      <c r="AGO20" s="0"/>
+      <c r="AGP20" s="0"/>
+      <c r="AGQ20" s="0"/>
+      <c r="AGR20" s="0"/>
+      <c r="AGS20" s="0"/>
+      <c r="AGT20" s="0"/>
+      <c r="AGU20" s="0"/>
+      <c r="AGV20" s="0"/>
+      <c r="AGW20" s="0"/>
+      <c r="AGX20" s="0"/>
+      <c r="AGY20" s="0"/>
+      <c r="AGZ20" s="0"/>
+      <c r="AHA20" s="0"/>
+      <c r="AHB20" s="0"/>
+      <c r="AHC20" s="0"/>
+      <c r="AHD20" s="0"/>
+      <c r="AHE20" s="0"/>
+      <c r="AHF20" s="0"/>
+      <c r="AHG20" s="0"/>
+      <c r="AHH20" s="0"/>
+      <c r="AHI20" s="0"/>
+      <c r="AHJ20" s="0"/>
+      <c r="AHK20" s="0"/>
+      <c r="AHL20" s="0"/>
+      <c r="AHM20" s="0"/>
+      <c r="AHN20" s="0"/>
+      <c r="AHO20" s="0"/>
+      <c r="AHP20" s="0"/>
+      <c r="AHQ20" s="0"/>
+      <c r="AHR20" s="0"/>
+      <c r="AHS20" s="0"/>
+      <c r="AHT20" s="0"/>
+      <c r="AHU20" s="0"/>
+      <c r="AHV20" s="0"/>
+      <c r="AHW20" s="0"/>
+      <c r="AHX20" s="0"/>
+      <c r="AHY20" s="0"/>
+      <c r="AHZ20" s="0"/>
+      <c r="AIA20" s="0"/>
+      <c r="AIB20" s="0"/>
+      <c r="AIC20" s="0"/>
+      <c r="AID20" s="0"/>
+      <c r="AIE20" s="0"/>
+      <c r="AIF20" s="0"/>
+      <c r="AIG20" s="0"/>
+      <c r="AIH20" s="0"/>
+      <c r="AII20" s="0"/>
+      <c r="AIJ20" s="0"/>
+      <c r="AIK20" s="0"/>
+      <c r="AIL20" s="0"/>
+      <c r="AIM20" s="0"/>
+      <c r="AIN20" s="0"/>
+      <c r="AIO20" s="0"/>
+      <c r="AIP20" s="0"/>
+      <c r="AIQ20" s="0"/>
+      <c r="AIR20" s="0"/>
+      <c r="AIS20" s="0"/>
+      <c r="AIT20" s="0"/>
+      <c r="AIU20" s="0"/>
+      <c r="AIV20" s="0"/>
+      <c r="AIW20" s="0"/>
+      <c r="AIX20" s="0"/>
+      <c r="AIY20" s="0"/>
+      <c r="AIZ20" s="0"/>
+      <c r="AJA20" s="0"/>
+      <c r="AJB20" s="0"/>
+      <c r="AJC20" s="0"/>
+      <c r="AJD20" s="0"/>
+      <c r="AJE20" s="0"/>
+      <c r="AJF20" s="0"/>
+      <c r="AJG20" s="0"/>
+      <c r="AJH20" s="0"/>
+      <c r="AJI20" s="0"/>
+      <c r="AJJ20" s="0"/>
+      <c r="AJK20" s="0"/>
+      <c r="AJL20" s="0"/>
+      <c r="AJM20" s="0"/>
+      <c r="AJN20" s="0"/>
+      <c r="AJO20" s="0"/>
+      <c r="AJP20" s="0"/>
+      <c r="AJQ20" s="0"/>
+      <c r="AJR20" s="0"/>
+      <c r="AJS20" s="0"/>
+      <c r="AJT20" s="0"/>
+      <c r="AJU20" s="0"/>
+      <c r="AJV20" s="0"/>
+      <c r="AJW20" s="0"/>
+      <c r="AJX20" s="0"/>
+      <c r="AJY20" s="0"/>
+      <c r="AJZ20" s="0"/>
+      <c r="AKA20" s="0"/>
+      <c r="AKB20" s="0"/>
+      <c r="AKC20" s="0"/>
+      <c r="AKD20" s="0"/>
+      <c r="AKE20" s="0"/>
+      <c r="AKF20" s="0"/>
+      <c r="AKG20" s="0"/>
+      <c r="AKH20" s="0"/>
+      <c r="AKI20" s="0"/>
+      <c r="AKJ20" s="0"/>
+      <c r="AKK20" s="0"/>
+      <c r="AKL20" s="0"/>
+      <c r="AKM20" s="0"/>
+      <c r="AKN20" s="0"/>
+      <c r="AKO20" s="0"/>
+      <c r="AKP20" s="0"/>
+      <c r="AKQ20" s="0"/>
+      <c r="AKR20" s="0"/>
+      <c r="AKS20" s="0"/>
+      <c r="AKT20" s="0"/>
+      <c r="AKU20" s="0"/>
+      <c r="AKV20" s="0"/>
+      <c r="AKW20" s="0"/>
+      <c r="AKX20" s="0"/>
+      <c r="AKY20" s="0"/>
+      <c r="AKZ20" s="0"/>
+      <c r="ALA20" s="0"/>
+      <c r="ALB20" s="0"/>
+      <c r="ALC20" s="0"/>
+      <c r="ALD20" s="0"/>
+      <c r="ALE20" s="0"/>
+      <c r="ALF20" s="0"/>
+      <c r="ALG20" s="0"/>
+      <c r="ALH20" s="0"/>
+      <c r="ALI20" s="0"/>
+      <c r="ALJ20" s="0"/>
+      <c r="ALK20" s="0"/>
+      <c r="ALL20" s="0"/>
+      <c r="ALM20" s="0"/>
+      <c r="ALN20" s="0"/>
+      <c r="ALO20" s="0"/>
+      <c r="ALP20" s="0"/>
+      <c r="ALQ20" s="0"/>
+      <c r="ALR20" s="0"/>
+      <c r="ALS20" s="0"/>
+      <c r="ALT20" s="0"/>
+      <c r="ALU20" s="0"/>
+      <c r="ALV20" s="0"/>
+      <c r="ALW20" s="0"/>
+      <c r="ALX20" s="0"/>
+      <c r="ALY20" s="0"/>
+      <c r="ALZ20" s="0"/>
+      <c r="AMA20" s="0"/>
+      <c r="AMB20" s="0"/>
+      <c r="AMC20" s="0"/>
+      <c r="AMD20" s="0"/>
+      <c r="AME20" s="0"/>
+      <c r="AMF20" s="0"/>
+      <c r="AMG20" s="0"/>
+      <c r="AMH20" s="0"/>
+      <c r="AMI20" s="0"/>
+      <c r="AMJ20" s="0"/>
+    </row>
+    <row r="21" s="106" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="105" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="65" t="s">
+      <c r="B21" s="100" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="27" t="n">
+      <c r="C21" s="104" t="n">
         <v>6192408100810</v>
       </c>
-      <c r="D20" s="56" t="s">
+      <c r="D21" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="E20" s="101" t="s">
+      <c r="E21" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="F20" s="102" t="n">
+      <c r="F21" s="103" t="n">
         <v>9</v>
       </c>
-      <c r="G20" s="102" t="n">
-        <v>9</v>
+      <c r="G21" s="103" t="n">
+        <v>0</v>
       </c>
     </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="F1:G1"/>

--- a/Projects/SANOFITN/Data/Template.xlsx
+++ b/Projects/SANOFITN/Data/Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -609,7 +609,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="83">
   <si>
     <t xml:space="preserve">KPI Name</t>
   </si>
@@ -738,15 +738,6 @@
   </si>
   <si>
     <t xml:space="preserve">Doliprane 1gr cpr (8)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Doliprane 300 mg  SA (12)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Doliprane gellules (16)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Doliprane  pro 325mg/37.5 cpr (20)</t>
   </si>
   <si>
     <t xml:space="preserve">Doliprex sachets (8)</t>
@@ -887,7 +878,7 @@
     <numFmt numFmtId="166" formatCode="0.00"/>
     <numFmt numFmtId="167" formatCode="0"/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="36">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -957,10 +948,22 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="177"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -971,8 +974,22 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -1006,12 +1023,6 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Calibri"/>
@@ -1037,12 +1048,6 @@
       <b val="true"/>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -1078,20 +1083,14 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
@@ -1410,195 +1409,207 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="21" fillId="6" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="23" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="25" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="9" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="9" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="26" fillId="6" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="18" fillId="6" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="26" fillId="6" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="27" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="20" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="28" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="21" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="9" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="9" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="24" fillId="6" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="24" fillId="6" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="25" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="26" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="27" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="27" fillId="11" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="11" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="28" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1606,83 +1617,83 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="27" fillId="11" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="29" fillId="11" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="27" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="29" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="27" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="29" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="27" fillId="9" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="29" fillId="9" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="27" fillId="9" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="29" fillId="9" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="27" fillId="11" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="29" fillId="11" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="29" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="29" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="27" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="29" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="27" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="29" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="27" fillId="11" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="29" fillId="11" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="29" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="29" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="27" fillId="9" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="29" fillId="9" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="27" fillId="9" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="29" fillId="9" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="27" fillId="11" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="11" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1690,63 +1701,51 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="27" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="31" fillId="6" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="32" fillId="6" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="32" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="33" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="33" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="34" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="34" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="35" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="9" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="9" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="34" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="35" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1830,20 +1829,20 @@
   </sheetPr>
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.4008097165992"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.7085020242915"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.2186234817814"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.4655870445344"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.4251012145749"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.0769230769231"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="25.0931174089069"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="9.30364372469636"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.8947368421053"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.3238866396761"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.9514170040486"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.668016194332"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.4453441295547"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="9.4251012145749"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2098,22 +2097,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D40" activeCellId="0" sqref="D40"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="12.85"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="25.4655870445344"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="43.7044534412956"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="14" width="22.4008097165992"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="18.1174089068826"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="13" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="18.1174089068826"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="13" width="16.7732793522267"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="15" width="9.06072874493927"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="26.080971659919"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="44.8056680161943"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="14" width="22.8947368421053"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="13" width="18.4898785425101"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="13" width="14.0769230769231"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="13" width="18.4898785425101"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="13" width="17.1376518218624"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="15" width="9.18218623481781"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2157,19 +2156,19 @@
       <c r="B3" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="14" t="n">
+      <c r="C3" s="24" t="n">
         <v>9103482</v>
       </c>
       <c r="D3" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="25" t="n">
+      <c r="F3" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="G3" s="26" t="n">
+      <c r="G3" s="27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2180,19 +2179,19 @@
       <c r="B4" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="14" t="n">
+      <c r="C4" s="24" t="n">
         <v>9103489</v>
       </c>
       <c r="D4" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="25" t="n">
+      <c r="F4" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="G4" s="26" t="n">
+      <c r="G4" s="27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2203,19 +2202,19 @@
       <c r="B5" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="27" t="n">
+      <c r="C5" s="28" t="n">
         <v>6192408100469</v>
       </c>
       <c r="D5" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="25" t="n">
+      <c r="F5" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="G5" s="26" t="n">
+      <c r="G5" s="27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2226,19 +2225,19 @@
       <c r="B6" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="27" t="n">
+      <c r="C6" s="28" t="n">
         <v>6192408100810</v>
       </c>
       <c r="D6" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="25" t="n">
+      <c r="F6" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="G6" s="26" t="n">
+      <c r="G6" s="27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2249,20 +2248,20 @@
       <c r="B7" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="28" t="n">
-        <v>6192408100407</v>
+      <c r="C7" s="29" t="n">
+        <v>6192408100353</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="26" t="n">
-        <v>0</v>
+        <v>44</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="27" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2270,44 +2269,44 @@
         <v>23</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C8" s="28" t="n">
-        <v>9103481</v>
+        <v>6192408100032</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" s="26" t="n">
-        <v>0</v>
+      <c r="F8" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="27" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="28" t="n">
-        <v>6192408101169</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="24" t="s">
+      <c r="B9" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="31" t="n">
+        <v>6192408101886</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="25" t="n">
+      <c r="F9" s="33" t="n">
         <v>0</v>
       </c>
-      <c r="G9" s="26" t="n">
+      <c r="G9" s="34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2316,21 +2315,21 @@
         <v>23</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="29" t="n">
-        <v>6192408100353</v>
+        <v>49</v>
+      </c>
+      <c r="C10" s="28" t="n">
+        <v>6192408101893</v>
       </c>
       <c r="D10" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" s="25" t="n">
+      <c r="E10" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="G10" s="26" t="n">
+      <c r="G10" s="27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2339,21 +2338,21 @@
         <v>23</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="27" t="n">
-        <v>6192408100032</v>
+        <v>50</v>
+      </c>
+      <c r="C11" s="28" t="n">
+        <v>6192408101909</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="F11" s="25" t="n">
+      <c r="F11" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="G11" s="26" t="n">
+      <c r="G11" s="27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2364,20 +2363,20 @@
       <c r="B12" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="27" t="n">
-        <v>6192408101886</v>
+      <c r="C12" s="28" t="n">
+        <v>6192408100155</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="F12" s="25" t="n">
+        <v>52</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="G12" s="26" t="n">
-        <v>1</v>
+      <c r="G12" s="27" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2385,21 +2384,21 @@
         <v>23</v>
       </c>
       <c r="B13" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="28" t="n">
+        <v>6192408100308</v>
+      </c>
+      <c r="D13" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="27" t="n">
-        <v>6192408101893</v>
-      </c>
-      <c r="D13" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="E13" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="F13" s="25" t="n">
+      <c r="E13" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="G13" s="26" t="n">
+      <c r="G13" s="27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2407,46 +2406,46 @@
       <c r="A14" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" s="27" t="n">
-        <v>6192408101909</v>
-      </c>
-      <c r="D14" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="E14" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="F14" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="G14" s="26" t="n">
-        <v>1</v>
+      <c r="B14" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="31" t="n">
+        <v>6192408100179</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="34" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="27" t="n">
-        <v>6192408100155</v>
-      </c>
-      <c r="D15" s="23" t="s">
+      <c r="B15" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="31" t="n">
+        <v>6192408100162</v>
+      </c>
+      <c r="D15" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="F15" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="G15" s="26" t="n">
-        <v>1</v>
+      <c r="E15" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="34" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2454,21 +2453,21 @@
         <v>23</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="C16" s="27" t="n">
-        <v>6192408100308</v>
+        <v>57</v>
+      </c>
+      <c r="C16" s="24" t="n">
+        <v>9103471</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="F16" s="25" t="n">
+        <v>45</v>
+      </c>
+      <c r="F16" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="G16" s="26" t="n">
+      <c r="G16" s="27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2476,45 +2475,45 @@
       <c r="A17" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="C17" s="27" t="n">
-        <v>6192408100179</v>
-      </c>
-      <c r="D17" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="E17" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="F17" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" s="26" t="n">
-        <v>0</v>
+      <c r="B17" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="31" t="n">
+        <v>3582910075455</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" s="34" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="C18" s="27" t="n">
-        <v>6192408100162</v>
-      </c>
-      <c r="D18" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="E18" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="F18" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" s="26" t="n">
+      <c r="B18" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="31" t="n">
+        <v>3582910075448</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" s="34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2523,21 +2522,21 @@
         <v>23</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="C19" s="14" t="n">
-        <v>9103471</v>
+        <v>63</v>
+      </c>
+      <c r="C19" s="28" t="n">
+        <v>6192408101510</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="E19" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="F19" s="25" t="n">
+        <v>64</v>
+      </c>
+      <c r="E19" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="36" t="n">
         <v>1</v>
       </c>
-      <c r="G19" s="26" t="n">
+      <c r="G19" s="27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2545,96 +2544,24 @@
       <c r="A20" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="C20" s="27" t="n">
-        <v>3582910075455</v>
-      </c>
-      <c r="D20" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="E20" s="24" t="s">
+      <c r="B20" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="31" t="n">
+        <v>6192408101527</v>
+      </c>
+      <c r="D20" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="F20" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" s="26" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="C21" s="27" t="n">
-        <v>3582910075448</v>
-      </c>
-      <c r="D21" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="E21" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="F21" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" s="26" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="C22" s="27" t="n">
-        <v>6192408101510</v>
-      </c>
-      <c r="D22" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="E22" s="24" t="s">
+      <c r="E20" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="F22" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" s="26" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="C23" s="27" t="n">
-        <v>6192408101527</v>
-      </c>
-      <c r="D23" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="E23" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="F23" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" s="26" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D24" s="23"/>
+      <c r="F20" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" s="34" t="n">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2658,52 +2585,1069 @@
   </sheetPr>
   <dimension ref="1:20"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E31" activeCellId="0" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="32" width="25.4655870445344"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="32" width="21.5465587044534"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="32" width="28.7732793522267"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="32" width="21.5465587044534"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="32" width="11.0202429149798"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="32" width="9.54655870445344"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="33" width="9.06072874493927"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="37" width="26.080971659919"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="37" width="22.0364372469636"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="37" width="29.3805668016194"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="37" width="22.0364372469636"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="37" width="11.2631578947368"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="37" width="9.66801619433198"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="38" width="9.18218623481781"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="34"/>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="35" t="s">
+      <c r="A1" s="39"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="35"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="0"/>
+      <c r="I1" s="0"/>
+      <c r="J1" s="0"/>
+      <c r="K1" s="0"/>
+      <c r="L1" s="0"/>
+      <c r="M1" s="0"/>
+      <c r="N1" s="0"/>
+      <c r="O1" s="0"/>
+      <c r="P1" s="0"/>
+      <c r="Q1" s="0"/>
+      <c r="R1" s="0"/>
+      <c r="S1" s="0"/>
+      <c r="T1" s="0"/>
+      <c r="U1" s="0"/>
+      <c r="V1" s="0"/>
+      <c r="W1" s="0"/>
+      <c r="X1" s="0"/>
+      <c r="Y1" s="0"/>
+      <c r="Z1" s="0"/>
+      <c r="AA1" s="0"/>
+      <c r="AB1" s="0"/>
+      <c r="AC1" s="0"/>
+      <c r="AD1" s="0"/>
+      <c r="AE1" s="0"/>
+      <c r="AF1" s="0"/>
+      <c r="AG1" s="0"/>
+      <c r="AH1" s="0"/>
+      <c r="AI1" s="0"/>
+      <c r="AJ1" s="0"/>
+      <c r="AK1" s="0"/>
+      <c r="AL1" s="0"/>
+      <c r="AM1" s="0"/>
+      <c r="AN1" s="0"/>
+      <c r="AO1" s="0"/>
+      <c r="AP1" s="0"/>
+      <c r="AQ1" s="0"/>
+      <c r="AR1" s="0"/>
+      <c r="AS1" s="0"/>
+      <c r="AT1" s="0"/>
+      <c r="AU1" s="0"/>
+      <c r="AV1" s="0"/>
+      <c r="AW1" s="0"/>
+      <c r="AX1" s="0"/>
+      <c r="AY1" s="0"/>
+      <c r="AZ1" s="0"/>
+      <c r="BA1" s="0"/>
+      <c r="BB1" s="0"/>
+      <c r="BC1" s="0"/>
+      <c r="BD1" s="0"/>
+      <c r="BE1" s="0"/>
+      <c r="BF1" s="0"/>
+      <c r="BG1" s="0"/>
+      <c r="BH1" s="0"/>
+      <c r="BI1" s="0"/>
+      <c r="BJ1" s="0"/>
+      <c r="BK1" s="0"/>
+      <c r="BL1" s="0"/>
+      <c r="BM1" s="0"/>
+      <c r="BN1" s="0"/>
+      <c r="BO1" s="0"/>
+      <c r="BP1" s="0"/>
+      <c r="BQ1" s="0"/>
+      <c r="BR1" s="0"/>
+      <c r="BS1" s="0"/>
+      <c r="BT1" s="0"/>
+      <c r="BU1" s="0"/>
+      <c r="BV1" s="0"/>
+      <c r="BW1" s="0"/>
+      <c r="BX1" s="0"/>
+      <c r="BY1" s="0"/>
+      <c r="BZ1" s="0"/>
+      <c r="CA1" s="0"/>
+      <c r="CB1" s="0"/>
+      <c r="CC1" s="0"/>
+      <c r="CD1" s="0"/>
+      <c r="CE1" s="0"/>
+      <c r="CF1" s="0"/>
+      <c r="CG1" s="0"/>
+      <c r="CH1" s="0"/>
+      <c r="CI1" s="0"/>
+      <c r="CJ1" s="0"/>
+      <c r="CK1" s="0"/>
+      <c r="CL1" s="0"/>
+      <c r="CM1" s="0"/>
+      <c r="CN1" s="0"/>
+      <c r="CO1" s="0"/>
+      <c r="CP1" s="0"/>
+      <c r="CQ1" s="0"/>
+      <c r="CR1" s="0"/>
+      <c r="CS1" s="0"/>
+      <c r="CT1" s="0"/>
+      <c r="CU1" s="0"/>
+      <c r="CV1" s="0"/>
+      <c r="CW1" s="0"/>
+      <c r="CX1" s="0"/>
+      <c r="CY1" s="0"/>
+      <c r="CZ1" s="0"/>
+      <c r="DA1" s="0"/>
+      <c r="DB1" s="0"/>
+      <c r="DC1" s="0"/>
+      <c r="DD1" s="0"/>
+      <c r="DE1" s="0"/>
+      <c r="DF1" s="0"/>
+      <c r="DG1" s="0"/>
+      <c r="DH1" s="0"/>
+      <c r="DI1" s="0"/>
+      <c r="DJ1" s="0"/>
+      <c r="DK1" s="0"/>
+      <c r="DL1" s="0"/>
+      <c r="DM1" s="0"/>
+      <c r="DN1" s="0"/>
+      <c r="DO1" s="0"/>
+      <c r="DP1" s="0"/>
+      <c r="DQ1" s="0"/>
+      <c r="DR1" s="0"/>
+      <c r="DS1" s="0"/>
+      <c r="DT1" s="0"/>
+      <c r="DU1" s="0"/>
+      <c r="DV1" s="0"/>
+      <c r="DW1" s="0"/>
+      <c r="DX1" s="0"/>
+      <c r="DY1" s="0"/>
+      <c r="DZ1" s="0"/>
+      <c r="EA1" s="0"/>
+      <c r="EB1" s="0"/>
+      <c r="EC1" s="0"/>
+      <c r="ED1" s="0"/>
+      <c r="EE1" s="0"/>
+      <c r="EF1" s="0"/>
+      <c r="EG1" s="0"/>
+      <c r="EH1" s="0"/>
+      <c r="EI1" s="0"/>
+      <c r="EJ1" s="0"/>
+      <c r="EK1" s="0"/>
+      <c r="EL1" s="0"/>
+      <c r="EM1" s="0"/>
+      <c r="EN1" s="0"/>
+      <c r="EO1" s="0"/>
+      <c r="EP1" s="0"/>
+      <c r="EQ1" s="0"/>
+      <c r="ER1" s="0"/>
+      <c r="ES1" s="0"/>
+      <c r="ET1" s="0"/>
+      <c r="EU1" s="0"/>
+      <c r="EV1" s="0"/>
+      <c r="EW1" s="0"/>
+      <c r="EX1" s="0"/>
+      <c r="EY1" s="0"/>
+      <c r="EZ1" s="0"/>
+      <c r="FA1" s="0"/>
+      <c r="FB1" s="0"/>
+      <c r="FC1" s="0"/>
+      <c r="FD1" s="0"/>
+      <c r="FE1" s="0"/>
+      <c r="FF1" s="0"/>
+      <c r="FG1" s="0"/>
+      <c r="FH1" s="0"/>
+      <c r="FI1" s="0"/>
+      <c r="FJ1" s="0"/>
+      <c r="FK1" s="0"/>
+      <c r="FL1" s="0"/>
+      <c r="FM1" s="0"/>
+      <c r="FN1" s="0"/>
+      <c r="FO1" s="0"/>
+      <c r="FP1" s="0"/>
+      <c r="FQ1" s="0"/>
+      <c r="FR1" s="0"/>
+      <c r="FS1" s="0"/>
+      <c r="FT1" s="0"/>
+      <c r="FU1" s="0"/>
+      <c r="FV1" s="0"/>
+      <c r="FW1" s="0"/>
+      <c r="FX1" s="0"/>
+      <c r="FY1" s="0"/>
+      <c r="FZ1" s="0"/>
+      <c r="GA1" s="0"/>
+      <c r="GB1" s="0"/>
+      <c r="GC1" s="0"/>
+      <c r="GD1" s="0"/>
+      <c r="GE1" s="0"/>
+      <c r="GF1" s="0"/>
+      <c r="GG1" s="0"/>
+      <c r="GH1" s="0"/>
+      <c r="GI1" s="0"/>
+      <c r="GJ1" s="0"/>
+      <c r="GK1" s="0"/>
+      <c r="GL1" s="0"/>
+      <c r="GM1" s="0"/>
+      <c r="GN1" s="0"/>
+      <c r="GO1" s="0"/>
+      <c r="GP1" s="0"/>
+      <c r="GQ1" s="0"/>
+      <c r="GR1" s="0"/>
+      <c r="GS1" s="0"/>
+      <c r="GT1" s="0"/>
+      <c r="GU1" s="0"/>
+      <c r="GV1" s="0"/>
+      <c r="GW1" s="0"/>
+      <c r="GX1" s="0"/>
+      <c r="GY1" s="0"/>
+      <c r="GZ1" s="0"/>
+      <c r="HA1" s="0"/>
+      <c r="HB1" s="0"/>
+      <c r="HC1" s="0"/>
+      <c r="HD1" s="0"/>
+      <c r="HE1" s="0"/>
+      <c r="HF1" s="0"/>
+      <c r="HG1" s="0"/>
+      <c r="HH1" s="0"/>
+      <c r="HI1" s="0"/>
+      <c r="HJ1" s="0"/>
+      <c r="HK1" s="0"/>
+      <c r="HL1" s="0"/>
+      <c r="HM1" s="0"/>
+      <c r="HN1" s="0"/>
+      <c r="HO1" s="0"/>
+      <c r="HP1" s="0"/>
+      <c r="HQ1" s="0"/>
+      <c r="HR1" s="0"/>
+      <c r="HS1" s="0"/>
+      <c r="HT1" s="0"/>
+      <c r="HU1" s="0"/>
+      <c r="HV1" s="0"/>
+      <c r="HW1" s="0"/>
+      <c r="HX1" s="0"/>
+      <c r="HY1" s="0"/>
+      <c r="HZ1" s="0"/>
+      <c r="IA1" s="0"/>
+      <c r="IB1" s="0"/>
+      <c r="IC1" s="0"/>
+      <c r="ID1" s="0"/>
+      <c r="IE1" s="0"/>
+      <c r="IF1" s="0"/>
+      <c r="IG1" s="0"/>
+      <c r="IH1" s="0"/>
+      <c r="II1" s="0"/>
+      <c r="IJ1" s="0"/>
+      <c r="IK1" s="0"/>
+      <c r="IL1" s="0"/>
+      <c r="IM1" s="0"/>
+      <c r="IN1" s="0"/>
+      <c r="IO1" s="0"/>
+      <c r="IP1" s="0"/>
+      <c r="IQ1" s="0"/>
+      <c r="IR1" s="0"/>
+      <c r="IS1" s="0"/>
+      <c r="IT1" s="0"/>
+      <c r="IU1" s="0"/>
+      <c r="IV1" s="0"/>
+      <c r="IW1" s="0"/>
+      <c r="IX1" s="0"/>
+      <c r="IY1" s="0"/>
+      <c r="IZ1" s="0"/>
+      <c r="JA1" s="0"/>
+      <c r="JB1" s="0"/>
+      <c r="JC1" s="0"/>
+      <c r="JD1" s="0"/>
+      <c r="JE1" s="0"/>
+      <c r="JF1" s="0"/>
+      <c r="JG1" s="0"/>
+      <c r="JH1" s="0"/>
+      <c r="JI1" s="0"/>
+      <c r="JJ1" s="0"/>
+      <c r="JK1" s="0"/>
+      <c r="JL1" s="0"/>
+      <c r="JM1" s="0"/>
+      <c r="JN1" s="0"/>
+      <c r="JO1" s="0"/>
+      <c r="JP1" s="0"/>
+      <c r="JQ1" s="0"/>
+      <c r="JR1" s="0"/>
+      <c r="JS1" s="0"/>
+      <c r="JT1" s="0"/>
+      <c r="JU1" s="0"/>
+      <c r="JV1" s="0"/>
+      <c r="JW1" s="0"/>
+      <c r="JX1" s="0"/>
+      <c r="JY1" s="0"/>
+      <c r="JZ1" s="0"/>
+      <c r="KA1" s="0"/>
+      <c r="KB1" s="0"/>
+      <c r="KC1" s="0"/>
+      <c r="KD1" s="0"/>
+      <c r="KE1" s="0"/>
+      <c r="KF1" s="0"/>
+      <c r="KG1" s="0"/>
+      <c r="KH1" s="0"/>
+      <c r="KI1" s="0"/>
+      <c r="KJ1" s="0"/>
+      <c r="KK1" s="0"/>
+      <c r="KL1" s="0"/>
+      <c r="KM1" s="0"/>
+      <c r="KN1" s="0"/>
+      <c r="KO1" s="0"/>
+      <c r="KP1" s="0"/>
+      <c r="KQ1" s="0"/>
+      <c r="KR1" s="0"/>
+      <c r="KS1" s="0"/>
+      <c r="KT1" s="0"/>
+      <c r="KU1" s="0"/>
+      <c r="KV1" s="0"/>
+      <c r="KW1" s="0"/>
+      <c r="KX1" s="0"/>
+      <c r="KY1" s="0"/>
+      <c r="KZ1" s="0"/>
+      <c r="LA1" s="0"/>
+      <c r="LB1" s="0"/>
+      <c r="LC1" s="0"/>
+      <c r="LD1" s="0"/>
+      <c r="LE1" s="0"/>
+      <c r="LF1" s="0"/>
+      <c r="LG1" s="0"/>
+      <c r="LH1" s="0"/>
+      <c r="LI1" s="0"/>
+      <c r="LJ1" s="0"/>
+      <c r="LK1" s="0"/>
+      <c r="LL1" s="0"/>
+      <c r="LM1" s="0"/>
+      <c r="LN1" s="0"/>
+      <c r="LO1" s="0"/>
+      <c r="LP1" s="0"/>
+      <c r="LQ1" s="0"/>
+      <c r="LR1" s="0"/>
+      <c r="LS1" s="0"/>
+      <c r="LT1" s="0"/>
+      <c r="LU1" s="0"/>
+      <c r="LV1" s="0"/>
+      <c r="LW1" s="0"/>
+      <c r="LX1" s="0"/>
+      <c r="LY1" s="0"/>
+      <c r="LZ1" s="0"/>
+      <c r="MA1" s="0"/>
+      <c r="MB1" s="0"/>
+      <c r="MC1" s="0"/>
+      <c r="MD1" s="0"/>
+      <c r="ME1" s="0"/>
+      <c r="MF1" s="0"/>
+      <c r="MG1" s="0"/>
+      <c r="MH1" s="0"/>
+      <c r="MI1" s="0"/>
+      <c r="MJ1" s="0"/>
+      <c r="MK1" s="0"/>
+      <c r="ML1" s="0"/>
+      <c r="MM1" s="0"/>
+      <c r="MN1" s="0"/>
+      <c r="MO1" s="0"/>
+      <c r="MP1" s="0"/>
+      <c r="MQ1" s="0"/>
+      <c r="MR1" s="0"/>
+      <c r="MS1" s="0"/>
+      <c r="MT1" s="0"/>
+      <c r="MU1" s="0"/>
+      <c r="MV1" s="0"/>
+      <c r="MW1" s="0"/>
+      <c r="MX1" s="0"/>
+      <c r="MY1" s="0"/>
+      <c r="MZ1" s="0"/>
+      <c r="NA1" s="0"/>
+      <c r="NB1" s="0"/>
+      <c r="NC1" s="0"/>
+      <c r="ND1" s="0"/>
+      <c r="NE1" s="0"/>
+      <c r="NF1" s="0"/>
+      <c r="NG1" s="0"/>
+      <c r="NH1" s="0"/>
+      <c r="NI1" s="0"/>
+      <c r="NJ1" s="0"/>
+      <c r="NK1" s="0"/>
+      <c r="NL1" s="0"/>
+      <c r="NM1" s="0"/>
+      <c r="NN1" s="0"/>
+      <c r="NO1" s="0"/>
+      <c r="NP1" s="0"/>
+      <c r="NQ1" s="0"/>
+      <c r="NR1" s="0"/>
+      <c r="NS1" s="0"/>
+      <c r="NT1" s="0"/>
+      <c r="NU1" s="0"/>
+      <c r="NV1" s="0"/>
+      <c r="NW1" s="0"/>
+      <c r="NX1" s="0"/>
+      <c r="NY1" s="0"/>
+      <c r="NZ1" s="0"/>
+      <c r="OA1" s="0"/>
+      <c r="OB1" s="0"/>
+      <c r="OC1" s="0"/>
+      <c r="OD1" s="0"/>
+      <c r="OE1" s="0"/>
+      <c r="OF1" s="0"/>
+      <c r="OG1" s="0"/>
+      <c r="OH1" s="0"/>
+      <c r="OI1" s="0"/>
+      <c r="OJ1" s="0"/>
+      <c r="OK1" s="0"/>
+      <c r="OL1" s="0"/>
+      <c r="OM1" s="0"/>
+      <c r="ON1" s="0"/>
+      <c r="OO1" s="0"/>
+      <c r="OP1" s="0"/>
+      <c r="OQ1" s="0"/>
+      <c r="OR1" s="0"/>
+      <c r="OS1" s="0"/>
+      <c r="OT1" s="0"/>
+      <c r="OU1" s="0"/>
+      <c r="OV1" s="0"/>
+      <c r="OW1" s="0"/>
+      <c r="OX1" s="0"/>
+      <c r="OY1" s="0"/>
+      <c r="OZ1" s="0"/>
+      <c r="PA1" s="0"/>
+      <c r="PB1" s="0"/>
+      <c r="PC1" s="0"/>
+      <c r="PD1" s="0"/>
+      <c r="PE1" s="0"/>
+      <c r="PF1" s="0"/>
+      <c r="PG1" s="0"/>
+      <c r="PH1" s="0"/>
+      <c r="PI1" s="0"/>
+      <c r="PJ1" s="0"/>
+      <c r="PK1" s="0"/>
+      <c r="PL1" s="0"/>
+      <c r="PM1" s="0"/>
+      <c r="PN1" s="0"/>
+      <c r="PO1" s="0"/>
+      <c r="PP1" s="0"/>
+      <c r="PQ1" s="0"/>
+      <c r="PR1" s="0"/>
+      <c r="PS1" s="0"/>
+      <c r="PT1" s="0"/>
+      <c r="PU1" s="0"/>
+      <c r="PV1" s="0"/>
+      <c r="PW1" s="0"/>
+      <c r="PX1" s="0"/>
+      <c r="PY1" s="0"/>
+      <c r="PZ1" s="0"/>
+      <c r="QA1" s="0"/>
+      <c r="QB1" s="0"/>
+      <c r="QC1" s="0"/>
+      <c r="QD1" s="0"/>
+      <c r="QE1" s="0"/>
+      <c r="QF1" s="0"/>
+      <c r="QG1" s="0"/>
+      <c r="QH1" s="0"/>
+      <c r="QI1" s="0"/>
+      <c r="QJ1" s="0"/>
+      <c r="QK1" s="0"/>
+      <c r="QL1" s="0"/>
+      <c r="QM1" s="0"/>
+      <c r="QN1" s="0"/>
+      <c r="QO1" s="0"/>
+      <c r="QP1" s="0"/>
+      <c r="QQ1" s="0"/>
+      <c r="QR1" s="0"/>
+      <c r="QS1" s="0"/>
+      <c r="QT1" s="0"/>
+      <c r="QU1" s="0"/>
+      <c r="QV1" s="0"/>
+      <c r="QW1" s="0"/>
+      <c r="QX1" s="0"/>
+      <c r="QY1" s="0"/>
+      <c r="QZ1" s="0"/>
+      <c r="RA1" s="0"/>
+      <c r="RB1" s="0"/>
+      <c r="RC1" s="0"/>
+      <c r="RD1" s="0"/>
+      <c r="RE1" s="0"/>
+      <c r="RF1" s="0"/>
+      <c r="RG1" s="0"/>
+      <c r="RH1" s="0"/>
+      <c r="RI1" s="0"/>
+      <c r="RJ1" s="0"/>
+      <c r="RK1" s="0"/>
+      <c r="RL1" s="0"/>
+      <c r="RM1" s="0"/>
+      <c r="RN1" s="0"/>
+      <c r="RO1" s="0"/>
+      <c r="RP1" s="0"/>
+      <c r="RQ1" s="0"/>
+      <c r="RR1" s="0"/>
+      <c r="RS1" s="0"/>
+      <c r="RT1" s="0"/>
+      <c r="RU1" s="0"/>
+      <c r="RV1" s="0"/>
+      <c r="RW1" s="0"/>
+      <c r="RX1" s="0"/>
+      <c r="RY1" s="0"/>
+      <c r="RZ1" s="0"/>
+      <c r="SA1" s="0"/>
+      <c r="SB1" s="0"/>
+      <c r="SC1" s="0"/>
+      <c r="SD1" s="0"/>
+      <c r="SE1" s="0"/>
+      <c r="SF1" s="0"/>
+      <c r="SG1" s="0"/>
+      <c r="SH1" s="0"/>
+      <c r="SI1" s="0"/>
+      <c r="SJ1" s="0"/>
+      <c r="SK1" s="0"/>
+      <c r="SL1" s="0"/>
+      <c r="SM1" s="0"/>
+      <c r="SN1" s="0"/>
+      <c r="SO1" s="0"/>
+      <c r="SP1" s="0"/>
+      <c r="SQ1" s="0"/>
+      <c r="SR1" s="0"/>
+      <c r="SS1" s="0"/>
+      <c r="ST1" s="0"/>
+      <c r="SU1" s="0"/>
+      <c r="SV1" s="0"/>
+      <c r="SW1" s="0"/>
+      <c r="SX1" s="0"/>
+      <c r="SY1" s="0"/>
+      <c r="SZ1" s="0"/>
+      <c r="TA1" s="0"/>
+      <c r="TB1" s="0"/>
+      <c r="TC1" s="0"/>
+      <c r="TD1" s="0"/>
+      <c r="TE1" s="0"/>
+      <c r="TF1" s="0"/>
+      <c r="TG1" s="0"/>
+      <c r="TH1" s="0"/>
+      <c r="TI1" s="0"/>
+      <c r="TJ1" s="0"/>
+      <c r="TK1" s="0"/>
+      <c r="TL1" s="0"/>
+      <c r="TM1" s="0"/>
+      <c r="TN1" s="0"/>
+      <c r="TO1" s="0"/>
+      <c r="TP1" s="0"/>
+      <c r="TQ1" s="0"/>
+      <c r="TR1" s="0"/>
+      <c r="TS1" s="0"/>
+      <c r="TT1" s="0"/>
+      <c r="TU1" s="0"/>
+      <c r="TV1" s="0"/>
+      <c r="TW1" s="0"/>
+      <c r="TX1" s="0"/>
+      <c r="TY1" s="0"/>
+      <c r="TZ1" s="0"/>
+      <c r="UA1" s="0"/>
+      <c r="UB1" s="0"/>
+      <c r="UC1" s="0"/>
+      <c r="UD1" s="0"/>
+      <c r="UE1" s="0"/>
+      <c r="UF1" s="0"/>
+      <c r="UG1" s="0"/>
+      <c r="UH1" s="0"/>
+      <c r="UI1" s="0"/>
+      <c r="UJ1" s="0"/>
+      <c r="UK1" s="0"/>
+      <c r="UL1" s="0"/>
+      <c r="UM1" s="0"/>
+      <c r="UN1" s="0"/>
+      <c r="UO1" s="0"/>
+      <c r="UP1" s="0"/>
+      <c r="UQ1" s="0"/>
+      <c r="UR1" s="0"/>
+      <c r="US1" s="0"/>
+      <c r="UT1" s="0"/>
+      <c r="UU1" s="0"/>
+      <c r="UV1" s="0"/>
+      <c r="UW1" s="0"/>
+      <c r="UX1" s="0"/>
+      <c r="UY1" s="0"/>
+      <c r="UZ1" s="0"/>
+      <c r="VA1" s="0"/>
+      <c r="VB1" s="0"/>
+      <c r="VC1" s="0"/>
+      <c r="VD1" s="0"/>
+      <c r="VE1" s="0"/>
+      <c r="VF1" s="0"/>
+      <c r="VG1" s="0"/>
+      <c r="VH1" s="0"/>
+      <c r="VI1" s="0"/>
+      <c r="VJ1" s="0"/>
+      <c r="VK1" s="0"/>
+      <c r="VL1" s="0"/>
+      <c r="VM1" s="0"/>
+      <c r="VN1" s="0"/>
+      <c r="VO1" s="0"/>
+      <c r="VP1" s="0"/>
+      <c r="VQ1" s="0"/>
+      <c r="VR1" s="0"/>
+      <c r="VS1" s="0"/>
+      <c r="VT1" s="0"/>
+      <c r="VU1" s="0"/>
+      <c r="VV1" s="0"/>
+      <c r="VW1" s="0"/>
+      <c r="VX1" s="0"/>
+      <c r="VY1" s="0"/>
+      <c r="VZ1" s="0"/>
+      <c r="WA1" s="0"/>
+      <c r="WB1" s="0"/>
+      <c r="WC1" s="0"/>
+      <c r="WD1" s="0"/>
+      <c r="WE1" s="0"/>
+      <c r="WF1" s="0"/>
+      <c r="WG1" s="0"/>
+      <c r="WH1" s="0"/>
+      <c r="WI1" s="0"/>
+      <c r="WJ1" s="0"/>
+      <c r="WK1" s="0"/>
+      <c r="WL1" s="0"/>
+      <c r="WM1" s="0"/>
+      <c r="WN1" s="0"/>
+      <c r="WO1" s="0"/>
+      <c r="WP1" s="0"/>
+      <c r="WQ1" s="0"/>
+      <c r="WR1" s="0"/>
+      <c r="WS1" s="0"/>
+      <c r="WT1" s="0"/>
+      <c r="WU1" s="0"/>
+      <c r="WV1" s="0"/>
+      <c r="WW1" s="0"/>
+      <c r="WX1" s="0"/>
+      <c r="WY1" s="0"/>
+      <c r="WZ1" s="0"/>
+      <c r="XA1" s="0"/>
+      <c r="XB1" s="0"/>
+      <c r="XC1" s="0"/>
+      <c r="XD1" s="0"/>
+      <c r="XE1" s="0"/>
+      <c r="XF1" s="0"/>
+      <c r="XG1" s="0"/>
+      <c r="XH1" s="0"/>
+      <c r="XI1" s="0"/>
+      <c r="XJ1" s="0"/>
+      <c r="XK1" s="0"/>
+      <c r="XL1" s="0"/>
+      <c r="XM1" s="0"/>
+      <c r="XN1" s="0"/>
+      <c r="XO1" s="0"/>
+      <c r="XP1" s="0"/>
+      <c r="XQ1" s="0"/>
+      <c r="XR1" s="0"/>
+      <c r="XS1" s="0"/>
+      <c r="XT1" s="0"/>
+      <c r="XU1" s="0"/>
+      <c r="XV1" s="0"/>
+      <c r="XW1" s="0"/>
+      <c r="XX1" s="0"/>
+      <c r="XY1" s="0"/>
+      <c r="XZ1" s="0"/>
+      <c r="YA1" s="0"/>
+      <c r="YB1" s="0"/>
+      <c r="YC1" s="0"/>
+      <c r="YD1" s="0"/>
+      <c r="YE1" s="0"/>
+      <c r="YF1" s="0"/>
+      <c r="YG1" s="0"/>
+      <c r="YH1" s="0"/>
+      <c r="YI1" s="0"/>
+      <c r="YJ1" s="0"/>
+      <c r="YK1" s="0"/>
+      <c r="YL1" s="0"/>
+      <c r="YM1" s="0"/>
+      <c r="YN1" s="0"/>
+      <c r="YO1" s="0"/>
+      <c r="YP1" s="0"/>
+      <c r="YQ1" s="0"/>
+      <c r="YR1" s="0"/>
+      <c r="YS1" s="0"/>
+      <c r="YT1" s="0"/>
+      <c r="YU1" s="0"/>
+      <c r="YV1" s="0"/>
+      <c r="YW1" s="0"/>
+      <c r="YX1" s="0"/>
+      <c r="YY1" s="0"/>
+      <c r="YZ1" s="0"/>
+      <c r="ZA1" s="0"/>
+      <c r="ZB1" s="0"/>
+      <c r="ZC1" s="0"/>
+      <c r="ZD1" s="0"/>
+      <c r="ZE1" s="0"/>
+      <c r="ZF1" s="0"/>
+      <c r="ZG1" s="0"/>
+      <c r="ZH1" s="0"/>
+      <c r="ZI1" s="0"/>
+      <c r="ZJ1" s="0"/>
+      <c r="ZK1" s="0"/>
+      <c r="ZL1" s="0"/>
+      <c r="ZM1" s="0"/>
+      <c r="ZN1" s="0"/>
+      <c r="ZO1" s="0"/>
+      <c r="ZP1" s="0"/>
+      <c r="ZQ1" s="0"/>
+      <c r="ZR1" s="0"/>
+      <c r="ZS1" s="0"/>
+      <c r="ZT1" s="0"/>
+      <c r="ZU1" s="0"/>
+      <c r="ZV1" s="0"/>
+      <c r="ZW1" s="0"/>
+      <c r="ZX1" s="0"/>
+      <c r="ZY1" s="0"/>
+      <c r="ZZ1" s="0"/>
+      <c r="AAA1" s="0"/>
+      <c r="AAB1" s="0"/>
+      <c r="AAC1" s="0"/>
+      <c r="AAD1" s="0"/>
+      <c r="AAE1" s="0"/>
+      <c r="AAF1" s="0"/>
+      <c r="AAG1" s="0"/>
+      <c r="AAH1" s="0"/>
+      <c r="AAI1" s="0"/>
+      <c r="AAJ1" s="0"/>
+      <c r="AAK1" s="0"/>
+      <c r="AAL1" s="0"/>
+      <c r="AAM1" s="0"/>
+      <c r="AAN1" s="0"/>
+      <c r="AAO1" s="0"/>
+      <c r="AAP1" s="0"/>
+      <c r="AAQ1" s="0"/>
+      <c r="AAR1" s="0"/>
+      <c r="AAS1" s="0"/>
+      <c r="AAT1" s="0"/>
+      <c r="AAU1" s="0"/>
+      <c r="AAV1" s="0"/>
+      <c r="AAW1" s="0"/>
+      <c r="AAX1" s="0"/>
+      <c r="AAY1" s="0"/>
+      <c r="AAZ1" s="0"/>
+      <c r="ABA1" s="0"/>
+      <c r="ABB1" s="0"/>
+      <c r="ABC1" s="0"/>
+      <c r="ABD1" s="0"/>
+      <c r="ABE1" s="0"/>
+      <c r="ABF1" s="0"/>
+      <c r="ABG1" s="0"/>
+      <c r="ABH1" s="0"/>
+      <c r="ABI1" s="0"/>
+      <c r="ABJ1" s="0"/>
+      <c r="ABK1" s="0"/>
+      <c r="ABL1" s="0"/>
+      <c r="ABM1" s="0"/>
+      <c r="ABN1" s="0"/>
+      <c r="ABO1" s="0"/>
+      <c r="ABP1" s="0"/>
+      <c r="ABQ1" s="0"/>
+      <c r="ABR1" s="0"/>
+      <c r="ABS1" s="0"/>
+      <c r="ABT1" s="0"/>
+      <c r="ABU1" s="0"/>
+      <c r="ABV1" s="0"/>
+      <c r="ABW1" s="0"/>
+      <c r="ABX1" s="0"/>
+      <c r="ABY1" s="0"/>
+      <c r="ABZ1" s="0"/>
+      <c r="ACA1" s="0"/>
+      <c r="ACB1" s="0"/>
+      <c r="ACC1" s="0"/>
+      <c r="ACD1" s="0"/>
+      <c r="ACE1" s="0"/>
+      <c r="ACF1" s="0"/>
+      <c r="ACG1" s="0"/>
+      <c r="ACH1" s="0"/>
+      <c r="ACI1" s="0"/>
+      <c r="ACJ1" s="0"/>
+      <c r="ACK1" s="0"/>
+      <c r="ACL1" s="0"/>
+      <c r="ACM1" s="0"/>
+      <c r="ACN1" s="0"/>
+      <c r="ACO1" s="0"/>
+      <c r="ACP1" s="0"/>
+      <c r="ACQ1" s="0"/>
+      <c r="ACR1" s="0"/>
+      <c r="ACS1" s="0"/>
+      <c r="ACT1" s="0"/>
+      <c r="ACU1" s="0"/>
+      <c r="ACV1" s="0"/>
+      <c r="ACW1" s="0"/>
+      <c r="ACX1" s="0"/>
+      <c r="ACY1" s="0"/>
+      <c r="ACZ1" s="0"/>
+      <c r="ADA1" s="0"/>
+      <c r="ADB1" s="0"/>
+      <c r="ADC1" s="0"/>
+      <c r="ADD1" s="0"/>
+      <c r="ADE1" s="0"/>
+      <c r="ADF1" s="0"/>
+      <c r="ADG1" s="0"/>
+      <c r="ADH1" s="0"/>
+      <c r="ADI1" s="0"/>
+      <c r="ADJ1" s="0"/>
+      <c r="ADK1" s="0"/>
+      <c r="ADL1" s="0"/>
+      <c r="ADM1" s="0"/>
+      <c r="ADN1" s="0"/>
+      <c r="ADO1" s="0"/>
+      <c r="ADP1" s="0"/>
+      <c r="ADQ1" s="0"/>
+      <c r="ADR1" s="0"/>
+      <c r="ADS1" s="0"/>
+      <c r="ADT1" s="0"/>
+      <c r="ADU1" s="0"/>
+      <c r="ADV1" s="0"/>
+      <c r="ADW1" s="0"/>
+      <c r="ADX1" s="0"/>
+      <c r="ADY1" s="0"/>
+      <c r="ADZ1" s="0"/>
+      <c r="AEA1" s="0"/>
+      <c r="AEB1" s="0"/>
+      <c r="AEC1" s="0"/>
+      <c r="AED1" s="0"/>
+      <c r="AEE1" s="0"/>
+      <c r="AEF1" s="0"/>
+      <c r="AEG1" s="0"/>
+      <c r="AEH1" s="0"/>
+      <c r="AEI1" s="0"/>
+      <c r="AEJ1" s="0"/>
+      <c r="AEK1" s="0"/>
+      <c r="AEL1" s="0"/>
+      <c r="AEM1" s="0"/>
+      <c r="AEN1" s="0"/>
+      <c r="AEO1" s="0"/>
+      <c r="AEP1" s="0"/>
+      <c r="AEQ1" s="0"/>
+      <c r="AER1" s="0"/>
+      <c r="AES1" s="0"/>
+      <c r="AET1" s="0"/>
+      <c r="AEU1" s="0"/>
+      <c r="AEV1" s="0"/>
+      <c r="AEW1" s="0"/>
+      <c r="AEX1" s="0"/>
+      <c r="AEY1" s="0"/>
+      <c r="AEZ1" s="0"/>
+      <c r="AFA1" s="0"/>
+      <c r="AFB1" s="0"/>
+      <c r="AFC1" s="0"/>
+      <c r="AFD1" s="0"/>
+      <c r="AFE1" s="0"/>
+      <c r="AFF1" s="0"/>
+      <c r="AFG1" s="0"/>
+      <c r="AFH1" s="0"/>
+      <c r="AFI1" s="0"/>
+      <c r="AFJ1" s="0"/>
+      <c r="AFK1" s="0"/>
+      <c r="AFL1" s="0"/>
+      <c r="AFM1" s="0"/>
+      <c r="AFN1" s="0"/>
+      <c r="AFO1" s="0"/>
+      <c r="AFP1" s="0"/>
+      <c r="AFQ1" s="0"/>
+      <c r="AFR1" s="0"/>
+      <c r="AFS1" s="0"/>
+      <c r="AFT1" s="0"/>
+      <c r="AFU1" s="0"/>
+      <c r="AFV1" s="0"/>
+      <c r="AFW1" s="0"/>
+      <c r="AFX1" s="0"/>
+      <c r="AFY1" s="0"/>
+      <c r="AFZ1" s="0"/>
+      <c r="AGA1" s="0"/>
+      <c r="AGB1" s="0"/>
+      <c r="AGC1" s="0"/>
+      <c r="AGD1" s="0"/>
+      <c r="AGE1" s="0"/>
+      <c r="AGF1" s="0"/>
+      <c r="AGG1" s="0"/>
+      <c r="AGH1" s="0"/>
+      <c r="AGI1" s="0"/>
+      <c r="AGJ1" s="0"/>
+      <c r="AGK1" s="0"/>
+      <c r="AGL1" s="0"/>
+      <c r="AGM1" s="0"/>
+      <c r="AGN1" s="0"/>
+      <c r="AGO1" s="0"/>
+      <c r="AGP1" s="0"/>
+      <c r="AGQ1" s="0"/>
+      <c r="AGR1" s="0"/>
+      <c r="AGS1" s="0"/>
+      <c r="AGT1" s="0"/>
+      <c r="AGU1" s="0"/>
+      <c r="AGV1" s="0"/>
+      <c r="AGW1" s="0"/>
+      <c r="AGX1" s="0"/>
+      <c r="AGY1" s="0"/>
+      <c r="AGZ1" s="0"/>
+      <c r="AHA1" s="0"/>
+      <c r="AHB1" s="0"/>
+      <c r="AHC1" s="0"/>
+      <c r="AHD1" s="0"/>
+      <c r="AHE1" s="0"/>
+      <c r="AHF1" s="0"/>
+      <c r="AHG1" s="0"/>
+      <c r="AHH1" s="0"/>
+      <c r="AHI1" s="0"/>
+      <c r="AHJ1" s="0"/>
+      <c r="AHK1" s="0"/>
+      <c r="AHL1" s="0"/>
+      <c r="AHM1" s="0"/>
+      <c r="AHN1" s="0"/>
+      <c r="AHO1" s="0"/>
+      <c r="AHP1" s="0"/>
+      <c r="AHQ1" s="0"/>
+      <c r="AHR1" s="0"/>
+      <c r="AHS1" s="0"/>
+      <c r="AHT1" s="0"/>
+      <c r="AHU1" s="0"/>
+      <c r="AHV1" s="0"/>
+      <c r="AHW1" s="0"/>
+      <c r="AHX1" s="0"/>
+      <c r="AHY1" s="0"/>
+      <c r="AHZ1" s="0"/>
+      <c r="AIA1" s="0"/>
+      <c r="AIB1" s="0"/>
+      <c r="AIC1" s="0"/>
+      <c r="AID1" s="0"/>
+      <c r="AIE1" s="0"/>
+      <c r="AIF1" s="0"/>
+      <c r="AIG1" s="0"/>
+      <c r="AIH1" s="0"/>
+      <c r="AII1" s="0"/>
+      <c r="AIJ1" s="0"/>
+      <c r="AIK1" s="0"/>
+      <c r="AIL1" s="0"/>
+      <c r="AIM1" s="0"/>
+      <c r="AIN1" s="0"/>
+      <c r="AIO1" s="0"/>
+      <c r="AIP1" s="0"/>
+      <c r="AIQ1" s="0"/>
+      <c r="AIR1" s="0"/>
+      <c r="AIS1" s="0"/>
+      <c r="AIT1" s="0"/>
+      <c r="AIU1" s="0"/>
+      <c r="AIV1" s="0"/>
+      <c r="AIW1" s="0"/>
+      <c r="AIX1" s="0"/>
+      <c r="AIY1" s="0"/>
+      <c r="AIZ1" s="0"/>
+      <c r="AJA1" s="0"/>
+      <c r="AJB1" s="0"/>
+      <c r="AJC1" s="0"/>
+      <c r="AJD1" s="0"/>
+      <c r="AJE1" s="0"/>
+      <c r="AJF1" s="0"/>
+      <c r="AJG1" s="0"/>
+      <c r="AJH1" s="0"/>
+      <c r="AJI1" s="0"/>
+      <c r="AJJ1" s="0"/>
+      <c r="AJK1" s="0"/>
+      <c r="AJL1" s="0"/>
+      <c r="AJM1" s="0"/>
+      <c r="AJN1" s="0"/>
+      <c r="AJO1" s="0"/>
+      <c r="AJP1" s="0"/>
+      <c r="AJQ1" s="0"/>
+      <c r="AJR1" s="0"/>
+      <c r="AJS1" s="0"/>
+      <c r="AJT1" s="0"/>
+      <c r="AJU1" s="0"/>
+      <c r="AJV1" s="0"/>
+      <c r="AJW1" s="0"/>
+      <c r="AJX1" s="0"/>
+      <c r="AJY1" s="0"/>
+      <c r="AJZ1" s="0"/>
+      <c r="AKA1" s="0"/>
+      <c r="AKB1" s="0"/>
+      <c r="AKC1" s="0"/>
+      <c r="AKD1" s="0"/>
+      <c r="AKE1" s="0"/>
+      <c r="AKF1" s="0"/>
+      <c r="AKG1" s="0"/>
+      <c r="AKH1" s="0"/>
+      <c r="AKI1" s="0"/>
+      <c r="AKJ1" s="0"/>
+      <c r="AKK1" s="0"/>
+      <c r="AKL1" s="0"/>
+      <c r="AKM1" s="0"/>
+      <c r="AKN1" s="0"/>
+      <c r="AKO1" s="0"/>
+      <c r="AKP1" s="0"/>
+      <c r="AKQ1" s="0"/>
+      <c r="AKR1" s="0"/>
+      <c r="AKS1" s="0"/>
+      <c r="AKT1" s="0"/>
+      <c r="AKU1" s="0"/>
+      <c r="AKV1" s="0"/>
+      <c r="AKW1" s="0"/>
+      <c r="AKX1" s="0"/>
+      <c r="AKY1" s="0"/>
+      <c r="AKZ1" s="0"/>
+      <c r="ALA1" s="0"/>
+      <c r="ALB1" s="0"/>
+      <c r="ALC1" s="0"/>
+      <c r="ALD1" s="0"/>
+      <c r="ALE1" s="0"/>
+      <c r="ALF1" s="0"/>
+      <c r="ALG1" s="0"/>
+      <c r="ALH1" s="0"/>
+      <c r="ALI1" s="0"/>
+      <c r="ALJ1" s="0"/>
+      <c r="ALK1" s="0"/>
+      <c r="ALL1" s="0"/>
+      <c r="ALM1" s="0"/>
+      <c r="ALN1" s="0"/>
+      <c r="ALO1" s="0"/>
+      <c r="ALP1" s="0"/>
+      <c r="ALQ1" s="0"/>
+      <c r="ALR1" s="0"/>
+      <c r="ALS1" s="0"/>
+      <c r="ALT1" s="0"/>
+      <c r="ALU1" s="0"/>
+      <c r="ALV1" s="0"/>
+      <c r="ALW1" s="0"/>
+      <c r="ALX1" s="0"/>
+      <c r="ALY1" s="0"/>
+      <c r="ALZ1" s="0"/>
+      <c r="AMA1" s="0"/>
+      <c r="AMB1" s="0"/>
+      <c r="AMC1" s="0"/>
+      <c r="AMD1" s="0"/>
+      <c r="AME1" s="0"/>
+      <c r="AMF1" s="0"/>
+      <c r="AMG1" s="0"/>
+      <c r="AMH1" s="0"/>
+      <c r="AMI1" s="0"/>
+      <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="E2" s="36" t="s">
+      <c r="D2" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="37" t="s">
+      <c r="F2" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="38" t="s">
+      <c r="G2" s="43" t="s">
         <v>36</v>
       </c>
       <c r="H2" s="0"/>
@@ -3725,15 +4669,15 @@
       <c r="AMJ2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
       <c r="H3" s="0"/>
       <c r="I3" s="0"/>
       <c r="J3" s="0"/>
@@ -4753,15 +5697,15 @@
       <c r="AMJ3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
       <c r="H4" s="0"/>
       <c r="I4" s="0"/>
       <c r="J4" s="0"/>
@@ -5781,15 +6725,15 @@
       <c r="AMJ4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="40"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="40"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="23"/>
       <c r="E5" s="29"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
       <c r="H5" s="0"/>
       <c r="I5" s="0"/>
       <c r="J5" s="0"/>
@@ -6809,15 +7753,15 @@
       <c r="AMJ5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="40"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="23"/>
       <c r="E6" s="29"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
       <c r="H6" s="0"/>
       <c r="I6" s="0"/>
       <c r="J6" s="0"/>
@@ -7837,15 +8781,15 @@
       <c r="AMJ6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="40"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="40"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="23"/>
       <c r="E7" s="29"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
       <c r="H7" s="0"/>
       <c r="I7" s="0"/>
       <c r="J7" s="0"/>
@@ -8864,27 +9808,27 @@
       <c r="AMI7" s="0"/>
       <c r="AMJ7" s="0"/>
     </row>
-    <row r="8" s="44" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="43" t="s">
+    <row r="8" s="49" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="40"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="40"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="40"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="23"/>
       <c r="E9" s="29"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
       <c r="H9" s="0"/>
       <c r="I9" s="0"/>
       <c r="J9" s="0"/>
@@ -9904,15 +10848,15 @@
       <c r="AMJ9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="40"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="40"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="23"/>
       <c r="E10" s="29"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
       <c r="H10" s="0"/>
       <c r="I10" s="0"/>
       <c r="J10" s="0"/>
@@ -10932,15 +11876,15 @@
       <c r="AMJ10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="40"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="40"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="23"/>
       <c r="E11" s="29"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="45"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="50"/>
       <c r="H11" s="0"/>
       <c r="I11" s="0"/>
       <c r="J11" s="0"/>
@@ -11960,15 +12904,15 @@
       <c r="AMJ11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="39" t="s">
+      <c r="A12" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="40"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="40"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="23"/>
       <c r="E12" s="29"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="47"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="52"/>
       <c r="H12" s="0"/>
       <c r="I12" s="0"/>
       <c r="J12" s="0"/>
@@ -12988,15 +13932,15 @@
       <c r="AMJ12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="39" t="s">
+      <c r="A13" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="40"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="40"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="23"/>
       <c r="E13" s="29"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
       <c r="H13" s="0"/>
       <c r="I13" s="0"/>
       <c r="J13" s="0"/>
@@ -14016,15 +14960,15 @@
       <c r="AMJ13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="40"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="40"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="23"/>
       <c r="E14" s="29"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
       <c r="H14" s="0"/>
       <c r="I14" s="0"/>
       <c r="J14" s="0"/>
@@ -15044,15 +15988,15 @@
       <c r="AMJ14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="39" t="s">
+      <c r="A15" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="40"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="40"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="23"/>
       <c r="E15" s="29"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
       <c r="H15" s="0"/>
       <c r="I15" s="0"/>
       <c r="J15" s="0"/>
@@ -16072,15 +17016,15 @@
       <c r="AMJ15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="39" t="s">
+      <c r="A16" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="40"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
       <c r="H16" s="0"/>
       <c r="I16" s="0"/>
       <c r="J16" s="0"/>
@@ -17099,49 +18043,49 @@
       <c r="AMI16" s="0"/>
       <c r="AMJ16" s="0"/>
     </row>
-    <row r="17" s="44" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="43" t="s">
+    <row r="17" s="49" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="40"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="39" t="s">
+      <c r="A18" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="40"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="40"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="23"/>
       <c r="E18" s="29"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="39" t="s">
+      <c r="A19" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="40"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="40"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="23"/>
       <c r="E19" s="29"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="39" t="s">
+      <c r="A20" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="40"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="40"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="23"/>
       <c r="E20" s="29"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -17165,71 +18109,71 @@
   </sheetPr>
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="48" width="21.0607287449393"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="49" width="21.0607287449393"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="48" width="43.8259109311741"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="48" width="65.4939271255061"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="48" width="10.5263157894737"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="50" width="9.06072874493927"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="53" width="21.4251012145749"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="54" width="21.4251012145749"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="53" width="44.9271255060729"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="53" width="67.085020242915"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="53" width="10.6558704453441"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="55" width="9.18218623481781"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="51"/>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="35" t="s">
+      <c r="A1" s="56"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="35"/>
+      <c r="G1" s="40"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="37" t="s">
+      <c r="F2" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="37" t="s">
+      <c r="G2" s="42" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="52"/>
-      <c r="B3" s="53"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
+      <c r="A3" s="57"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="52"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
+      <c r="A4" s="57"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -17264,242 +18208,242 @@
   </sheetPr>
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B32" activeCellId="0" sqref="B32"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="32" width="28.8947368421053"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="56" width="41.1336032388664"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="32" width="22.4008097165992"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="56" width="26.6882591093117"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="56" width="19.2186234817814"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="32" width="9.30364372469636"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="32" width="8.81376518218623"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="57" width="9.06072874493927"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="37" width="29.502024291498"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="61" width="42.1133603238866"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="37" width="22.8947368421053"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="61" width="27.4210526315789"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="61" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="37" width="9.4251012145749"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="37" width="9.06072874493927"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="62" width="9.18218623481781"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="58"/>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="35" t="s">
+      <c r="A1" s="63"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="35"/>
+      <c r="G1" s="40"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="59" t="s">
+      <c r="C2" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="59" t="s">
+      <c r="D2" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="59" t="s">
+      <c r="E2" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="37" t="s">
+      <c r="F2" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="60" t="s">
+      <c r="G2" s="65" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="25.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="61" t="s">
+    <row r="3" customFormat="false" ht="25.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="67" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="58" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="68" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="68" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="25.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="66" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="67" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="58" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="63" t="s">
+      <c r="D4" s="58" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="68" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="68" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="25.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="69" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="70" t="s">
         <v>71</v>
       </c>
-      <c r="D3" s="63" t="s">
+      <c r="C5" s="71" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="71" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="72" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="73" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="73" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="25.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="74" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="75" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="76" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="76" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="77" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="78" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="25.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="79" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="80" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="81" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="81" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="81" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" s="82" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="83" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="25.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="84" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="85" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="86" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" s="86" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="87" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="88" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="89" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="25.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="90" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="91" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="92" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="92" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="93" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="94" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="94" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="25.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="95" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="67" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="58" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="54" t="s">
+      <c r="E10" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="64" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="64" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="25.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="61" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="62" t="s">
-        <v>72</v>
-      </c>
-      <c r="C4" s="63" t="s">
-        <v>73</v>
-      </c>
-      <c r="D4" s="63" t="s">
-        <v>50</v>
-      </c>
-      <c r="E4" s="54" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" s="64" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="64" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="25.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="65" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="66" t="s">
-        <v>74</v>
-      </c>
-      <c r="C5" s="67" t="s">
-        <v>75</v>
-      </c>
-      <c r="D5" s="68" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" s="69" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" s="70" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="70" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="25.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="71" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="72" t="s">
-        <v>76</v>
-      </c>
-      <c r="C6" s="73" t="s">
-        <v>77</v>
-      </c>
-      <c r="D6" s="73" t="s">
-        <v>67</v>
-      </c>
-      <c r="E6" s="73" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="74" t="n">
+      <c r="F10" s="68" t="n">
         <v>0</v>
       </c>
-      <c r="G6" s="75" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="25.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="76" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="77" t="s">
-        <v>78</v>
-      </c>
-      <c r="C7" s="78" t="s">
-        <v>79</v>
-      </c>
-      <c r="D7" s="78" t="s">
-        <v>63</v>
-      </c>
-      <c r="E7" s="78" t="s">
-        <v>64</v>
-      </c>
-      <c r="F7" s="79" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="80" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="25.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="81" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="82" t="s">
-        <v>80</v>
-      </c>
-      <c r="C8" s="83" t="s">
-        <v>81</v>
-      </c>
-      <c r="D8" s="83" t="s">
-        <v>58</v>
-      </c>
-      <c r="E8" s="84" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" s="85" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" s="86" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="25.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="87" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="88" t="s">
-        <v>82</v>
-      </c>
-      <c r="C9" s="89" t="s">
-        <v>83</v>
-      </c>
-      <c r="D9" s="89" t="s">
-        <v>55</v>
-      </c>
-      <c r="E9" s="90" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" s="91" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" s="91" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="25.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="92" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="62" t="s">
-        <v>84</v>
-      </c>
-      <c r="C10" s="63" t="s">
-        <v>85</v>
-      </c>
-      <c r="D10" s="63" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="63" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" s="64" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" s="64" t="n">
+      <c r="G10" s="68" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="93"/>
+      <c r="C11" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -17523,32 +18467,32 @@
   </sheetPr>
   <dimension ref="1:65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D25" activeCellId="0" sqref="D25"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E23" activeCellId="0" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="94" width="31.587044534413"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="94" width="43.7044534412956"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="94" width="19.0971659919028"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="94" width="17.8744939271255"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="94" width="16.7732793522267"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="94" width="10.2834008097166"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="94" width="9.91093117408907"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="95" width="9.06072874493927"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="97" width="32.3198380566802"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="97" width="44.8056680161943"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="97" width="19.587044534413"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="97" width="18.2388663967611"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="97" width="17.1376518218624"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="97" width="10.4048582995951"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="97" width="10.0404858299595"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="98" width="9.18218623481781"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="96"/>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="35" t="s">
+      <c r="A1" s="99"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="35"/>
+      <c r="G1" s="40"/>
       <c r="H1" s="0"/>
       <c r="I1" s="0"/>
       <c r="J1" s="0"/>
@@ -18568,25 +19512,25 @@
       <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="97" t="s">
+      <c r="B2" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="97" t="s">
+      <c r="C2" s="100" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="59" t="s">
+      <c r="D2" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="59" t="s">
+      <c r="E2" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="37" t="s">
+      <c r="F2" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="98" t="s">
+      <c r="G2" s="101" t="s">
         <v>36</v>
       </c>
       <c r="H2" s="0"/>
@@ -19608,25 +20552,25 @@
       <c r="AMJ2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="99" t="s">
+      <c r="A3" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="100" t="s">
+      <c r="B3" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="101" t="n">
+      <c r="C3" s="24" t="n">
         <v>9103482</v>
       </c>
-      <c r="D3" s="53" t="s">
+      <c r="D3" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="102" t="s">
+      <c r="E3" s="103" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="103" t="n">
+      <c r="F3" s="104" t="n">
         <v>1</v>
       </c>
-      <c r="G3" s="103" t="n">
+      <c r="G3" s="104" t="n">
         <v>1</v>
       </c>
       <c r="H3" s="0"/>
@@ -20648,25 +21592,25 @@
       <c r="AMJ3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="99" t="s">
+      <c r="A4" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="100" t="s">
+      <c r="B4" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="101" t="n">
+      <c r="C4" s="24" t="n">
         <v>9103489</v>
       </c>
-      <c r="D4" s="53" t="s">
+      <c r="D4" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="102" t="s">
+      <c r="E4" s="103" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="103" t="n">
-        <v>2</v>
-      </c>
-      <c r="G4" s="103" t="n">
+      <c r="F4" s="104" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="104" t="n">
         <v>1</v>
       </c>
       <c r="H4" s="0"/>
@@ -21688,25 +22632,25 @@
       <c r="AMJ4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="99" t="s">
+      <c r="A5" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="100" t="s">
+      <c r="B5" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="104" t="n">
+      <c r="C5" s="28" t="n">
         <v>6192408100469</v>
       </c>
-      <c r="D5" s="53" t="s">
+      <c r="D5" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="102" t="s">
+      <c r="E5" s="103" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="103" t="n">
+      <c r="F5" s="104" t="n">
         <v>1</v>
       </c>
-      <c r="G5" s="103" t="n">
+      <c r="G5" s="104" t="n">
         <v>1</v>
       </c>
       <c r="H5" s="0"/>
@@ -22728,26 +23672,26 @@
       <c r="AMJ5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="99" t="s">
+      <c r="A6" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="100" t="s">
+      <c r="B6" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="104" t="n">
+      <c r="C6" s="28" t="n">
         <v>6192408100810</v>
       </c>
-      <c r="D6" s="53" t="s">
+      <c r="D6" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="102" t="s">
+      <c r="E6" s="103" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="103" t="n">
+      <c r="F6" s="104" t="n">
         <v>3</v>
       </c>
-      <c r="G6" s="103" t="n">
-        <v>2</v>
+      <c r="G6" s="104" t="n">
+        <v>1</v>
       </c>
       <c r="H6" s="0"/>
       <c r="I6" s="0"/>
@@ -23768,26 +24712,26 @@
       <c r="AMJ6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="99" t="s">
+      <c r="A7" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="100" t="s">
-        <v>66</v>
-      </c>
-      <c r="C7" s="104" t="n">
+      <c r="B7" s="67" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="28" t="n">
         <v>6192408101510</v>
       </c>
-      <c r="D7" s="53" t="s">
-        <v>67</v>
-      </c>
-      <c r="E7" s="102" t="s">
+      <c r="D7" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="103" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="103" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="103" t="n">
-        <v>0</v>
+      <c r="F7" s="104" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="104" t="n">
+        <v>1</v>
       </c>
       <c r="H7" s="0"/>
       <c r="I7" s="0"/>
@@ -24808,26 +25752,26 @@
       <c r="AMJ7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="99" t="s">
+      <c r="A8" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="100" t="s">
-        <v>68</v>
-      </c>
-      <c r="C8" s="104" t="n">
+      <c r="B8" s="67" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="28" t="n">
         <v>6192408101527</v>
       </c>
-      <c r="D8" s="53" t="s">
-        <v>67</v>
-      </c>
-      <c r="E8" s="102" t="s">
+      <c r="D8" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="103" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="103" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" s="103" t="n">
-        <v>0</v>
+      <c r="F8" s="104" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="104" t="n">
+        <v>1</v>
       </c>
       <c r="H8" s="0"/>
       <c r="I8" s="0"/>
@@ -25848,25 +26792,25 @@
       <c r="AMJ8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="99" t="s">
+      <c r="A9" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="100" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" s="104" t="n">
+      <c r="B9" s="67" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="28" t="n">
         <v>6192408100032</v>
       </c>
-      <c r="D9" s="53" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9" s="102" t="s">
+      <c r="D9" s="58" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="103" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="103" t="n">
-        <v>2</v>
-      </c>
-      <c r="G9" s="103" t="n">
+      <c r="F9" s="104" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="104" t="n">
         <v>1</v>
       </c>
       <c r="H9" s="0"/>
@@ -26888,26 +27832,26 @@
       <c r="AMJ9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="99" t="s">
+      <c r="A10" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="100" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" s="104" t="n">
+      <c r="B10" s="67" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="28" t="n">
         <v>6192408101886</v>
       </c>
-      <c r="D10" s="53" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" s="102" t="s">
+      <c r="D10" s="58" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="103" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="103" t="n">
-        <v>2</v>
-      </c>
-      <c r="G10" s="103" t="n">
-        <v>1</v>
+      <c r="F10" s="104" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="104" t="n">
+        <v>0</v>
       </c>
       <c r="H10" s="0"/>
       <c r="I10" s="0"/>
@@ -27928,25 +28872,25 @@
       <c r="AMJ10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="99" t="s">
+      <c r="A11" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="100" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11" s="104" t="n">
+      <c r="B11" s="67" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="28" t="n">
         <v>6192408101909</v>
       </c>
-      <c r="D11" s="53" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" s="102" t="s">
+      <c r="D11" s="58" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="103" t="s">
         <v>39</v>
       </c>
-      <c r="F11" s="103" t="n">
-        <v>2</v>
-      </c>
-      <c r="G11" s="103" t="n">
+      <c r="F11" s="104" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="104" t="n">
         <v>1</v>
       </c>
       <c r="H11" s="0"/>
@@ -28968,25 +29912,25 @@
       <c r="AMJ11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="99" t="s">
+      <c r="A12" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" s="104" t="n">
+      <c r="B12" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="28" t="n">
         <v>6192408101893</v>
       </c>
-      <c r="D12" s="53" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" s="102" t="s">
+      <c r="D12" s="58" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="103" t="s">
         <v>39</v>
       </c>
-      <c r="F12" s="103" t="n">
-        <v>2</v>
-      </c>
-      <c r="G12" s="103" t="n">
+      <c r="F12" s="104" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="104" t="n">
         <v>1</v>
       </c>
       <c r="H12" s="0"/>
@@ -30008,26 +30952,26 @@
       <c r="AMJ12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="99" t="s">
+      <c r="A13" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="100" t="s">
-        <v>46</v>
+      <c r="B13" s="67" t="s">
+        <v>43</v>
       </c>
       <c r="C13" s="29" t="n">
         <v>6192408100353</v>
       </c>
-      <c r="D13" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="E13" s="54" t="s">
-        <v>48</v>
-      </c>
-      <c r="F13" s="103" t="n">
-        <v>3</v>
-      </c>
-      <c r="G13" s="103" t="n">
-        <v>2</v>
+      <c r="D13" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="104" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" s="104" t="n">
+        <v>1</v>
       </c>
       <c r="H13" s="0"/>
       <c r="I13" s="0"/>
@@ -31048,26 +31992,26 @@
       <c r="AMJ13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="99" t="s">
+      <c r="A14" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="100" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="104" t="n">
+      <c r="B14" s="67" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="28" t="n">
         <v>6192408100155</v>
       </c>
-      <c r="D14" s="53" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14" s="54" t="s">
-        <v>48</v>
-      </c>
-      <c r="F14" s="103" t="n">
-        <v>3</v>
-      </c>
-      <c r="G14" s="103" t="n">
-        <v>2</v>
+      <c r="D14" s="58" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="104" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" s="104" t="n">
+        <v>0</v>
       </c>
       <c r="H14" s="0"/>
       <c r="I14" s="0"/>
@@ -32088,26 +33032,26 @@
       <c r="AMJ14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="99" t="s">
+      <c r="A15" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="100" t="s">
-        <v>56</v>
-      </c>
-      <c r="C15" s="104" t="n">
+      <c r="B15" s="67" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="28" t="n">
         <v>6192408100308</v>
       </c>
-      <c r="D15" s="53" t="s">
-        <v>55</v>
-      </c>
-      <c r="E15" s="54" t="s">
-        <v>48</v>
-      </c>
-      <c r="F15" s="103" t="n">
-        <v>3</v>
-      </c>
-      <c r="G15" s="103" t="n">
-        <v>2</v>
+      <c r="D15" s="58" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="104" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" s="104" t="n">
+        <v>1</v>
       </c>
       <c r="H15" s="0"/>
       <c r="I15" s="0"/>
@@ -33128,25 +34072,25 @@
       <c r="AMJ15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="99" t="s">
+      <c r="A16" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="100" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" s="104" t="n">
+      <c r="B16" s="67" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="28" t="n">
         <v>6192408100179</v>
       </c>
-      <c r="D16" s="53" t="s">
-        <v>58</v>
-      </c>
-      <c r="E16" s="54" t="s">
-        <v>48</v>
-      </c>
-      <c r="F16" s="103" t="n">
+      <c r="D16" s="58" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="104" t="n">
         <v>0</v>
       </c>
-      <c r="G16" s="103" t="n">
+      <c r="G16" s="104" t="n">
         <v>0</v>
       </c>
       <c r="H16" s="0"/>
@@ -34168,25 +35112,25 @@
       <c r="AMJ16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="99" t="s">
+      <c r="A17" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="100" t="s">
-        <v>59</v>
-      </c>
-      <c r="C17" s="104" t="n">
+      <c r="B17" s="67" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="28" t="n">
         <v>6192408100162</v>
       </c>
-      <c r="D17" s="53" t="s">
-        <v>58</v>
-      </c>
-      <c r="E17" s="54" t="s">
-        <v>48</v>
-      </c>
-      <c r="F17" s="103" t="n">
+      <c r="D17" s="58" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" s="104" t="n">
         <v>0</v>
       </c>
-      <c r="G17" s="103" t="n">
+      <c r="G17" s="104" t="n">
         <v>0</v>
       </c>
       <c r="H17" s="0"/>
@@ -35208,26 +36152,26 @@
       <c r="AMJ17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="99" t="s">
+      <c r="A18" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="100" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18" s="101" t="n">
+      <c r="B18" s="67" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="24" t="n">
         <v>9103471</v>
       </c>
-      <c r="D18" s="53" t="s">
-        <v>61</v>
-      </c>
-      <c r="E18" s="54" t="s">
-        <v>48</v>
-      </c>
-      <c r="F18" s="103" t="n">
-        <v>3</v>
-      </c>
-      <c r="G18" s="103" t="n">
-        <v>2</v>
+      <c r="D18" s="58" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="104" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" s="104" t="n">
+        <v>1</v>
       </c>
       <c r="H18" s="0"/>
       <c r="I18" s="0"/>
@@ -36248,26 +37192,26 @@
       <c r="AMJ18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="99" t="s">
+      <c r="A19" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="100" t="s">
-        <v>62</v>
-      </c>
-      <c r="C19" s="104" t="n">
+      <c r="B19" s="67" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="28" t="n">
         <v>3582910075455</v>
       </c>
-      <c r="D19" s="53" t="s">
-        <v>63</v>
-      </c>
-      <c r="E19" s="102" t="s">
-        <v>64</v>
-      </c>
-      <c r="F19" s="103" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" s="103" t="n">
-        <v>0</v>
+      <c r="D19" s="58" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" s="103" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" s="104" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" s="104" t="n">
+        <v>1</v>
       </c>
       <c r="H19" s="0"/>
       <c r="I19" s="0"/>
@@ -37288,25 +38232,25 @@
       <c r="AMJ19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="99" t="s">
+      <c r="A20" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="100" t="s">
-        <v>65</v>
-      </c>
-      <c r="C20" s="104" t="n">
+      <c r="B20" s="67" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="28" t="n">
         <v>3582910075448</v>
       </c>
-      <c r="D20" s="53" t="s">
-        <v>63</v>
-      </c>
-      <c r="E20" s="102" t="s">
-        <v>64</v>
-      </c>
-      <c r="F20" s="103" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" s="103" t="n">
+      <c r="D20" s="58" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" s="103" t="s">
+        <v>61</v>
+      </c>
+      <c r="F20" s="104" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" s="104" t="n">
         <v>0</v>
       </c>
       <c r="H20" s="0"/>
@@ -38331,22 +39275,22 @@
       <c r="A21" s="105" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="100" t="s">
+      <c r="B21" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="104" t="n">
+      <c r="C21" s="28" t="n">
         <v>6192408100810</v>
       </c>
-      <c r="D21" s="53" t="s">
+      <c r="D21" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="E21" s="102" t="s">
+      <c r="E21" s="103" t="s">
         <v>39</v>
       </c>
-      <c r="F21" s="103" t="n">
+      <c r="F21" s="104" t="n">
         <v>9</v>
       </c>
-      <c r="G21" s="103" t="n">
+      <c r="G21" s="104" t="n">
         <v>0</v>
       </c>
     </row>
